--- a/raw/TX/TexasCOVID-19CumulativeTestsOverTimebyCounty.xlsx
+++ b/raw/TX/TexasCOVID-19CumulativeTestsOverTimebyCounty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{665A8D57-AC25-4762-98AE-4BFAB5509F62}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8421BBF3-9A36-4B65-8C35-C1184E97B9AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="309">
   <si>
     <t>County</t>
   </si>
@@ -926,7 +926,37 @@
     <t>Tests Through May 22</t>
   </si>
   <si>
-    <t>5. This file will be updated daily; the next cumulative update will be 5/24/2020.</t>
+    <t>Tests Through May 23</t>
+  </si>
+  <si>
+    <t>Tests Through May 24</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tests Through May 25</t>
+  </si>
+  <si>
+    <t>Tests Through May 26</t>
+  </si>
+  <si>
+    <t>Tests Through May 27</t>
+  </si>
+  <si>
+    <t>Tests Through May 28</t>
+  </si>
+  <si>
+    <t>Tests Through May 29</t>
+  </si>
+  <si>
+    <t>Tests Through May 30</t>
+  </si>
+  <si>
+    <t>Tests Through May 31</t>
+  </si>
+  <si>
+    <t>5. This file will be updated daily; the next cumulative update will be 6/2/2020.</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1072,6 +1102,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1364,7 +1397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG267"/>
+  <dimension ref="A1:AP267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -1376,16 +1409,17 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="24" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="33" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="39" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1485,8 +1519,35 @@
       <c r="AG2" s="7" t="s">
         <v>297</v>
       </c>
+      <c r="AH2" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1586,8 +1647,35 @@
       <c r="AG3" s="2">
         <v>1094</v>
       </c>
+      <c r="AH3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1152</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>1160</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1165</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>1167</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>1176</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>1183</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>1190</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>1191</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1687,8 +1775,35 @@
       <c r="AG4" s="2">
         <v>20</v>
       </c>
+      <c r="AH4" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>23</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>24</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>24</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>31</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1788,8 +1903,35 @@
       <c r="AG5" s="2">
         <v>1632</v>
       </c>
+      <c r="AH5" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>1736</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>1796</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>1983</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>2114</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>2177</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>2236</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>2239</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1889,8 +2031,35 @@
       <c r="AG6" s="2">
         <v>221</v>
       </c>
+      <c r="AH6" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>227</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>243</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>243</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>243</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1990,8 +2159,35 @@
       <c r="AG7" s="2">
         <v>39</v>
       </c>
+      <c r="AH7" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>45</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2091,8 +2287,35 @@
       <c r="AG8" s="2">
         <v>81</v>
       </c>
+      <c r="AH8" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>91</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>135</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>141</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>143</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2192,8 +2415,35 @@
       <c r="AG9" s="2">
         <v>524</v>
       </c>
+      <c r="AH9" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>539</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>550</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>741</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>747</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>758</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>759</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -2293,8 +2543,35 @@
       <c r="AG10" s="2">
         <v>608</v>
       </c>
+      <c r="AH10" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>636</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>665</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>684</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>825</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>866</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>884</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>906</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>913</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2394,8 +2671,35 @@
       <c r="AG11" s="2">
         <v>40</v>
       </c>
+      <c r="AH11" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>49</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>49</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2495,8 +2799,35 @@
       <c r="AG12" s="2">
         <v>125</v>
       </c>
+      <c r="AH12" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>129</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>132</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>136</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>142</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>145</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>147</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>148</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -2596,8 +2927,35 @@
       <c r="AG13" s="2">
         <v>918</v>
       </c>
+      <c r="AH13" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>1001</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>1016</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>1031</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>1041</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>1068</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>1104</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>1130</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>1136</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2697,8 +3055,35 @@
       <c r="AG14" s="2">
         <v>25</v>
       </c>
+      <c r="AH14" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>28</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>28</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>35</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2798,8 +3183,35 @@
       <c r="AG15" s="2">
         <v>387</v>
       </c>
+      <c r="AH15" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>395</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>398</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>403</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>413</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>414</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>436</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -2899,8 +3311,35 @@
       <c r="AG16" s="2">
         <v>8467</v>
       </c>
+      <c r="AH16" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>8801</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>9199</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>9509</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>9742</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>10451</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>10514</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>11325</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>11499</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -3000,8 +3439,35 @@
       <c r="AG17" s="2">
         <v>43031</v>
       </c>
+      <c r="AH17" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>44481</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>46580</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>47422</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>48289</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>50150</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>51309</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>52336</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>52621</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -3101,8 +3567,35 @@
       <c r="AG18" s="2">
         <v>710</v>
       </c>
+      <c r="AH18" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>758</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>770</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>788</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>805</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>829</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>843</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>858</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>866</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -3202,8 +3695,35 @@
       <c r="AG19" s="2">
         <v>0</v>
       </c>
+      <c r="AH19" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -3303,8 +3823,35 @@
       <c r="AG20" s="2">
         <v>276</v>
       </c>
+      <c r="AH20" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>286</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>328</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>350</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>374</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -3404,8 +3951,35 @@
       <c r="AG21" s="2">
         <v>2257</v>
       </c>
+      <c r="AH21" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>2327</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>2380</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>2419</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>2439</v>
+      </c>
+      <c r="AM21" s="2">
+        <v>2477</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>2498</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>2542</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>2543</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -3505,8 +4079,35 @@
       <c r="AG22" s="2">
         <v>8187</v>
       </c>
+      <c r="AH22" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>8426</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>8582</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>8763</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>8853</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>9162</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>9316</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>9472</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>9507</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -3606,8 +4207,35 @@
       <c r="AG23" s="2">
         <v>3329</v>
       </c>
+      <c r="AH23" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>3544</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>3641</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>3695</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>3728</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>4138</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>4232</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>4592</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>4636</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -3707,8 +4335,35 @@
       <c r="AG24" s="2">
         <v>50</v>
       </c>
+      <c r="AH24" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>60</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>65</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>68</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>73</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>73</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -3808,8 +4463,35 @@
       <c r="AG25" s="2">
         <v>28</v>
       </c>
+      <c r="AH25" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>28</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>30</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>31</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>31</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>31</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>33</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>33</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -3909,8 +4591,35 @@
       <c r="AG26" s="2">
         <v>46</v>
       </c>
+      <c r="AH26" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>47</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>48</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>48</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>49</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>49</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>49</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -4010,8 +4719,35 @@
       <c r="AG27" s="2">
         <v>210</v>
       </c>
+      <c r="AH27" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>227</v>
+      </c>
+      <c r="AJ27" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK27" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>282</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>287</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>288</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -4111,8 +4847,35 @@
       <c r="AG28" s="2">
         <v>223</v>
       </c>
+      <c r="AH28" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>227</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>292</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>315</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>316</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -4212,8 +4975,35 @@
       <c r="AG29" s="2">
         <v>709</v>
       </c>
+      <c r="AH29" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>762</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>787</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>823</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>840</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>891</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>905</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>952</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>956</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -4313,8 +5103,35 @@
       <c r="AG30" s="2">
         <v>437</v>
       </c>
+      <c r="AH30" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>510</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>519</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>531</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>556</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>564</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>569</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>572</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -4414,8 +5231,35 @@
       <c r="AG31" s="2">
         <v>463</v>
       </c>
+      <c r="AH31" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>476</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>488</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>495</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>502</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>506</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -4515,8 +5359,35 @@
       <c r="AG32" s="2">
         <v>122</v>
       </c>
+      <c r="AH32" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>126</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>150</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>154</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>163</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>163</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -4616,8 +5487,35 @@
       <c r="AG33" s="2">
         <v>5370</v>
       </c>
+      <c r="AH33" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>5490</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>5625</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>5705</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>5754</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>5860</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>5962</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>6234</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>6352</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -4717,8 +5615,35 @@
       <c r="AG34" s="2">
         <v>107</v>
       </c>
+      <c r="AH34" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>130</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>145</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>155</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>155</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -4818,8 +5743,35 @@
       <c r="AG35" s="2">
         <v>60</v>
       </c>
+      <c r="AH35" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL35" s="2">
+        <v>93</v>
+      </c>
+      <c r="AM35" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>94</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>95</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>97</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -4919,8 +5871,35 @@
       <c r="AG36" s="2">
         <v>438</v>
       </c>
+      <c r="AH36" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>450</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>499</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>519</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>520</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -5020,8 +5999,35 @@
       <c r="AG37" s="2">
         <v>176</v>
       </c>
+      <c r="AH37" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>181</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM37" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>203</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>204</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>205</v>
+      </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -5121,8 +6127,35 @@
       <c r="AG38" s="2">
         <v>784</v>
       </c>
+      <c r="AH38" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>821</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>843</v>
+      </c>
+      <c r="AK38" s="2">
+        <v>856</v>
+      </c>
+      <c r="AL38" s="2">
+        <v>873</v>
+      </c>
+      <c r="AM38" s="2">
+        <v>903</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>930</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>956</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>960</v>
+      </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -5222,8 +6255,35 @@
       <c r="AG39" s="2">
         <v>436</v>
       </c>
+      <c r="AH39" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>450</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>514</v>
+      </c>
+      <c r="AK39" s="2">
+        <v>720</v>
+      </c>
+      <c r="AL39" s="2">
+        <v>730</v>
+      </c>
+      <c r="AM39" s="2">
+        <v>734</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>737</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>740</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>745</v>
+      </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -5323,8 +6383,35 @@
       <c r="AG40" s="2">
         <v>188</v>
       </c>
+      <c r="AH40" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>196</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK40" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL40" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM40" s="2">
+        <v>210</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>210</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>213</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>214</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -5424,8 +6511,35 @@
       <c r="AG41" s="2">
         <v>112</v>
       </c>
+      <c r="AH41" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI41" s="2">
+        <v>115</v>
+      </c>
+      <c r="AJ41" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK41" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL41" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM41" s="2">
+        <v>180</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>185</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>186</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>186</v>
+      </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -5525,8 +6639,35 @@
       <c r="AG42" s="2">
         <v>5</v>
       </c>
+      <c r="AH42" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI42" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ42" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK42" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL42" s="2">
+        <v>5</v>
+      </c>
+      <c r="AM42" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO42" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP42" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -5626,8 +6767,35 @@
       <c r="AG43" s="2">
         <v>9</v>
       </c>
+      <c r="AH43" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>9</v>
+      </c>
+      <c r="AJ43" s="2">
+        <v>10</v>
+      </c>
+      <c r="AK43" s="2">
+        <v>10</v>
+      </c>
+      <c r="AL43" s="2">
+        <v>10</v>
+      </c>
+      <c r="AM43" s="2">
+        <v>12</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>12</v>
+      </c>
+      <c r="AO43" s="2">
+        <v>12</v>
+      </c>
+      <c r="AP43" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -5727,8 +6895,35 @@
       <c r="AG44" s="2">
         <v>96</v>
       </c>
+      <c r="AH44" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ44" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK44" s="2">
+        <v>107</v>
+      </c>
+      <c r="AL44" s="2">
+        <v>113</v>
+      </c>
+      <c r="AM44" s="2">
+        <v>115</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>117</v>
+      </c>
+      <c r="AO44" s="2">
+        <v>121</v>
+      </c>
+      <c r="AP44" s="2">
+        <v>122</v>
+      </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -5828,8 +7023,35 @@
       <c r="AG45" s="2">
         <v>19042</v>
       </c>
+      <c r="AH45" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>20031</v>
+      </c>
+      <c r="AJ45" s="2">
+        <v>20963</v>
+      </c>
+      <c r="AK45" s="2">
+        <v>21365</v>
+      </c>
+      <c r="AL45" s="2">
+        <v>21825</v>
+      </c>
+      <c r="AM45" s="2">
+        <v>22631</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>23031</v>
+      </c>
+      <c r="AO45" s="2">
+        <v>23479</v>
+      </c>
+      <c r="AP45" s="2">
+        <v>23618</v>
+      </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -5929,8 +7151,35 @@
       <c r="AG46" s="2">
         <v>75</v>
       </c>
+      <c r="AH46" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI46" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ46" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK46" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL46" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM46" s="2">
+        <v>130</v>
+      </c>
+      <c r="AN46" s="2">
+        <v>130</v>
+      </c>
+      <c r="AO46" s="2">
+        <v>131</v>
+      </c>
+      <c r="AP46" s="2">
+        <v>131</v>
+      </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -6030,8 +7279,35 @@
       <c r="AG47" s="2">
         <v>277</v>
       </c>
+      <c r="AH47" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI47" s="2">
+        <v>285</v>
+      </c>
+      <c r="AJ47" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK47" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL47" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM47" s="2">
+        <v>511</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>531</v>
+      </c>
+      <c r="AO47" s="2">
+        <v>544</v>
+      </c>
+      <c r="AP47" s="2">
+        <v>551</v>
+      </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
@@ -6131,8 +7407,35 @@
       <c r="AG48" s="2">
         <v>2041</v>
       </c>
+      <c r="AH48" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI48" s="2">
+        <v>2489</v>
+      </c>
+      <c r="AJ48" s="2">
+        <v>2534</v>
+      </c>
+      <c r="AK48" s="2">
+        <v>2557</v>
+      </c>
+      <c r="AL48" s="2">
+        <v>2591</v>
+      </c>
+      <c r="AM48" s="2">
+        <v>2659</v>
+      </c>
+      <c r="AN48" s="2">
+        <v>2691</v>
+      </c>
+      <c r="AO48" s="2">
+        <v>2733</v>
+      </c>
+      <c r="AP48" s="2">
+        <v>2769</v>
+      </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
@@ -6232,8 +7535,35 @@
       <c r="AG49" s="2">
         <v>130</v>
       </c>
+      <c r="AH49" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI49" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ49" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK49" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL49" s="2">
+        <v>152</v>
+      </c>
+      <c r="AM49" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>155</v>
+      </c>
+      <c r="AO49" s="2">
+        <v>158</v>
+      </c>
+      <c r="AP49" s="2">
+        <v>158</v>
+      </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
@@ -6333,8 +7663,35 @@
       <c r="AG50" s="2">
         <v>12</v>
       </c>
+      <c r="AH50" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI50" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ50" s="2">
+        <v>12</v>
+      </c>
+      <c r="AK50" s="2">
+        <v>12</v>
+      </c>
+      <c r="AL50" s="2">
+        <v>12</v>
+      </c>
+      <c r="AM50" s="2">
+        <v>12</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>32</v>
+      </c>
+      <c r="AO50" s="2">
+        <v>53</v>
+      </c>
+      <c r="AP50" s="2">
+        <v>53</v>
+      </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -6434,8 +7791,35 @@
       <c r="AG51" s="2">
         <v>546</v>
       </c>
+      <c r="AH51" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI51" s="2">
+        <v>677</v>
+      </c>
+      <c r="AJ51" s="2">
+        <v>886</v>
+      </c>
+      <c r="AK51" s="2">
+        <v>1041</v>
+      </c>
+      <c r="AL51" s="2">
+        <v>1150</v>
+      </c>
+      <c r="AM51" s="2">
+        <v>1168</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>1179</v>
+      </c>
+      <c r="AO51" s="2">
+        <v>1202</v>
+      </c>
+      <c r="AP51" s="2">
+        <v>1207</v>
+      </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -6535,8 +7919,35 @@
       <c r="AG52" s="2">
         <v>1976</v>
       </c>
+      <c r="AH52" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI52" s="2">
+        <v>2043</v>
+      </c>
+      <c r="AJ52" s="2">
+        <v>2096</v>
+      </c>
+      <c r="AK52" s="2">
+        <v>2149</v>
+      </c>
+      <c r="AL52" s="2">
+        <v>2168</v>
+      </c>
+      <c r="AM52" s="2">
+        <v>2279</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>2288</v>
+      </c>
+      <c r="AO52" s="2">
+        <v>2373</v>
+      </c>
+      <c r="AP52" s="2">
+        <v>2414</v>
+      </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
@@ -6636,8 +8047,35 @@
       <c r="AG53" s="2">
         <v>12</v>
       </c>
+      <c r="AH53" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI53" s="2">
+        <v>14</v>
+      </c>
+      <c r="AJ53" s="2">
+        <v>16</v>
+      </c>
+      <c r="AK53" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL53" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM53" s="2">
+        <v>21</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>21</v>
+      </c>
+      <c r="AO53" s="2">
+        <v>21</v>
+      </c>
+      <c r="AP53" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>52</v>
       </c>
@@ -6737,8 +8175,35 @@
       <c r="AG54" s="2">
         <v>32</v>
       </c>
+      <c r="AH54" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI54" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ54" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK54" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL54" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM54" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>110</v>
+      </c>
+      <c r="AO54" s="2">
+        <v>113</v>
+      </c>
+      <c r="AP54" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
@@ -6838,8 +8303,35 @@
       <c r="AG55" s="2">
         <v>10</v>
       </c>
+      <c r="AH55" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI55" s="2">
+        <v>10</v>
+      </c>
+      <c r="AJ55" s="2">
+        <v>10</v>
+      </c>
+      <c r="AK55" s="2">
+        <v>10</v>
+      </c>
+      <c r="AL55" s="2">
+        <v>10</v>
+      </c>
+      <c r="AM55" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN55" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO55" s="2">
+        <v>48</v>
+      </c>
+      <c r="AP55" s="2">
+        <v>48</v>
+      </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
@@ -6939,8 +8431,35 @@
       <c r="AG56" s="2">
         <v>9</v>
       </c>
+      <c r="AH56" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI56" s="2">
+        <v>11</v>
+      </c>
+      <c r="AJ56" s="2">
+        <v>12</v>
+      </c>
+      <c r="AK56" s="2">
+        <v>12</v>
+      </c>
+      <c r="AL56" s="2">
+        <v>13</v>
+      </c>
+      <c r="AM56" s="2">
+        <v>13</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>13</v>
+      </c>
+      <c r="AO56" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP56" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -7040,8 +8559,35 @@
       <c r="AG57" s="2">
         <v>16</v>
       </c>
+      <c r="AH57" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI57" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ57" s="2">
+        <v>18</v>
+      </c>
+      <c r="AK57" s="2">
+        <v>18</v>
+      </c>
+      <c r="AL57" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM57" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO57" s="2">
+        <v>23</v>
+      </c>
+      <c r="AP57" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -7141,8 +8687,35 @@
       <c r="AG58" s="2">
         <v>20</v>
       </c>
+      <c r="AH58" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI58" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK58" s="2">
+        <v>21</v>
+      </c>
+      <c r="AL58" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM58" s="2">
+        <v>21</v>
+      </c>
+      <c r="AN58" s="2">
+        <v>21</v>
+      </c>
+      <c r="AO58" s="2">
+        <v>21</v>
+      </c>
+      <c r="AP58" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -7242,8 +8815,35 @@
       <c r="AG59" s="2">
         <v>71767</v>
       </c>
+      <c r="AH59" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI59" s="2">
+        <v>75827</v>
+      </c>
+      <c r="AJ59" s="2">
+        <v>78040</v>
+      </c>
+      <c r="AK59" s="2">
+        <v>79955</v>
+      </c>
+      <c r="AL59" s="2">
+        <v>81438</v>
+      </c>
+      <c r="AM59" s="2">
+        <v>83762</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>85021</v>
+      </c>
+      <c r="AO59" s="2">
+        <v>87168</v>
+      </c>
+      <c r="AP59" s="2">
+        <v>87712</v>
+      </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
@@ -7343,8 +8943,35 @@
       <c r="AG60" s="2">
         <v>164</v>
       </c>
+      <c r="AH60" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI60" s="2">
+        <v>171</v>
+      </c>
+      <c r="AJ60" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK60" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL60" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM60" s="2">
+        <v>193</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>194</v>
+      </c>
+      <c r="AO60" s="2">
+        <v>198</v>
+      </c>
+      <c r="AP60" s="2">
+        <v>199</v>
+      </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
@@ -7444,8 +9071,35 @@
       <c r="AG61" s="2">
         <v>205</v>
       </c>
+      <c r="AH61" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI61" s="2">
+        <v>206</v>
+      </c>
+      <c r="AJ61" s="2">
+        <v>212</v>
+      </c>
+      <c r="AK61" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL61" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM61" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO61" s="2">
+        <v>236</v>
+      </c>
+      <c r="AP61" s="2">
+        <v>239</v>
+      </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
@@ -7545,8 +9199,35 @@
       <c r="AG62" s="2">
         <v>57</v>
       </c>
+      <c r="AH62" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI62" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ62" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK62" s="2">
+        <v>60</v>
+      </c>
+      <c r="AL62" s="2">
+        <v>62</v>
+      </c>
+      <c r="AM62" s="2">
+        <v>65</v>
+      </c>
+      <c r="AN62" s="2">
+        <v>66</v>
+      </c>
+      <c r="AO62" s="2">
+        <v>67</v>
+      </c>
+      <c r="AP62" s="2">
+        <v>67</v>
+      </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>61</v>
       </c>
@@ -7646,8 +9327,35 @@
       <c r="AG63" s="2">
         <v>17073</v>
       </c>
+      <c r="AH63" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI63" s="2">
+        <v>18156</v>
+      </c>
+      <c r="AJ63" s="2">
+        <v>18752</v>
+      </c>
+      <c r="AK63" s="2">
+        <v>19172</v>
+      </c>
+      <c r="AL63" s="2">
+        <v>19586</v>
+      </c>
+      <c r="AM63" s="2">
+        <v>20257</v>
+      </c>
+      <c r="AN63" s="2">
+        <v>20596</v>
+      </c>
+      <c r="AO63" s="2">
+        <v>20995</v>
+      </c>
+      <c r="AP63" s="2">
+        <v>21144</v>
+      </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
@@ -7747,8 +9455,35 @@
       <c r="AG64" s="2">
         <v>256</v>
       </c>
+      <c r="AH64" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI64" s="2">
+        <v>265</v>
+      </c>
+      <c r="AJ64" s="2">
+        <v>270</v>
+      </c>
+      <c r="AK64" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL64" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM64" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN64" s="2">
+        <v>283</v>
+      </c>
+      <c r="AO64" s="2">
+        <v>288</v>
+      </c>
+      <c r="AP64" s="2">
+        <v>288</v>
+      </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
@@ -7848,8 +9583,35 @@
       <c r="AG65" s="2">
         <v>6</v>
       </c>
+      <c r="AH65" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI65" s="2">
+        <v>7</v>
+      </c>
+      <c r="AJ65" s="2">
+        <v>9</v>
+      </c>
+      <c r="AK65" s="2">
+        <v>9</v>
+      </c>
+      <c r="AL65" s="2">
+        <v>9</v>
+      </c>
+      <c r="AM65" s="2">
+        <v>9</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>9</v>
+      </c>
+      <c r="AO65" s="2">
+        <v>10</v>
+      </c>
+      <c r="AP65" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -7949,8 +9711,35 @@
       <c r="AG66" s="2">
         <v>61</v>
       </c>
+      <c r="AH66" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI66" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ66" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK66" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL66" s="2">
+        <v>67</v>
+      </c>
+      <c r="AM66" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN66" s="2">
+        <v>68</v>
+      </c>
+      <c r="AO66" s="2">
+        <v>69</v>
+      </c>
+      <c r="AP66" s="2">
+        <v>69</v>
+      </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
@@ -8050,8 +9839,35 @@
       <c r="AG67" s="2">
         <v>72</v>
       </c>
+      <c r="AH67" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI67" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ67" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK67" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL67" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM67" s="2">
+        <v>148</v>
+      </c>
+      <c r="AN67" s="2">
+        <v>149</v>
+      </c>
+      <c r="AO67" s="2">
+        <v>149</v>
+      </c>
+      <c r="AP67" s="2">
+        <v>152</v>
+      </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>66</v>
       </c>
@@ -8151,8 +9967,35 @@
       <c r="AG68" s="2">
         <v>284</v>
       </c>
+      <c r="AH68" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI68" s="2">
+        <v>287</v>
+      </c>
+      <c r="AJ68" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK68" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL68" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM68" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN68" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO68" s="2">
+        <v>300</v>
+      </c>
+      <c r="AP68" s="2">
+        <v>302</v>
+      </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
@@ -8252,8 +10095,35 @@
       <c r="AG69" s="2">
         <v>189</v>
       </c>
+      <c r="AH69" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI69" s="2">
+        <v>199</v>
+      </c>
+      <c r="AJ69" s="2">
+        <v>205</v>
+      </c>
+      <c r="AK69" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL69" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM69" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN69" s="2">
+        <v>230</v>
+      </c>
+      <c r="AO69" s="2">
+        <v>236</v>
+      </c>
+      <c r="AP69" s="2">
+        <v>237</v>
+      </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
@@ -8353,8 +10223,35 @@
       <c r="AG70" s="2">
         <v>2448</v>
       </c>
+      <c r="AH70" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI70" s="2">
+        <v>2718</v>
+      </c>
+      <c r="AJ70" s="2">
+        <v>2749</v>
+      </c>
+      <c r="AK70" s="2">
+        <v>2771</v>
+      </c>
+      <c r="AL70" s="2">
+        <v>2780</v>
+      </c>
+      <c r="AM70" s="2">
+        <v>2798</v>
+      </c>
+      <c r="AN70" s="2">
+        <v>2861</v>
+      </c>
+      <c r="AO70" s="2">
+        <v>2889</v>
+      </c>
+      <c r="AP70" s="2">
+        <v>2910</v>
+      </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>69</v>
       </c>
@@ -8454,8 +10351,35 @@
       <c r="AG71" s="2">
         <v>6</v>
       </c>
+      <c r="AH71" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI71" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ71" s="2">
+        <v>6</v>
+      </c>
+      <c r="AK71" s="2">
+        <v>6</v>
+      </c>
+      <c r="AL71" s="2">
+        <v>6</v>
+      </c>
+      <c r="AM71" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN71" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO71" s="2">
+        <v>6</v>
+      </c>
+      <c r="AP71" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
@@ -8555,8 +10479,35 @@
       <c r="AG72" s="2">
         <v>4082</v>
       </c>
+      <c r="AH72" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI72" s="2">
+        <v>4285</v>
+      </c>
+      <c r="AJ72" s="2">
+        <v>4433</v>
+      </c>
+      <c r="AK72" s="2">
+        <v>4555</v>
+      </c>
+      <c r="AL72" s="2">
+        <v>4630</v>
+      </c>
+      <c r="AM72" s="2">
+        <v>5018</v>
+      </c>
+      <c r="AN72" s="2">
+        <v>5131</v>
+      </c>
+      <c r="AO72" s="2">
+        <v>5277</v>
+      </c>
+      <c r="AP72" s="2">
+        <v>5302</v>
+      </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>71</v>
       </c>
@@ -8656,8 +10607,35 @@
       <c r="AG73" s="2">
         <v>19967</v>
       </c>
+      <c r="AH73" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI73" s="2">
+        <v>21412</v>
+      </c>
+      <c r="AJ73" s="2">
+        <v>21952</v>
+      </c>
+      <c r="AK73" s="2">
+        <v>22587</v>
+      </c>
+      <c r="AL73" s="2">
+        <v>23525</v>
+      </c>
+      <c r="AM73" s="2">
+        <v>24720</v>
+      </c>
+      <c r="AN73" s="2">
+        <v>25473</v>
+      </c>
+      <c r="AO73" s="2">
+        <v>26567</v>
+      </c>
+      <c r="AP73" s="2">
+        <v>27377</v>
+      </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
@@ -8757,8 +10735,35 @@
       <c r="AG74" s="2">
         <v>492</v>
       </c>
+      <c r="AH74" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI74" s="2">
+        <v>498</v>
+      </c>
+      <c r="AJ74" s="2">
+        <v>500</v>
+      </c>
+      <c r="AK74" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL74" s="2">
+        <v>729</v>
+      </c>
+      <c r="AM74" s="2">
+        <v>767</v>
+      </c>
+      <c r="AN74" s="2">
+        <v>781</v>
+      </c>
+      <c r="AO74" s="2">
+        <v>802</v>
+      </c>
+      <c r="AP74" s="2">
+        <v>804</v>
+      </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>73</v>
       </c>
@@ -8858,8 +10863,35 @@
       <c r="AG75" s="2">
         <v>226</v>
       </c>
+      <c r="AH75" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI75" s="2">
+        <v>234</v>
+      </c>
+      <c r="AJ75" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK75" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL75" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM75" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN75" s="2">
+        <v>288</v>
+      </c>
+      <c r="AO75" s="2">
+        <v>311</v>
+      </c>
+      <c r="AP75" s="2">
+        <v>315</v>
+      </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>74</v>
       </c>
@@ -8959,8 +10991,35 @@
       <c r="AG76" s="2">
         <v>659</v>
       </c>
+      <c r="AH76" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI76" s="2">
+        <v>687</v>
+      </c>
+      <c r="AJ76" s="2">
+        <v>704</v>
+      </c>
+      <c r="AK76" s="2">
+        <v>733</v>
+      </c>
+      <c r="AL76" s="2">
+        <v>747</v>
+      </c>
+      <c r="AM76" s="2">
+        <v>761</v>
+      </c>
+      <c r="AN76" s="2">
+        <v>777</v>
+      </c>
+      <c r="AO76" s="2">
+        <v>800</v>
+      </c>
+      <c r="AP76" s="2">
+        <v>808</v>
+      </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -9060,8 +11119,35 @@
       <c r="AG77" s="2">
         <v>307</v>
       </c>
+      <c r="AH77" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI77" s="2">
+        <v>328</v>
+      </c>
+      <c r="AJ77" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK77" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL77" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM77" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN77" s="2">
+        <v>373</v>
+      </c>
+      <c r="AO77" s="2">
+        <v>376</v>
+      </c>
+      <c r="AP77" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
@@ -9161,8 +11247,35 @@
       <c r="AG78" s="2">
         <v>19</v>
       </c>
+      <c r="AH78" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI78" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ78" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK78" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL78" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM78" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN78" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO78" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP78" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>77</v>
       </c>
@@ -9262,8 +11375,35 @@
       <c r="AG79" s="2">
         <v>112</v>
       </c>
+      <c r="AH79" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI79" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ79" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK79" s="2">
+        <v>119</v>
+      </c>
+      <c r="AL79" s="2">
+        <v>119</v>
+      </c>
+      <c r="AM79" s="2">
+        <v>122</v>
+      </c>
+      <c r="AN79" s="2">
+        <v>124</v>
+      </c>
+      <c r="AO79" s="2">
+        <v>127</v>
+      </c>
+      <c r="AP79" s="2">
+        <v>129</v>
+      </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>78</v>
       </c>
@@ -9363,8 +11503,35 @@
       <c r="AG80" s="2">
         <v>11</v>
       </c>
+      <c r="AH80" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI80" s="2">
+        <v>11</v>
+      </c>
+      <c r="AJ80" s="2">
+        <v>11</v>
+      </c>
+      <c r="AK80" s="2">
+        <v>11</v>
+      </c>
+      <c r="AL80" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM80" s="2">
+        <v>11</v>
+      </c>
+      <c r="AN80" s="2">
+        <v>88</v>
+      </c>
+      <c r="AO80" s="2">
+        <v>88</v>
+      </c>
+      <c r="AP80" s="2">
+        <v>88</v>
+      </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>79</v>
       </c>
@@ -9464,8 +11631,35 @@
       <c r="AG81" s="2">
         <v>46339</v>
       </c>
+      <c r="AH81" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI81" s="2">
+        <v>48326</v>
+      </c>
+      <c r="AJ81" s="2">
+        <v>49292</v>
+      </c>
+      <c r="AK81" s="2">
+        <v>50275</v>
+      </c>
+      <c r="AL81" s="2">
+        <v>50762</v>
+      </c>
+      <c r="AM81" s="2">
+        <v>51890</v>
+      </c>
+      <c r="AN81" s="2">
+        <v>53107</v>
+      </c>
+      <c r="AO81" s="2">
+        <v>54612</v>
+      </c>
+      <c r="AP81" s="2">
+        <v>55419</v>
+      </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>80</v>
       </c>
@@ -9565,8 +11759,35 @@
       <c r="AG82" s="2">
         <v>68</v>
       </c>
+      <c r="AH82" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI82" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ82" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK82" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL82" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM82" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN82" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO82" s="2">
+        <v>115</v>
+      </c>
+      <c r="AP82" s="2">
+        <v>116</v>
+      </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>81</v>
       </c>
@@ -9666,8 +11887,35 @@
       <c r="AG83" s="2">
         <v>164</v>
       </c>
+      <c r="AH83" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI83" s="2">
+        <v>169</v>
+      </c>
+      <c r="AJ83" s="2">
+        <v>173</v>
+      </c>
+      <c r="AK83" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL83" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM83" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN83" s="2">
+        <v>187</v>
+      </c>
+      <c r="AO83" s="2">
+        <v>190</v>
+      </c>
+      <c r="AP83" s="2">
+        <v>190</v>
+      </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>82</v>
       </c>
@@ -9767,8 +12015,35 @@
       <c r="AG84" s="2">
         <v>273</v>
       </c>
+      <c r="AH84" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI84" s="2">
+        <v>282</v>
+      </c>
+      <c r="AJ84" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK84" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL84" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM84" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN84" s="2">
+        <v>306</v>
+      </c>
+      <c r="AO84" s="2">
+        <v>311</v>
+      </c>
+      <c r="AP84" s="2">
+        <v>317</v>
+      </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>83</v>
       </c>
@@ -9868,8 +12143,35 @@
       <c r="AG85" s="2">
         <v>111</v>
       </c>
+      <c r="AH85" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI85" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ85" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK85" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL85" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM85" s="2">
+        <v>144</v>
+      </c>
+      <c r="AN85" s="2">
+        <v>151</v>
+      </c>
+      <c r="AO85" s="2">
+        <v>166</v>
+      </c>
+      <c r="AP85" s="2">
+        <v>166</v>
+      </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>84</v>
       </c>
@@ -9969,8 +12271,35 @@
       <c r="AG86" s="2">
         <v>31569</v>
       </c>
+      <c r="AH86" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI86" s="2">
+        <v>32104</v>
+      </c>
+      <c r="AJ86" s="2">
+        <v>32661</v>
+      </c>
+      <c r="AK86" s="2">
+        <v>33133</v>
+      </c>
+      <c r="AL86" s="2">
+        <v>33455</v>
+      </c>
+      <c r="AM86" s="2">
+        <v>33983</v>
+      </c>
+      <c r="AN86" s="2">
+        <v>34625</v>
+      </c>
+      <c r="AO86" s="2">
+        <v>35392</v>
+      </c>
+      <c r="AP86" s="2">
+        <v>35505</v>
+      </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>85</v>
       </c>
@@ -10070,8 +12399,35 @@
       <c r="AG87" s="2">
         <v>16</v>
       </c>
+      <c r="AH87" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI87" s="2">
+        <v>18</v>
+      </c>
+      <c r="AJ87" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK87" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL87" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM87" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN87" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO87" s="2">
+        <v>22</v>
+      </c>
+      <c r="AP87" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
@@ -10171,8 +12527,35 @@
       <c r="AG88" s="2">
         <v>385</v>
       </c>
+      <c r="AH88" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI88" s="2">
+        <v>398</v>
+      </c>
+      <c r="AJ88" s="2">
+        <v>399</v>
+      </c>
+      <c r="AK88" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL88" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM88" s="2">
+        <v>400</v>
+      </c>
+      <c r="AN88" s="2">
+        <v>409</v>
+      </c>
+      <c r="AO88" s="2">
+        <v>410</v>
+      </c>
+      <c r="AP88" s="2">
+        <v>422</v>
+      </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>87</v>
       </c>
@@ -10272,8 +12655,35 @@
       <c r="AG89" s="2">
         <v>2</v>
       </c>
+      <c r="AH89" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI89" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ89" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK89" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL89" s="2">
+        <v>5</v>
+      </c>
+      <c r="AM89" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN89" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO89" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP89" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>88</v>
       </c>
@@ -10373,8 +12783,35 @@
       <c r="AG90" s="2">
         <v>107</v>
       </c>
+      <c r="AH90" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI90" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ90" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK90" s="2">
+        <v>120</v>
+      </c>
+      <c r="AL90" s="2">
+        <v>121</v>
+      </c>
+      <c r="AM90" s="2">
+        <v>121</v>
+      </c>
+      <c r="AN90" s="2">
+        <v>123</v>
+      </c>
+      <c r="AO90" s="2">
+        <v>123</v>
+      </c>
+      <c r="AP90" s="2">
+        <v>123</v>
+      </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>89</v>
       </c>
@@ -10474,8 +12911,35 @@
       <c r="AG91" s="2">
         <v>316</v>
       </c>
+      <c r="AH91" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI91" s="2">
+        <v>339</v>
+      </c>
+      <c r="AJ91" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK91" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL91" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM91" s="2">
+        <v>398</v>
+      </c>
+      <c r="AN91" s="2">
+        <v>411</v>
+      </c>
+      <c r="AO91" s="2">
+        <v>431</v>
+      </c>
+      <c r="AP91" s="2">
+        <v>431</v>
+      </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>90</v>
       </c>
@@ -10575,8 +13039,35 @@
       <c r="AG92" s="2">
         <v>258</v>
       </c>
+      <c r="AH92" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI92" s="2">
+        <v>273</v>
+      </c>
+      <c r="AJ92" s="2">
+        <v>279</v>
+      </c>
+      <c r="AK92" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL92" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM92" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN92" s="2">
+        <v>312</v>
+      </c>
+      <c r="AO92" s="2">
+        <v>428</v>
+      </c>
+      <c r="AP92" s="2">
+        <v>431</v>
+      </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>91</v>
       </c>
@@ -10676,8 +13167,35 @@
       <c r="AG93" s="2">
         <v>3452</v>
       </c>
+      <c r="AH93" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI93" s="2">
+        <v>3698</v>
+      </c>
+      <c r="AJ93" s="2">
+        <v>3866</v>
+      </c>
+      <c r="AK93" s="2">
+        <v>4052</v>
+      </c>
+      <c r="AL93" s="2">
+        <v>4150</v>
+      </c>
+      <c r="AM93" s="2">
+        <v>4432</v>
+      </c>
+      <c r="AN93" s="2">
+        <v>4476</v>
+      </c>
+      <c r="AO93" s="2">
+        <v>4554</v>
+      </c>
+      <c r="AP93" s="2">
+        <v>4650</v>
+      </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>92</v>
       </c>
@@ -10777,8 +13295,35 @@
       <c r="AG94" s="2">
         <v>3189</v>
       </c>
+      <c r="AH94" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI94" s="2">
+        <v>3328</v>
+      </c>
+      <c r="AJ94" s="2">
+        <v>3425</v>
+      </c>
+      <c r="AK94" s="2">
+        <v>3481</v>
+      </c>
+      <c r="AL94" s="2">
+        <v>3531</v>
+      </c>
+      <c r="AM94" s="2">
+        <v>3632</v>
+      </c>
+      <c r="AN94" s="2">
+        <v>3700</v>
+      </c>
+      <c r="AO94" s="2">
+        <v>3759</v>
+      </c>
+      <c r="AP94" s="2">
+        <v>3767</v>
+      </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -10878,8 +13423,35 @@
       <c r="AG95" s="2">
         <v>417</v>
       </c>
+      <c r="AH95" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI95" s="2">
+        <v>428</v>
+      </c>
+      <c r="AJ95" s="2">
+        <v>452</v>
+      </c>
+      <c r="AK95" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL95" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM95" s="2">
+        <v>503</v>
+      </c>
+      <c r="AN95" s="2">
+        <v>512</v>
+      </c>
+      <c r="AO95" s="2">
+        <v>538</v>
+      </c>
+      <c r="AP95" s="2">
+        <v>540</v>
+      </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>94</v>
       </c>
@@ -10979,8 +13551,35 @@
       <c r="AG96" s="2">
         <v>1307</v>
       </c>
+      <c r="AH96" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI96" s="2">
+        <v>1405</v>
+      </c>
+      <c r="AJ96" s="2">
+        <v>1435</v>
+      </c>
+      <c r="AK96" s="2">
+        <v>1454</v>
+      </c>
+      <c r="AL96" s="2">
+        <v>1483</v>
+      </c>
+      <c r="AM96" s="2">
+        <v>1537</v>
+      </c>
+      <c r="AN96" s="2">
+        <v>1607</v>
+      </c>
+      <c r="AO96" s="2">
+        <v>1718</v>
+      </c>
+      <c r="AP96" s="2">
+        <v>1807</v>
+      </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>95</v>
       </c>
@@ -11080,8 +13679,35 @@
       <c r="AG97" s="2">
         <v>175</v>
       </c>
+      <c r="AH97" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI97" s="2">
+        <v>180</v>
+      </c>
+      <c r="AJ97" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK97" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL97" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM97" s="2">
+        <v>188</v>
+      </c>
+      <c r="AN97" s="2">
+        <v>190</v>
+      </c>
+      <c r="AO97" s="2">
+        <v>199</v>
+      </c>
+      <c r="AP97" s="2">
+        <v>199</v>
+      </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>96</v>
       </c>
@@ -11181,8 +13807,35 @@
       <c r="AG98" s="2">
         <v>116</v>
       </c>
+      <c r="AH98" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI98" s="2">
+        <v>124</v>
+      </c>
+      <c r="AJ98" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK98" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL98" s="2">
+        <v>135</v>
+      </c>
+      <c r="AM98" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN98" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO98" s="2">
+        <v>136</v>
+      </c>
+      <c r="AP98" s="2">
+        <v>136</v>
+      </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
@@ -11282,8 +13935,35 @@
       <c r="AG99" s="2">
         <v>223</v>
       </c>
+      <c r="AH99" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI99" s="2">
+        <v>241</v>
+      </c>
+      <c r="AJ99" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK99" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL99" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM99" s="2">
+        <v>249</v>
+      </c>
+      <c r="AN99" s="2">
+        <v>252</v>
+      </c>
+      <c r="AO99" s="2">
+        <v>254</v>
+      </c>
+      <c r="AP99" s="2">
+        <v>257</v>
+      </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>98</v>
       </c>
@@ -11383,8 +14063,35 @@
       <c r="AG100" s="2">
         <v>27</v>
       </c>
+      <c r="AH100" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI100" s="2">
+        <v>30</v>
+      </c>
+      <c r="AJ100" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK100" s="2">
+        <v>31</v>
+      </c>
+      <c r="AL100" s="2">
+        <v>31</v>
+      </c>
+      <c r="AM100" s="2">
+        <v>31</v>
+      </c>
+      <c r="AN100" s="2">
+        <v>31</v>
+      </c>
+      <c r="AO100" s="2">
+        <v>32</v>
+      </c>
+      <c r="AP100" s="2">
+        <v>33</v>
+      </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>99</v>
       </c>
@@ -11484,8 +14191,35 @@
       <c r="AG101" s="2">
         <v>31</v>
       </c>
+      <c r="AH101" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI101" s="2">
+        <v>32</v>
+      </c>
+      <c r="AJ101" s="2">
+        <v>32</v>
+      </c>
+      <c r="AK101" s="2">
+        <v>32</v>
+      </c>
+      <c r="AL101" s="2">
+        <v>32</v>
+      </c>
+      <c r="AM101" s="2">
+        <v>32</v>
+      </c>
+      <c r="AN101" s="2">
+        <v>33</v>
+      </c>
+      <c r="AO101" s="2">
+        <v>33</v>
+      </c>
+      <c r="AP101" s="2">
+        <v>34</v>
+      </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
@@ -11585,8 +14319,35 @@
       <c r="AG102" s="2">
         <v>393</v>
       </c>
+      <c r="AH102" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI102" s="2">
+        <v>418</v>
+      </c>
+      <c r="AJ102" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK102" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL102" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM102" s="2">
+        <v>495</v>
+      </c>
+      <c r="AN102" s="2">
+        <v>509</v>
+      </c>
+      <c r="AO102" s="2">
+        <v>521</v>
+      </c>
+      <c r="AP102" s="2">
+        <v>524</v>
+      </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>101</v>
       </c>
@@ -11686,8 +14447,35 @@
       <c r="AG103" s="2">
         <v>137084</v>
       </c>
+      <c r="AH103" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI103" s="2">
+        <v>143243</v>
+      </c>
+      <c r="AJ103" s="2">
+        <v>147888</v>
+      </c>
+      <c r="AK103" s="2">
+        <v>152966</v>
+      </c>
+      <c r="AL103" s="2">
+        <v>154894</v>
+      </c>
+      <c r="AM103" s="2">
+        <v>161009</v>
+      </c>
+      <c r="AN103" s="2">
+        <v>164689</v>
+      </c>
+      <c r="AO103" s="2">
+        <v>168631</v>
+      </c>
+      <c r="AP103" s="2">
+        <v>169594</v>
+      </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>102</v>
       </c>
@@ -11787,8 +14575,35 @@
       <c r="AG104" s="2">
         <v>937</v>
       </c>
+      <c r="AH104" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI104" s="2">
+        <v>956</v>
+      </c>
+      <c r="AJ104" s="2">
+        <v>962</v>
+      </c>
+      <c r="AK104" s="2">
+        <v>974</v>
+      </c>
+      <c r="AL104" s="2">
+        <v>993</v>
+      </c>
+      <c r="AM104" s="2">
+        <v>1010</v>
+      </c>
+      <c r="AN104" s="2">
+        <v>1077</v>
+      </c>
+      <c r="AO104" s="2">
+        <v>1186</v>
+      </c>
+      <c r="AP104" s="2">
+        <v>1189</v>
+      </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>103</v>
       </c>
@@ -11888,8 +14703,35 @@
       <c r="AG105" s="2">
         <v>29</v>
       </c>
+      <c r="AH105" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI105" s="2">
+        <v>30</v>
+      </c>
+      <c r="AJ105" s="2">
+        <v>32</v>
+      </c>
+      <c r="AK105" s="2">
+        <v>32</v>
+      </c>
+      <c r="AL105" s="2">
+        <v>33</v>
+      </c>
+      <c r="AM105" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN105" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO105" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP105" s="2">
+        <v>38</v>
+      </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>104</v>
       </c>
@@ -11989,8 +14831,35 @@
       <c r="AG106" s="2">
         <v>112</v>
       </c>
+      <c r="AH106" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI106" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ106" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK106" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL106" s="2">
+        <v>115</v>
+      </c>
+      <c r="AM106" s="2">
+        <v>116</v>
+      </c>
+      <c r="AN106" s="2">
+        <v>116</v>
+      </c>
+      <c r="AO106" s="2">
+        <v>116</v>
+      </c>
+      <c r="AP106" s="2">
+        <v>117</v>
+      </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>105</v>
       </c>
@@ -12090,8 +14959,35 @@
       <c r="AG107" s="2">
         <v>3749</v>
       </c>
+      <c r="AH107" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI107" s="2">
+        <v>4228</v>
+      </c>
+      <c r="AJ107" s="2">
+        <v>4314</v>
+      </c>
+      <c r="AK107" s="2">
+        <v>4405</v>
+      </c>
+      <c r="AL107" s="2">
+        <v>4454</v>
+      </c>
+      <c r="AM107" s="2">
+        <v>4611</v>
+      </c>
+      <c r="AN107" s="2">
+        <v>4688</v>
+      </c>
+      <c r="AO107" s="2">
+        <v>4788</v>
+      </c>
+      <c r="AP107" s="2">
+        <v>4834</v>
+      </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>106</v>
       </c>
@@ -12191,8 +15087,35 @@
       <c r="AG108" s="2">
         <v>107</v>
       </c>
+      <c r="AH108" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI108" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ108" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK108" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL108" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM108" s="2">
+        <v>156</v>
+      </c>
+      <c r="AN108" s="2">
+        <v>157</v>
+      </c>
+      <c r="AO108" s="2">
+        <v>161</v>
+      </c>
+      <c r="AP108" s="2">
+        <v>161</v>
+      </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>107</v>
       </c>
@@ -12292,8 +15215,35 @@
       <c r="AG109" s="2">
         <v>492</v>
       </c>
+      <c r="AH109" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI109" s="2">
+        <v>523</v>
+      </c>
+      <c r="AJ109" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK109" s="2">
+        <v>563</v>
+      </c>
+      <c r="AL109" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM109" s="2">
+        <v>582</v>
+      </c>
+      <c r="AN109" s="2">
+        <v>596</v>
+      </c>
+      <c r="AO109" s="2">
+        <v>606</v>
+      </c>
+      <c r="AP109" s="2">
+        <v>608</v>
+      </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>108</v>
       </c>
@@ -12393,8 +15343,35 @@
       <c r="AG110" s="2">
         <v>10295</v>
       </c>
+      <c r="AH110" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI110" s="2">
+        <v>10693</v>
+      </c>
+      <c r="AJ110" s="2">
+        <v>11264</v>
+      </c>
+      <c r="AK110" s="2">
+        <v>11755</v>
+      </c>
+      <c r="AL110" s="2">
+        <v>11986</v>
+      </c>
+      <c r="AM110" s="2">
+        <v>12331</v>
+      </c>
+      <c r="AN110" s="2">
+        <v>12535</v>
+      </c>
+      <c r="AO110" s="2">
+        <v>13066</v>
+      </c>
+      <c r="AP110" s="2">
+        <v>13181</v>
+      </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>109</v>
       </c>
@@ -12494,8 +15471,35 @@
       <c r="AG111" s="2">
         <v>521</v>
       </c>
+      <c r="AH111" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI111" s="2">
+        <v>538</v>
+      </c>
+      <c r="AJ111" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK111" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL111" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM111" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN111" s="2">
+        <v>593</v>
+      </c>
+      <c r="AO111" s="2">
+        <v>618</v>
+      </c>
+      <c r="AP111" s="2">
+        <v>626</v>
+      </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>110</v>
       </c>
@@ -12595,8 +15599,35 @@
       <c r="AG112" s="2">
         <v>33</v>
       </c>
+      <c r="AH112" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI112" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ112" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK112" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL112" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM112" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN112" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO112" s="2">
+        <v>42</v>
+      </c>
+      <c r="AP112" s="2">
+        <v>43</v>
+      </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>111</v>
       </c>
@@ -12696,8 +15727,35 @@
       <c r="AG113" s="2">
         <v>582</v>
       </c>
+      <c r="AH113" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI113" s="2">
+        <v>618</v>
+      </c>
+      <c r="AJ113" s="2">
+        <v>650</v>
+      </c>
+      <c r="AK113" s="2">
+        <v>676</v>
+      </c>
+      <c r="AL113" s="2">
+        <v>698</v>
+      </c>
+      <c r="AM113" s="2">
+        <v>723</v>
+      </c>
+      <c r="AN113" s="2">
+        <v>739</v>
+      </c>
+      <c r="AO113" s="2">
+        <v>755</v>
+      </c>
+      <c r="AP113" s="2">
+        <v>762</v>
+      </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -12797,8 +15855,35 @@
       <c r="AG114" s="2">
         <v>294</v>
       </c>
+      <c r="AH114" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI114" s="2">
+        <v>299</v>
+      </c>
+      <c r="AJ114" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK114" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL114" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM114" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN114" s="2">
+        <v>327</v>
+      </c>
+      <c r="AO114" s="2">
+        <v>328</v>
+      </c>
+      <c r="AP114" s="2">
+        <v>329</v>
+      </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>113</v>
       </c>
@@ -12898,8 +15983,35 @@
       <c r="AG115" s="2">
         <v>327</v>
       </c>
+      <c r="AH115" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI115" s="2">
+        <v>333</v>
+      </c>
+      <c r="AJ115" s="2">
+        <v>334</v>
+      </c>
+      <c r="AK115" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL115" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM115" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN115" s="2">
+        <v>341</v>
+      </c>
+      <c r="AO115" s="2">
+        <v>342</v>
+      </c>
+      <c r="AP115" s="2">
+        <v>342</v>
+      </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>114</v>
       </c>
@@ -12999,8 +16111,35 @@
       <c r="AG116" s="2">
         <v>130</v>
       </c>
+      <c r="AH116" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI116" s="2">
+        <v>143</v>
+      </c>
+      <c r="AJ116" s="2">
+        <v>151</v>
+      </c>
+      <c r="AK116" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL116" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM116" s="2">
+        <v>175</v>
+      </c>
+      <c r="AN116" s="2">
+        <v>178</v>
+      </c>
+      <c r="AO116" s="2">
+        <v>183</v>
+      </c>
+      <c r="AP116" s="2">
+        <v>185</v>
+      </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>115</v>
       </c>
@@ -13100,8 +16239,35 @@
       <c r="AG117" s="2">
         <v>42</v>
       </c>
+      <c r="AH117" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI117" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ117" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK117" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL117" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM117" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN117" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO117" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP117" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>116</v>
       </c>
@@ -13201,8 +16367,35 @@
       <c r="AG118" s="2">
         <v>1948</v>
       </c>
+      <c r="AH118" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI118" s="2">
+        <v>2068</v>
+      </c>
+      <c r="AJ118" s="2">
+        <v>2112</v>
+      </c>
+      <c r="AK118" s="2">
+        <v>2198</v>
+      </c>
+      <c r="AL118" s="2">
+        <v>2301</v>
+      </c>
+      <c r="AM118" s="2">
+        <v>2342</v>
+      </c>
+      <c r="AN118" s="2">
+        <v>2358</v>
+      </c>
+      <c r="AO118" s="2">
+        <v>2378</v>
+      </c>
+      <c r="AP118" s="2">
+        <v>2382</v>
+      </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>117</v>
       </c>
@@ -13302,8 +16495,35 @@
       <c r="AG119" s="2">
         <v>289</v>
       </c>
+      <c r="AH119" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI119" s="2">
+        <v>315</v>
+      </c>
+      <c r="AJ119" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK119" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL119" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM119" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN119" s="2">
+        <v>388</v>
+      </c>
+      <c r="AO119" s="2">
+        <v>391</v>
+      </c>
+      <c r="AP119" s="2">
+        <v>395</v>
+      </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>118</v>
       </c>
@@ -13403,8 +16623,35 @@
       <c r="AG120" s="2">
         <v>2</v>
       </c>
+      <c r="AH120" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI120" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ120" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK120" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL120" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM120" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN120" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO120" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP120" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>119</v>
       </c>
@@ -13504,8 +16751,35 @@
       <c r="AG121" s="2">
         <v>60</v>
       </c>
+      <c r="AH121" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI121" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ121" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK121" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL121" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM121" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN121" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO121" s="2">
+        <v>78</v>
+      </c>
+      <c r="AP121" s="2">
+        <v>78</v>
+      </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>120</v>
       </c>
@@ -13605,8 +16879,35 @@
       <c r="AG122" s="2">
         <v>394</v>
       </c>
+      <c r="AH122" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI122" s="2">
+        <v>403</v>
+      </c>
+      <c r="AJ122" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK122" s="2">
+        <v>416</v>
+      </c>
+      <c r="AL122" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM122" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN122" s="2">
+        <v>432</v>
+      </c>
+      <c r="AO122" s="2">
+        <v>436</v>
+      </c>
+      <c r="AP122" s="2">
+        <v>440</v>
+      </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>121</v>
       </c>
@@ -13706,8 +17007,35 @@
       <c r="AG123" s="2">
         <v>229</v>
       </c>
+      <c r="AH123" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI123" s="2">
+        <v>238</v>
+      </c>
+      <c r="AJ123" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK123" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL123" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM123" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN123" s="2">
+        <v>371</v>
+      </c>
+      <c r="AO123" s="2">
+        <v>407</v>
+      </c>
+      <c r="AP123" s="2">
+        <v>412</v>
+      </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>122</v>
       </c>
@@ -13807,8 +17135,35 @@
       <c r="AG124" s="2">
         <v>5</v>
       </c>
+      <c r="AH124" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI124" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ124" s="2">
+        <v>6</v>
+      </c>
+      <c r="AK124" s="2">
+        <v>6</v>
+      </c>
+      <c r="AL124" s="2">
+        <v>6</v>
+      </c>
+      <c r="AM124" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN124" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO124" s="2">
+        <v>6</v>
+      </c>
+      <c r="AP124" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>123</v>
       </c>
@@ -13908,8 +17263,35 @@
       <c r="AG125" s="2">
         <v>8308</v>
       </c>
+      <c r="AH125" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI125" s="2">
+        <v>8460</v>
+      </c>
+      <c r="AJ125" s="2">
+        <v>8553</v>
+      </c>
+      <c r="AK125" s="2">
+        <v>8674</v>
+      </c>
+      <c r="AL125" s="2">
+        <v>8727</v>
+      </c>
+      <c r="AM125" s="2">
+        <v>8832</v>
+      </c>
+      <c r="AN125" s="2">
+        <v>8924</v>
+      </c>
+      <c r="AO125" s="2">
+        <v>9081</v>
+      </c>
+      <c r="AP125" s="2">
+        <v>9099</v>
+      </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>124</v>
       </c>
@@ -14009,8 +17391,35 @@
       <c r="AG126" s="2">
         <v>55</v>
       </c>
+      <c r="AH126" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI126" s="2">
+        <v>55</v>
+      </c>
+      <c r="AJ126" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK126" s="2">
+        <v>55</v>
+      </c>
+      <c r="AL126" s="2">
+        <v>55</v>
+      </c>
+      <c r="AM126" s="2">
+        <v>55</v>
+      </c>
+      <c r="AN126" s="2">
+        <v>56</v>
+      </c>
+      <c r="AO126" s="2">
+        <v>56</v>
+      </c>
+      <c r="AP126" s="2">
+        <v>57</v>
+      </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>125</v>
       </c>
@@ -14110,8 +17519,35 @@
       <c r="AG127" s="2">
         <v>1008</v>
       </c>
+      <c r="AH127" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI127" s="2">
+        <v>1036</v>
+      </c>
+      <c r="AJ127" s="2">
+        <v>1045</v>
+      </c>
+      <c r="AK127" s="2">
+        <v>1049</v>
+      </c>
+      <c r="AL127" s="2">
+        <v>1063</v>
+      </c>
+      <c r="AM127" s="2">
+        <v>1065</v>
+      </c>
+      <c r="AN127" s="2">
+        <v>1087</v>
+      </c>
+      <c r="AO127" s="2">
+        <v>1141</v>
+      </c>
+      <c r="AP127" s="2">
+        <v>1142</v>
+      </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>126</v>
       </c>
@@ -14211,8 +17647,35 @@
       <c r="AG128" s="2">
         <v>3357</v>
       </c>
+      <c r="AH128" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI128" s="2">
+        <v>3540</v>
+      </c>
+      <c r="AJ128" s="2">
+        <v>3661</v>
+      </c>
+      <c r="AK128" s="2">
+        <v>3740</v>
+      </c>
+      <c r="AL128" s="2">
+        <v>3816</v>
+      </c>
+      <c r="AM128" s="2">
+        <v>3981</v>
+      </c>
+      <c r="AN128" s="2">
+        <v>4066</v>
+      </c>
+      <c r="AO128" s="2">
+        <v>4179</v>
+      </c>
+      <c r="AP128" s="2">
+        <v>4198</v>
+      </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>127</v>
       </c>
@@ -14312,8 +17775,35 @@
       <c r="AG129" s="2">
         <v>246</v>
       </c>
+      <c r="AH129" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI129" s="2">
+        <v>255</v>
+      </c>
+      <c r="AJ129" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK129" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL129" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM129" s="2">
+        <v>294</v>
+      </c>
+      <c r="AN129" s="2">
+        <v>295</v>
+      </c>
+      <c r="AO129" s="2">
+        <v>302</v>
+      </c>
+      <c r="AP129" s="2">
+        <v>306</v>
+      </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>128</v>
       </c>
@@ -14413,8 +17903,35 @@
       <c r="AG130" s="2">
         <v>122</v>
       </c>
+      <c r="AH130" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI130" s="2">
+        <v>125</v>
+      </c>
+      <c r="AJ130" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK130" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL130" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM130" s="2">
+        <v>135</v>
+      </c>
+      <c r="AN130" s="2">
+        <v>139</v>
+      </c>
+      <c r="AO130" s="2">
+        <v>140</v>
+      </c>
+      <c r="AP130" s="2">
+        <v>140</v>
+      </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>129</v>
       </c>
@@ -14514,8 +18031,35 @@
       <c r="AG131" s="2">
         <v>1921</v>
       </c>
+      <c r="AH131" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI131" s="2">
+        <v>2018</v>
+      </c>
+      <c r="AJ131" s="2">
+        <v>2267</v>
+      </c>
+      <c r="AK131" s="2">
+        <v>2386</v>
+      </c>
+      <c r="AL131" s="2">
+        <v>2438</v>
+      </c>
+      <c r="AM131" s="2">
+        <v>2506</v>
+      </c>
+      <c r="AN131" s="2">
+        <v>2534</v>
+      </c>
+      <c r="AO131" s="2">
+        <v>2610</v>
+      </c>
+      <c r="AP131" s="2">
+        <v>2618</v>
+      </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>130</v>
       </c>
@@ -14615,8 +18159,35 @@
       <c r="AG132" s="2">
         <v>639</v>
       </c>
+      <c r="AH132" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI132" s="2">
+        <v>680</v>
+      </c>
+      <c r="AJ132" s="2">
+        <v>688</v>
+      </c>
+      <c r="AK132" s="2">
+        <v>697</v>
+      </c>
+      <c r="AL132" s="2">
+        <v>709</v>
+      </c>
+      <c r="AM132" s="2">
+        <v>739</v>
+      </c>
+      <c r="AN132" s="2">
+        <v>750</v>
+      </c>
+      <c r="AO132" s="2">
+        <v>761</v>
+      </c>
+      <c r="AP132" s="2">
+        <v>765</v>
+      </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>131</v>
       </c>
@@ -14716,8 +18287,35 @@
       <c r="AG133" s="2">
         <v>0</v>
       </c>
+      <c r="AH133" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP133" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>132</v>
       </c>
@@ -14817,8 +18415,35 @@
       <c r="AG134" s="2">
         <v>1</v>
       </c>
+      <c r="AH134" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI134" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ134" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK134" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL134" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM134" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN134" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO134" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP134" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>133</v>
       </c>
@@ -14918,8 +18543,35 @@
       <c r="AG135" s="2">
         <v>1081</v>
       </c>
+      <c r="AH135" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI135" s="2">
+        <v>1172</v>
+      </c>
+      <c r="AJ135" s="2">
+        <v>1174</v>
+      </c>
+      <c r="AK135" s="2">
+        <v>1178</v>
+      </c>
+      <c r="AL135" s="2">
+        <v>1183</v>
+      </c>
+      <c r="AM135" s="2">
+        <v>1188</v>
+      </c>
+      <c r="AN135" s="2">
+        <v>1257</v>
+      </c>
+      <c r="AO135" s="2">
+        <v>1263</v>
+      </c>
+      <c r="AP135" s="2">
+        <v>1305</v>
+      </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>134</v>
       </c>
@@ -15019,8 +18671,35 @@
       <c r="AG136" s="2">
         <v>54</v>
       </c>
+      <c r="AH136" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI136" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ136" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK136" s="2">
+        <v>61</v>
+      </c>
+      <c r="AL136" s="2">
+        <v>64</v>
+      </c>
+      <c r="AM136" s="2">
+        <v>65</v>
+      </c>
+      <c r="AN136" s="2">
+        <v>67</v>
+      </c>
+      <c r="AO136" s="2">
+        <v>67</v>
+      </c>
+      <c r="AP136" s="2">
+        <v>68</v>
+      </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>135</v>
       </c>
@@ -15120,8 +18799,35 @@
       <c r="AG137" s="2">
         <v>0</v>
       </c>
+      <c r="AH137" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP137" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>136</v>
       </c>
@@ -15221,8 +18927,35 @@
       <c r="AG138" s="2">
         <v>9</v>
       </c>
+      <c r="AH138" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI138" s="2">
+        <v>9</v>
+      </c>
+      <c r="AJ138" s="2">
+        <v>10</v>
+      </c>
+      <c r="AK138" s="2">
+        <v>10</v>
+      </c>
+      <c r="AL138" s="2">
+        <v>13</v>
+      </c>
+      <c r="AM138" s="2">
+        <v>13</v>
+      </c>
+      <c r="AN138" s="2">
+        <v>13</v>
+      </c>
+      <c r="AO138" s="2">
+        <v>13</v>
+      </c>
+      <c r="AP138" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>137</v>
       </c>
@@ -15322,8 +19055,35 @@
       <c r="AG139" s="2">
         <v>1004</v>
       </c>
+      <c r="AH139" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI139" s="2">
+        <v>1009</v>
+      </c>
+      <c r="AJ139" s="2">
+        <v>1013</v>
+      </c>
+      <c r="AK139" s="2">
+        <v>1014</v>
+      </c>
+      <c r="AL139" s="2">
+        <v>1017</v>
+      </c>
+      <c r="AM139" s="2">
+        <v>1017</v>
+      </c>
+      <c r="AN139" s="2">
+        <v>1025</v>
+      </c>
+      <c r="AO139" s="2">
+        <v>1035</v>
+      </c>
+      <c r="AP139" s="2">
+        <v>1048</v>
+      </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>138</v>
       </c>
@@ -15423,8 +19183,35 @@
       <c r="AG140" s="2">
         <v>22</v>
       </c>
+      <c r="AH140" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI140" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ140" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK140" s="2">
+        <v>24</v>
+      </c>
+      <c r="AL140" s="2">
+        <v>24</v>
+      </c>
+      <c r="AM140" s="2">
+        <v>24</v>
+      </c>
+      <c r="AN140" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO140" s="2">
+        <v>107</v>
+      </c>
+      <c r="AP140" s="2">
+        <v>110</v>
+      </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>139</v>
       </c>
@@ -15524,8 +19311,35 @@
       <c r="AG141" s="2">
         <v>760</v>
       </c>
+      <c r="AH141" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI141" s="2">
+        <v>779</v>
+      </c>
+      <c r="AJ141" s="2">
+        <v>806</v>
+      </c>
+      <c r="AK141" s="2">
+        <v>821</v>
+      </c>
+      <c r="AL141" s="2">
+        <v>836</v>
+      </c>
+      <c r="AM141" s="2">
+        <v>850</v>
+      </c>
+      <c r="AN141" s="2">
+        <v>899</v>
+      </c>
+      <c r="AO141" s="2">
+        <v>939</v>
+      </c>
+      <c r="AP141" s="2">
+        <v>951</v>
+      </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>140</v>
       </c>
@@ -15625,8 +19439,35 @@
       <c r="AG142" s="2">
         <v>75</v>
       </c>
+      <c r="AH142" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI142" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ142" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK142" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL142" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM142" s="2">
+        <v>86</v>
+      </c>
+      <c r="AN142" s="2">
+        <v>87</v>
+      </c>
+      <c r="AO142" s="2">
+        <v>92</v>
+      </c>
+      <c r="AP142" s="2">
+        <v>92</v>
+      </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
@@ -15726,8 +19567,35 @@
       <c r="AG143" s="2">
         <v>687</v>
       </c>
+      <c r="AH143" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI143" s="2">
+        <v>700</v>
+      </c>
+      <c r="AJ143" s="2">
+        <v>730</v>
+      </c>
+      <c r="AK143" s="2">
+        <v>749</v>
+      </c>
+      <c r="AL143" s="2">
+        <v>759</v>
+      </c>
+      <c r="AM143" s="2">
+        <v>798</v>
+      </c>
+      <c r="AN143" s="2">
+        <v>804</v>
+      </c>
+      <c r="AO143" s="2">
+        <v>821</v>
+      </c>
+      <c r="AP143" s="2">
+        <v>829</v>
+      </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>142</v>
       </c>
@@ -15827,8 +19695,35 @@
       <c r="AG144" s="2">
         <v>133</v>
       </c>
+      <c r="AH144" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI144" s="2">
+        <v>146</v>
+      </c>
+      <c r="AJ144" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK144" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL144" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM144" s="2">
+        <v>159</v>
+      </c>
+      <c r="AN144" s="2">
+        <v>165</v>
+      </c>
+      <c r="AO144" s="2">
+        <v>212</v>
+      </c>
+      <c r="AP144" s="2">
+        <v>213</v>
+      </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>143</v>
       </c>
@@ -15928,8 +19823,35 @@
       <c r="AG145" s="2">
         <v>280</v>
       </c>
+      <c r="AH145" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI145" s="2">
+        <v>291</v>
+      </c>
+      <c r="AJ145" s="2">
+        <v>302</v>
+      </c>
+      <c r="AK145" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL145" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM145" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN145" s="2">
+        <v>328</v>
+      </c>
+      <c r="AO145" s="2">
+        <v>333</v>
+      </c>
+      <c r="AP145" s="2">
+        <v>335</v>
+      </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>144</v>
       </c>
@@ -16029,8 +19951,35 @@
       <c r="AG146" s="2">
         <v>164</v>
       </c>
+      <c r="AH146" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI146" s="2">
+        <v>173</v>
+      </c>
+      <c r="AJ146" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK146" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL146" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM146" s="2">
+        <v>203</v>
+      </c>
+      <c r="AN146" s="2">
+        <v>208</v>
+      </c>
+      <c r="AO146" s="2">
+        <v>218</v>
+      </c>
+      <c r="AP146" s="2">
+        <v>218</v>
+      </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>145</v>
       </c>
@@ -16130,8 +20079,35 @@
       <c r="AG147" s="2">
         <v>142</v>
       </c>
+      <c r="AH147" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI147" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ147" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK147" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL147" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM147" s="2">
+        <v>185</v>
+      </c>
+      <c r="AN147" s="2">
+        <v>187</v>
+      </c>
+      <c r="AO147" s="2">
+        <v>220</v>
+      </c>
+      <c r="AP147" s="2">
+        <v>259</v>
+      </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>146</v>
       </c>
@@ -16231,8 +20207,35 @@
       <c r="AG148" s="2">
         <v>1354</v>
       </c>
+      <c r="AH148" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI148" s="2">
+        <v>1433</v>
+      </c>
+      <c r="AJ148" s="2">
+        <v>1523</v>
+      </c>
+      <c r="AK148" s="2">
+        <v>1583</v>
+      </c>
+      <c r="AL148" s="2">
+        <v>1606</v>
+      </c>
+      <c r="AM148" s="2">
+        <v>1678</v>
+      </c>
+      <c r="AN148" s="2">
+        <v>1716</v>
+      </c>
+      <c r="AO148" s="2">
+        <v>1768</v>
+      </c>
+      <c r="AP148" s="2">
+        <v>1771</v>
+      </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>147</v>
       </c>
@@ -16332,8 +20335,35 @@
       <c r="AG149" s="2">
         <v>417</v>
       </c>
+      <c r="AH149" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI149" s="2">
+        <v>419</v>
+      </c>
+      <c r="AJ149" s="2">
+        <v>424</v>
+      </c>
+      <c r="AK149" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL149" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM149" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN149" s="2">
+        <v>445</v>
+      </c>
+      <c r="AO149" s="2">
+        <v>461</v>
+      </c>
+      <c r="AP149" s="2">
+        <v>469</v>
+      </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>148</v>
       </c>
@@ -16433,8 +20463,35 @@
       <c r="AG150" s="2">
         <v>23</v>
       </c>
+      <c r="AH150" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI150" s="2">
+        <v>23</v>
+      </c>
+      <c r="AJ150" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK150" s="2">
+        <v>27</v>
+      </c>
+      <c r="AL150" s="2">
+        <v>27</v>
+      </c>
+      <c r="AM150" s="2">
+        <v>27</v>
+      </c>
+      <c r="AN150" s="2">
+        <v>27</v>
+      </c>
+      <c r="AO150" s="2">
+        <v>112</v>
+      </c>
+      <c r="AP150" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>149</v>
       </c>
@@ -16534,8 +20591,35 @@
       <c r="AG151" s="2">
         <v>140</v>
       </c>
+      <c r="AH151" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI151" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ151" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK151" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL151" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM151" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN151" s="2">
+        <v>292</v>
+      </c>
+      <c r="AO151" s="2">
+        <v>292</v>
+      </c>
+      <c r="AP151" s="2">
+        <v>294</v>
+      </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>150</v>
       </c>
@@ -16635,8 +20719,35 @@
       <c r="AG152" s="2">
         <v>431</v>
       </c>
+      <c r="AH152" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI152" s="2">
+        <v>446</v>
+      </c>
+      <c r="AJ152" s="2">
+        <v>462</v>
+      </c>
+      <c r="AK152" s="2">
+        <v>477</v>
+      </c>
+      <c r="AL152" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM152" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN152" s="2">
+        <v>548</v>
+      </c>
+      <c r="AO152" s="2">
+        <v>578</v>
+      </c>
+      <c r="AP152" s="2">
+        <v>586</v>
+      </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>151</v>
       </c>
@@ -16736,8 +20847,35 @@
       <c r="AG153" s="2">
         <v>0</v>
       </c>
+      <c r="AH153" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP153" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>152</v>
       </c>
@@ -16837,8 +20975,35 @@
       <c r="AG154" s="2">
         <v>7441</v>
       </c>
+      <c r="AH154" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI154" s="2">
+        <v>7839</v>
+      </c>
+      <c r="AJ154" s="2">
+        <v>7967</v>
+      </c>
+      <c r="AK154" s="2">
+        <v>7980</v>
+      </c>
+      <c r="AL154" s="2">
+        <v>8061</v>
+      </c>
+      <c r="AM154" s="2">
+        <v>8262</v>
+      </c>
+      <c r="AN154" s="2">
+        <v>8328</v>
+      </c>
+      <c r="AO154" s="2">
+        <v>8578</v>
+      </c>
+      <c r="AP154" s="2">
+        <v>8597</v>
+      </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>153</v>
       </c>
@@ -16938,8 +21103,35 @@
       <c r="AG155" s="2">
         <v>32</v>
       </c>
+      <c r="AH155" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI155" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ155" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK155" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL155" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM155" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN155" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO155" s="2">
+        <v>48</v>
+      </c>
+      <c r="AP155" s="2">
+        <v>49</v>
+      </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>154</v>
       </c>
@@ -17039,8 +21231,35 @@
       <c r="AG156" s="2">
         <v>43</v>
       </c>
+      <c r="AH156" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI156" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ156" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK156" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL156" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM156" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN156" s="2">
+        <v>49</v>
+      </c>
+      <c r="AO156" s="2">
+        <v>53</v>
+      </c>
+      <c r="AP156" s="2">
+        <v>53</v>
+      </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>155</v>
       </c>
@@ -17140,8 +21359,35 @@
       <c r="AG157" s="2">
         <v>4146</v>
       </c>
+      <c r="AH157" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI157" s="2">
+        <v>4253</v>
+      </c>
+      <c r="AJ157" s="2">
+        <v>4364</v>
+      </c>
+      <c r="AK157" s="2">
+        <v>4474</v>
+      </c>
+      <c r="AL157" s="2">
+        <v>4546</v>
+      </c>
+      <c r="AM157" s="2">
+        <v>4767</v>
+      </c>
+      <c r="AN157" s="2">
+        <v>4788</v>
+      </c>
+      <c r="AO157" s="2">
+        <v>5272</v>
+      </c>
+      <c r="AP157" s="2">
+        <v>5351</v>
+      </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>156</v>
       </c>
@@ -17241,8 +21487,35 @@
       <c r="AG158" s="2">
         <v>3</v>
       </c>
+      <c r="AH158" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI158" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ158" s="2">
+        <v>6</v>
+      </c>
+      <c r="AK158" s="2">
+        <v>6</v>
+      </c>
+      <c r="AL158" s="2">
+        <v>6</v>
+      </c>
+      <c r="AM158" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN158" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO158" s="2">
+        <v>6</v>
+      </c>
+      <c r="AP158" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>157</v>
       </c>
@@ -17342,8 +21615,35 @@
       <c r="AG159" s="2">
         <v>97</v>
       </c>
+      <c r="AH159" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI159" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ159" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK159" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL159" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM159" s="2">
+        <v>115</v>
+      </c>
+      <c r="AN159" s="2">
+        <v>117</v>
+      </c>
+      <c r="AO159" s="2">
+        <v>125</v>
+      </c>
+      <c r="AP159" s="2">
+        <v>125</v>
+      </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>158</v>
       </c>
@@ -17443,8 +21743,35 @@
       <c r="AG160" s="2">
         <v>58</v>
       </c>
+      <c r="AH160" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI160" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ160" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK160" s="2">
+        <v>61</v>
+      </c>
+      <c r="AL160" s="2">
+        <v>62</v>
+      </c>
+      <c r="AM160" s="2">
+        <v>62</v>
+      </c>
+      <c r="AN160" s="2">
+        <v>66</v>
+      </c>
+      <c r="AO160" s="2">
+        <v>67</v>
+      </c>
+      <c r="AP160" s="2">
+        <v>68</v>
+      </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>159</v>
       </c>
@@ -17544,8 +21871,35 @@
       <c r="AG161" s="2">
         <v>71</v>
       </c>
+      <c r="AH161" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI161" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ161" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK161" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL161" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM161" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN161" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO161" s="2">
+        <v>76</v>
+      </c>
+      <c r="AP161" s="2">
+        <v>76</v>
+      </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>160</v>
       </c>
@@ -17645,8 +21999,35 @@
       <c r="AG162" s="2">
         <v>277</v>
       </c>
+      <c r="AH162" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI162" s="2">
+        <v>282</v>
+      </c>
+      <c r="AJ162" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK162" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL162" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM162" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN162" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO162" s="2">
+        <v>309</v>
+      </c>
+      <c r="AP162" s="2">
+        <v>309</v>
+      </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>161</v>
       </c>
@@ -17746,8 +22127,35 @@
       <c r="AG163" s="2">
         <v>867</v>
       </c>
+      <c r="AH163" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI163" s="2">
+        <v>882</v>
+      </c>
+      <c r="AJ163" s="2">
+        <v>909</v>
+      </c>
+      <c r="AK163" s="2">
+        <v>933</v>
+      </c>
+      <c r="AL163" s="2">
+        <v>952</v>
+      </c>
+      <c r="AM163" s="2">
+        <v>966</v>
+      </c>
+      <c r="AN163" s="2">
+        <v>983</v>
+      </c>
+      <c r="AO163" s="2">
+        <v>998</v>
+      </c>
+      <c r="AP163" s="2">
+        <v>1006</v>
+      </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>162</v>
       </c>
@@ -17847,8 +22255,35 @@
       <c r="AG164" s="2">
         <v>915</v>
       </c>
+      <c r="AH164" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI164" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AJ164" s="2">
+        <v>1143</v>
+      </c>
+      <c r="AK164" s="2">
+        <v>1287</v>
+      </c>
+      <c r="AL164" s="2">
+        <v>1399</v>
+      </c>
+      <c r="AM164" s="2">
+        <v>1410</v>
+      </c>
+      <c r="AN164" s="2">
+        <v>1450</v>
+      </c>
+      <c r="AO164" s="2">
+        <v>1485</v>
+      </c>
+      <c r="AP164" s="2">
+        <v>1486</v>
+      </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>163</v>
       </c>
@@ -17948,8 +22383,35 @@
       <c r="AG165" s="2">
         <v>442</v>
       </c>
+      <c r="AH165" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI165" s="2">
+        <v>450</v>
+      </c>
+      <c r="AJ165" s="2">
+        <v>465</v>
+      </c>
+      <c r="AK165" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL165" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM165" s="2">
+        <v>494</v>
+      </c>
+      <c r="AN165" s="2">
+        <v>501</v>
+      </c>
+      <c r="AO165" s="2">
+        <v>516</v>
+      </c>
+      <c r="AP165" s="2">
+        <v>517</v>
+      </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>164</v>
       </c>
@@ -18049,8 +22511,35 @@
       <c r="AG166" s="2">
         <v>10</v>
       </c>
+      <c r="AH166" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI166" s="2">
+        <v>11</v>
+      </c>
+      <c r="AJ166" s="2">
+        <v>12</v>
+      </c>
+      <c r="AK166" s="2">
+        <v>12</v>
+      </c>
+      <c r="AL166" s="2">
+        <v>12</v>
+      </c>
+      <c r="AM166" s="2">
+        <v>12</v>
+      </c>
+      <c r="AN166" s="2">
+        <v>17</v>
+      </c>
+      <c r="AO166" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP166" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>165</v>
       </c>
@@ -18150,8 +22639,35 @@
       <c r="AG167" s="2">
         <v>2634</v>
       </c>
+      <c r="AH167" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI167" s="2">
+        <v>2713</v>
+      </c>
+      <c r="AJ167" s="2">
+        <v>2775</v>
+      </c>
+      <c r="AK167" s="2">
+        <v>2831</v>
+      </c>
+      <c r="AL167" s="2">
+        <v>2841</v>
+      </c>
+      <c r="AM167" s="2">
+        <v>2869</v>
+      </c>
+      <c r="AN167" s="2">
+        <v>2913</v>
+      </c>
+      <c r="AO167" s="2">
+        <v>2972</v>
+      </c>
+      <c r="AP167" s="2">
+        <v>2983</v>
+      </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>166</v>
       </c>
@@ -18251,8 +22767,35 @@
       <c r="AG168" s="2">
         <v>529</v>
       </c>
+      <c r="AH168" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI168" s="2">
+        <v>546</v>
+      </c>
+      <c r="AJ168" s="2">
+        <v>572</v>
+      </c>
+      <c r="AK168" s="2">
+        <v>604</v>
+      </c>
+      <c r="AL168" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM168" s="2">
+        <v>666</v>
+      </c>
+      <c r="AN168" s="2">
+        <v>671</v>
+      </c>
+      <c r="AO168" s="2">
+        <v>720</v>
+      </c>
+      <c r="AP168" s="2">
+        <v>729</v>
+      </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>167</v>
       </c>
@@ -18352,8 +22895,35 @@
       <c r="AG169" s="2">
         <v>44</v>
       </c>
+      <c r="AH169" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI169" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ169" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK169" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL169" s="2">
+        <v>47</v>
+      </c>
+      <c r="AM169" s="2">
+        <v>49</v>
+      </c>
+      <c r="AN169" s="2">
+        <v>48</v>
+      </c>
+      <c r="AO169" s="2">
+        <v>50</v>
+      </c>
+      <c r="AP169" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>168</v>
       </c>
@@ -18453,8 +23023,35 @@
       <c r="AG170" s="2">
         <v>74</v>
       </c>
+      <c r="AH170" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI170" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ170" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK170" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL170" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM170" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN170" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO170" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP170" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>169</v>
       </c>
@@ -18554,8 +23151,35 @@
       <c r="AG171" s="2">
         <v>160</v>
       </c>
+      <c r="AH171" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI171" s="2">
+        <v>170</v>
+      </c>
+      <c r="AJ171" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK171" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL171" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM171" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN171" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO171" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP171" s="2">
+        <v>214</v>
+      </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>170</v>
       </c>
@@ -18655,8 +23279,35 @@
       <c r="AG172" s="2">
         <v>13563</v>
       </c>
+      <c r="AH172" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI172" s="2">
+        <v>14176</v>
+      </c>
+      <c r="AJ172" s="2">
+        <v>14758</v>
+      </c>
+      <c r="AK172" s="2">
+        <v>15271</v>
+      </c>
+      <c r="AL172" s="2">
+        <v>15467</v>
+      </c>
+      <c r="AM172" s="2">
+        <v>15947</v>
+      </c>
+      <c r="AN172" s="2">
+        <v>16408</v>
+      </c>
+      <c r="AO172" s="2">
+        <v>16802</v>
+      </c>
+      <c r="AP172" s="2">
+        <v>16868</v>
+      </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>171</v>
       </c>
@@ -18756,8 +23407,35 @@
       <c r="AG173" s="2">
         <v>739</v>
       </c>
+      <c r="AH173" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI173" s="2">
+        <v>757</v>
+      </c>
+      <c r="AJ173" s="2">
+        <v>771</v>
+      </c>
+      <c r="AK173" s="2">
+        <v>788</v>
+      </c>
+      <c r="AL173" s="2">
+        <v>791</v>
+      </c>
+      <c r="AM173" s="2">
+        <v>791</v>
+      </c>
+      <c r="AN173" s="2">
+        <v>801</v>
+      </c>
+      <c r="AO173" s="2">
+        <v>1301</v>
+      </c>
+      <c r="AP173" s="2">
+        <v>1536</v>
+      </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>172</v>
       </c>
@@ -18857,8 +23535,35 @@
       <c r="AG174" s="2">
         <v>80</v>
       </c>
+      <c r="AH174" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI174" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ174" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK174" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL174" s="2">
+        <v>91</v>
+      </c>
+      <c r="AM174" s="2">
+        <v>93</v>
+      </c>
+      <c r="AN174" s="2">
+        <v>96</v>
+      </c>
+      <c r="AO174" s="2">
+        <v>107</v>
+      </c>
+      <c r="AP174" s="2">
+        <v>107</v>
+      </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>173</v>
       </c>
@@ -18958,8 +23663,35 @@
       <c r="AG175" s="2">
         <v>15</v>
       </c>
+      <c r="AH175" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI175" s="2">
+        <v>16</v>
+      </c>
+      <c r="AJ175" s="2">
+        <v>17</v>
+      </c>
+      <c r="AK175" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL175" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM175" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN175" s="2">
+        <v>17</v>
+      </c>
+      <c r="AO175" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP175" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>174</v>
       </c>
@@ -19059,8 +23791,35 @@
       <c r="AG176" s="2">
         <v>1547</v>
       </c>
+      <c r="AH176" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI176" s="2">
+        <v>1649</v>
+      </c>
+      <c r="AJ176" s="2">
+        <v>1672</v>
+      </c>
+      <c r="AK176" s="2">
+        <v>1729</v>
+      </c>
+      <c r="AL176" s="2">
+        <v>1799</v>
+      </c>
+      <c r="AM176" s="2">
+        <v>1832</v>
+      </c>
+      <c r="AN176" s="2">
+        <v>1872</v>
+      </c>
+      <c r="AO176" s="2">
+        <v>1944</v>
+      </c>
+      <c r="AP176" s="2">
+        <v>1945</v>
+      </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>175</v>
       </c>
@@ -19160,8 +23919,35 @@
       <c r="AG177" s="2">
         <v>533</v>
       </c>
+      <c r="AH177" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI177" s="2">
+        <v>583</v>
+      </c>
+      <c r="AJ177" s="2">
+        <v>619</v>
+      </c>
+      <c r="AK177" s="2">
+        <v>643</v>
+      </c>
+      <c r="AL177" s="2">
+        <v>653</v>
+      </c>
+      <c r="AM177" s="2">
+        <v>662</v>
+      </c>
+      <c r="AN177" s="2">
+        <v>680</v>
+      </c>
+      <c r="AO177" s="2">
+        <v>689</v>
+      </c>
+      <c r="AP177" s="2">
+        <v>692</v>
+      </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
@@ -19261,8 +24047,35 @@
       <c r="AG178" s="2">
         <v>107</v>
       </c>
+      <c r="AH178" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI178" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ178" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK178" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL178" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM178" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN178" s="2">
+        <v>250</v>
+      </c>
+      <c r="AO178" s="2">
+        <v>263</v>
+      </c>
+      <c r="AP178" s="2">
+        <v>263</v>
+      </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>177</v>
       </c>
@@ -19362,8 +24175,35 @@
       <c r="AG179" s="2">
         <v>110</v>
       </c>
+      <c r="AH179" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI179" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ179" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK179" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL179" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM179" s="2">
+        <v>115</v>
+      </c>
+      <c r="AN179" s="2">
+        <v>116</v>
+      </c>
+      <c r="AO179" s="2">
+        <v>118</v>
+      </c>
+      <c r="AP179" s="2">
+        <v>119</v>
+      </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>178</v>
       </c>
@@ -19463,8 +24303,35 @@
       <c r="AG180" s="2">
         <v>3069</v>
       </c>
+      <c r="AH180" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI180" s="2">
+        <v>3194</v>
+      </c>
+      <c r="AJ180" s="2">
+        <v>3247</v>
+      </c>
+      <c r="AK180" s="2">
+        <v>3279</v>
+      </c>
+      <c r="AL180" s="2">
+        <v>3313</v>
+      </c>
+      <c r="AM180" s="2">
+        <v>3338</v>
+      </c>
+      <c r="AN180" s="2">
+        <v>3400</v>
+      </c>
+      <c r="AO180" s="2">
+        <v>3460</v>
+      </c>
+      <c r="AP180" s="2">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>179</v>
       </c>
@@ -19564,8 +24431,35 @@
       <c r="AG181" s="2">
         <v>100</v>
       </c>
+      <c r="AH181" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI181" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ181" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK181" s="2">
+        <v>107</v>
+      </c>
+      <c r="AL181" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM181" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN181" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO181" s="2">
+        <v>110</v>
+      </c>
+      <c r="AP181" s="2">
+        <v>110</v>
+      </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>180</v>
       </c>
@@ -19665,8 +24559,35 @@
       <c r="AG182" s="2">
         <v>79</v>
       </c>
+      <c r="AH182" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI182" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ182" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK182" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL182" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM182" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN182" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO182" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP182" s="2">
+        <v>83</v>
+      </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>181</v>
       </c>
@@ -19766,8 +24687,35 @@
       <c r="AG183" s="2">
         <v>626</v>
       </c>
+      <c r="AH183" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI183" s="2">
+        <v>656</v>
+      </c>
+      <c r="AJ183" s="2">
+        <v>672</v>
+      </c>
+      <c r="AK183" s="2">
+        <v>694</v>
+      </c>
+      <c r="AL183" s="2">
+        <v>707</v>
+      </c>
+      <c r="AM183" s="2">
+        <v>735</v>
+      </c>
+      <c r="AN183" s="2">
+        <v>762</v>
+      </c>
+      <c r="AO183" s="2">
+        <v>786</v>
+      </c>
+      <c r="AP183" s="2">
+        <v>789</v>
+      </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>182</v>
       </c>
@@ -19867,8 +24815,35 @@
       <c r="AG184" s="2">
         <v>126</v>
       </c>
+      <c r="AH184" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI184" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ184" s="2">
+        <v>151</v>
+      </c>
+      <c r="AK184" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL184" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM184" s="2">
+        <v>175</v>
+      </c>
+      <c r="AN184" s="2">
+        <v>180</v>
+      </c>
+      <c r="AO184" s="2">
+        <v>185</v>
+      </c>
+      <c r="AP184" s="2">
+        <v>186</v>
+      </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>183</v>
       </c>
@@ -19968,8 +24943,35 @@
       <c r="AG185" s="2">
         <v>359</v>
       </c>
+      <c r="AH185" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI185" s="2">
+        <v>378</v>
+      </c>
+      <c r="AJ185" s="2">
+        <v>382</v>
+      </c>
+      <c r="AK185" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL185" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM185" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN185" s="2">
+        <v>422</v>
+      </c>
+      <c r="AO185" s="2">
+        <v>438</v>
+      </c>
+      <c r="AP185" s="2">
+        <v>438</v>
+      </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>184</v>
       </c>
@@ -20069,8 +25071,35 @@
       <c r="AG186" s="2">
         <v>1367</v>
       </c>
+      <c r="AH186" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI186" s="2">
+        <v>1432</v>
+      </c>
+      <c r="AJ186" s="2">
+        <v>1461</v>
+      </c>
+      <c r="AK186" s="2">
+        <v>1501</v>
+      </c>
+      <c r="AL186" s="2">
+        <v>1550</v>
+      </c>
+      <c r="AM186" s="2">
+        <v>1618</v>
+      </c>
+      <c r="AN186" s="2">
+        <v>1691</v>
+      </c>
+      <c r="AO186" s="2">
+        <v>1781</v>
+      </c>
+      <c r="AP186" s="2">
+        <v>1809</v>
+      </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>185</v>
       </c>
@@ -20170,8 +25199,35 @@
       <c r="AG187" s="2">
         <v>125</v>
       </c>
+      <c r="AH187" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI187" s="2">
+        <v>130</v>
+      </c>
+      <c r="AJ187" s="2">
+        <v>132</v>
+      </c>
+      <c r="AK187" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL187" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM187" s="2">
+        <v>185</v>
+      </c>
+      <c r="AN187" s="2">
+        <v>185</v>
+      </c>
+      <c r="AO187" s="2">
+        <v>185</v>
+      </c>
+      <c r="AP187" s="2">
+        <v>188</v>
+      </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>186</v>
       </c>
@@ -20271,8 +25327,35 @@
       <c r="AG188" s="2">
         <v>268</v>
       </c>
+      <c r="AH188" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI188" s="2">
+        <v>276</v>
+      </c>
+      <c r="AJ188" s="2">
+        <v>279</v>
+      </c>
+      <c r="AK188" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL188" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM188" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN188" s="2">
+        <v>441</v>
+      </c>
+      <c r="AO188" s="2">
+        <v>443</v>
+      </c>
+      <c r="AP188" s="2">
+        <v>444</v>
+      </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>187</v>
       </c>
@@ -20372,8 +25455,35 @@
       <c r="AG189" s="2">
         <v>793</v>
       </c>
+      <c r="AH189" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI189" s="2">
+        <v>838</v>
+      </c>
+      <c r="AJ189" s="2">
+        <v>894</v>
+      </c>
+      <c r="AK189" s="2">
+        <v>913</v>
+      </c>
+      <c r="AL189" s="2">
+        <v>921</v>
+      </c>
+      <c r="AM189" s="2">
+        <v>934</v>
+      </c>
+      <c r="AN189" s="2">
+        <v>975</v>
+      </c>
+      <c r="AO189" s="2">
+        <v>1010</v>
+      </c>
+      <c r="AP189" s="2">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>188</v>
       </c>
@@ -20473,8 +25583,35 @@
       <c r="AG190" s="2">
         <v>7464</v>
       </c>
+      <c r="AH190" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI190" s="2">
+        <v>7686</v>
+      </c>
+      <c r="AJ190" s="2">
+        <v>7822</v>
+      </c>
+      <c r="AK190" s="2">
+        <v>8006</v>
+      </c>
+      <c r="AL190" s="2">
+        <v>8172</v>
+      </c>
+      <c r="AM190" s="2">
+        <v>8228</v>
+      </c>
+      <c r="AN190" s="2">
+        <v>8492</v>
+      </c>
+      <c r="AO190" s="2">
+        <v>8633</v>
+      </c>
+      <c r="AP190" s="2">
+        <v>8760</v>
+      </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>189</v>
       </c>
@@ -20574,8 +25711,35 @@
       <c r="AG191" s="2">
         <v>23</v>
       </c>
+      <c r="AH191" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI191" s="2">
+        <v>24</v>
+      </c>
+      <c r="AJ191" s="2">
+        <v>25</v>
+      </c>
+      <c r="AK191" s="2">
+        <v>26</v>
+      </c>
+      <c r="AL191" s="2">
+        <v>29</v>
+      </c>
+      <c r="AM191" s="2">
+        <v>31</v>
+      </c>
+      <c r="AN191" s="2">
+        <v>31</v>
+      </c>
+      <c r="AO191" s="2">
+        <v>32</v>
+      </c>
+      <c r="AP191" s="2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>190</v>
       </c>
@@ -20675,8 +25839,35 @@
       <c r="AG192" s="2">
         <v>55</v>
       </c>
+      <c r="AH192" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI192" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ192" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK192" s="2">
+        <v>60</v>
+      </c>
+      <c r="AL192" s="2">
+        <v>61</v>
+      </c>
+      <c r="AM192" s="2">
+        <v>66</v>
+      </c>
+      <c r="AN192" s="2">
+        <v>68</v>
+      </c>
+      <c r="AO192" s="2">
+        <v>68</v>
+      </c>
+      <c r="AP192" s="2">
+        <v>68</v>
+      </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>191</v>
       </c>
@@ -20776,8 +25967,35 @@
       <c r="AG193" s="2">
         <v>2416</v>
       </c>
+      <c r="AH193" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI193" s="2">
+        <v>2584</v>
+      </c>
+      <c r="AJ193" s="2">
+        <v>2813</v>
+      </c>
+      <c r="AK193" s="2">
+        <v>2925</v>
+      </c>
+      <c r="AL193" s="2">
+        <v>2940</v>
+      </c>
+      <c r="AM193" s="2">
+        <v>2989</v>
+      </c>
+      <c r="AN193" s="2">
+        <v>3041</v>
+      </c>
+      <c r="AO193" s="2">
+        <v>3219</v>
+      </c>
+      <c r="AP193" s="2">
+        <v>3295</v>
+      </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>192</v>
       </c>
@@ -20877,8 +26095,35 @@
       <c r="AG194" s="2">
         <v>33</v>
       </c>
+      <c r="AH194" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI194" s="2">
+        <v>33</v>
+      </c>
+      <c r="AJ194" s="2">
+        <v>33</v>
+      </c>
+      <c r="AK194" s="2">
+        <v>33</v>
+      </c>
+      <c r="AL194" s="2">
+        <v>33</v>
+      </c>
+      <c r="AM194" s="2">
+        <v>33</v>
+      </c>
+      <c r="AN194" s="2">
+        <v>33</v>
+      </c>
+      <c r="AO194" s="2">
+        <v>33</v>
+      </c>
+      <c r="AP194" s="2">
+        <v>33</v>
+      </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>193</v>
       </c>
@@ -20978,8 +26223,35 @@
       <c r="AG195" s="2">
         <v>10</v>
       </c>
+      <c r="AH195" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI195" s="2">
+        <v>10</v>
+      </c>
+      <c r="AJ195" s="2">
+        <v>10</v>
+      </c>
+      <c r="AK195" s="2">
+        <v>10</v>
+      </c>
+      <c r="AL195" s="2">
+        <v>10</v>
+      </c>
+      <c r="AM195" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN195" s="2">
+        <v>11</v>
+      </c>
+      <c r="AO195" s="2">
+        <v>11</v>
+      </c>
+      <c r="AP195" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>194</v>
       </c>
@@ -21079,8 +26351,35 @@
       <c r="AG196" s="2">
         <v>252</v>
       </c>
+      <c r="AH196" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI196" s="2">
+        <v>258</v>
+      </c>
+      <c r="AJ196" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK196" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL196" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM196" s="2">
+        <v>273</v>
+      </c>
+      <c r="AN196" s="2">
+        <v>280</v>
+      </c>
+      <c r="AO196" s="2">
+        <v>280</v>
+      </c>
+      <c r="AP196" s="2">
+        <v>281</v>
+      </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>195</v>
       </c>
@@ -21180,8 +26479,35 @@
       <c r="AG197" s="2">
         <v>65</v>
       </c>
+      <c r="AH197" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI197" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ197" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK197" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL197" s="2">
+        <v>89</v>
+      </c>
+      <c r="AM197" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN197" s="2">
+        <v>117</v>
+      </c>
+      <c r="AO197" s="2">
+        <v>145</v>
+      </c>
+      <c r="AP197" s="2">
+        <v>145</v>
+      </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>196</v>
       </c>
@@ -21281,8 +26607,35 @@
       <c r="AG198" s="2">
         <v>111</v>
       </c>
+      <c r="AH198" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI198" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ198" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK198" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL198" s="2">
+        <v>118</v>
+      </c>
+      <c r="AM198" s="2">
+        <v>118</v>
+      </c>
+      <c r="AN198" s="2">
+        <v>121</v>
+      </c>
+      <c r="AO198" s="2">
+        <v>122</v>
+      </c>
+      <c r="AP198" s="2">
+        <v>123</v>
+      </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>197</v>
       </c>
@@ -21382,8 +26735,35 @@
       <c r="AG199" s="2">
         <v>3</v>
       </c>
+      <c r="AH199" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI199" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ199" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK199" s="2">
+        <v>4</v>
+      </c>
+      <c r="AL199" s="2">
+        <v>4</v>
+      </c>
+      <c r="AM199" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN199" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO199" s="2">
+        <v>4</v>
+      </c>
+      <c r="AP199" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>198</v>
       </c>
@@ -21483,8 +26863,35 @@
       <c r="AG200" s="2">
         <v>154</v>
       </c>
+      <c r="AH200" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI200" s="2">
+        <v>157</v>
+      </c>
+      <c r="AJ200" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK200" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL200" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM200" s="2">
+        <v>191</v>
+      </c>
+      <c r="AN200" s="2">
+        <v>192</v>
+      </c>
+      <c r="AO200" s="2">
+        <v>209</v>
+      </c>
+      <c r="AP200" s="2">
+        <v>212</v>
+      </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>199</v>
       </c>
@@ -21584,8 +26991,35 @@
       <c r="AG201" s="2">
         <v>2016</v>
       </c>
+      <c r="AH201" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI201" s="2">
+        <v>2120</v>
+      </c>
+      <c r="AJ201" s="2">
+        <v>2211</v>
+      </c>
+      <c r="AK201" s="2">
+        <v>2271</v>
+      </c>
+      <c r="AL201" s="2">
+        <v>2296</v>
+      </c>
+      <c r="AM201" s="2">
+        <v>2366</v>
+      </c>
+      <c r="AN201" s="2">
+        <v>2383</v>
+      </c>
+      <c r="AO201" s="2">
+        <v>2428</v>
+      </c>
+      <c r="AP201" s="2">
+        <v>2442</v>
+      </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>200</v>
       </c>
@@ -21685,8 +27119,35 @@
       <c r="AG202" s="2">
         <v>120</v>
       </c>
+      <c r="AH202" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI202" s="2">
+        <v>128</v>
+      </c>
+      <c r="AJ202" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK202" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL202" s="2">
+        <v>140</v>
+      </c>
+      <c r="AM202" s="2">
+        <v>142</v>
+      </c>
+      <c r="AN202" s="2">
+        <v>143</v>
+      </c>
+      <c r="AO202" s="2">
+        <v>147</v>
+      </c>
+      <c r="AP202" s="2">
+        <v>240</v>
+      </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>201</v>
       </c>
@@ -21786,8 +27247,35 @@
       <c r="AG203" s="2">
         <v>281</v>
       </c>
+      <c r="AH203" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI203" s="2">
+        <v>304</v>
+      </c>
+      <c r="AJ203" s="2">
+        <v>491</v>
+      </c>
+      <c r="AK203" s="2">
+        <v>609</v>
+      </c>
+      <c r="AL203" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM203" s="2">
+        <v>660</v>
+      </c>
+      <c r="AN203" s="2">
+        <v>666</v>
+      </c>
+      <c r="AO203" s="2">
+        <v>802</v>
+      </c>
+      <c r="AP203" s="2">
+        <v>888</v>
+      </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>202</v>
       </c>
@@ -21887,8 +27375,35 @@
       <c r="AG204" s="2">
         <v>120</v>
       </c>
+      <c r="AH204" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI204" s="2">
+        <v>126</v>
+      </c>
+      <c r="AJ204" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK204" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL204" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM204" s="2">
+        <v>303</v>
+      </c>
+      <c r="AN204" s="2">
+        <v>311</v>
+      </c>
+      <c r="AO204" s="2">
+        <v>316</v>
+      </c>
+      <c r="AP204" s="2">
+        <v>316</v>
+      </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>203</v>
       </c>
@@ -21988,8 +27503,35 @@
       <c r="AG205" s="2">
         <v>145</v>
       </c>
+      <c r="AH205" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI205" s="2">
+        <v>153</v>
+      </c>
+      <c r="AJ205" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK205" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL205" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM205" s="2">
+        <v>180</v>
+      </c>
+      <c r="AN205" s="2">
+        <v>185</v>
+      </c>
+      <c r="AO205" s="2">
+        <v>192</v>
+      </c>
+      <c r="AP205" s="2">
+        <v>192</v>
+      </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>204</v>
       </c>
@@ -22089,8 +27631,35 @@
       <c r="AG206" s="2">
         <v>215</v>
       </c>
+      <c r="AH206" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI206" s="2">
+        <v>305</v>
+      </c>
+      <c r="AJ206" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK206" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL206" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM206" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN206" s="2">
+        <v>392</v>
+      </c>
+      <c r="AO206" s="2">
+        <v>402</v>
+      </c>
+      <c r="AP206" s="2">
+        <v>402</v>
+      </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>205</v>
       </c>
@@ -22190,8 +27759,35 @@
       <c r="AG207" s="2">
         <v>668</v>
       </c>
+      <c r="AH207" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI207" s="2">
+        <v>688</v>
+      </c>
+      <c r="AJ207" s="2">
+        <v>701</v>
+      </c>
+      <c r="AK207" s="2">
+        <v>712</v>
+      </c>
+      <c r="AL207" s="2">
+        <v>715</v>
+      </c>
+      <c r="AM207" s="2">
+        <v>723</v>
+      </c>
+      <c r="AN207" s="2">
+        <v>743</v>
+      </c>
+      <c r="AO207" s="2">
+        <v>752</v>
+      </c>
+      <c r="AP207" s="2">
+        <v>753</v>
+      </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>206</v>
       </c>
@@ -22291,8 +27887,35 @@
       <c r="AG208" s="2">
         <v>81</v>
       </c>
+      <c r="AH208" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI208" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ208" s="2">
+        <v>86</v>
+      </c>
+      <c r="AK208" s="2">
+        <v>88</v>
+      </c>
+      <c r="AL208" s="2">
+        <v>91</v>
+      </c>
+      <c r="AM208" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN208" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO208" s="2">
+        <v>110</v>
+      </c>
+      <c r="AP208" s="2">
+        <v>112</v>
+      </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>207</v>
       </c>
@@ -22392,8 +28015,35 @@
       <c r="AG209" s="2">
         <v>16</v>
       </c>
+      <c r="AH209" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI209" s="2">
+        <v>16</v>
+      </c>
+      <c r="AJ209" s="2">
+        <v>17</v>
+      </c>
+      <c r="AK209" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL209" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM209" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN209" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO209" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP209" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>208</v>
       </c>
@@ -22493,8 +28143,35 @@
       <c r="AG210" s="2">
         <v>42</v>
       </c>
+      <c r="AH210" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI210" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ210" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK210" s="2">
+        <v>63</v>
+      </c>
+      <c r="AL210" s="2">
+        <v>64</v>
+      </c>
+      <c r="AM210" s="2">
+        <v>71</v>
+      </c>
+      <c r="AN210" s="2">
+        <v>71</v>
+      </c>
+      <c r="AO210" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP210" s="2">
+        <v>74</v>
+      </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>209</v>
       </c>
@@ -22594,8 +28271,35 @@
       <c r="AG211" s="2">
         <v>19</v>
       </c>
+      <c r="AH211" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI211" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ211" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK211" s="2">
+        <v>22</v>
+      </c>
+      <c r="AL211" s="2">
+        <v>24</v>
+      </c>
+      <c r="AM211" s="2">
+        <v>25</v>
+      </c>
+      <c r="AN211" s="2">
+        <v>25</v>
+      </c>
+      <c r="AO211" s="2">
+        <v>25</v>
+      </c>
+      <c r="AP211" s="2">
+        <v>25</v>
+      </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>210</v>
       </c>
@@ -22695,8 +28399,35 @@
       <c r="AG212" s="2">
         <v>726</v>
       </c>
+      <c r="AH212" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI212" s="2">
+        <v>759</v>
+      </c>
+      <c r="AJ212" s="2">
+        <v>778</v>
+      </c>
+      <c r="AK212" s="2">
+        <v>810</v>
+      </c>
+      <c r="AL212" s="2">
+        <v>823</v>
+      </c>
+      <c r="AM212" s="2">
+        <v>845</v>
+      </c>
+      <c r="AN212" s="2">
+        <v>898</v>
+      </c>
+      <c r="AO212" s="2">
+        <v>951</v>
+      </c>
+      <c r="AP212" s="2">
+        <v>952</v>
+      </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>211</v>
       </c>
@@ -22796,8 +28527,35 @@
       <c r="AG213" s="2">
         <v>26</v>
       </c>
+      <c r="AH213" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI213" s="2">
+        <v>26</v>
+      </c>
+      <c r="AJ213" s="2">
+        <v>27</v>
+      </c>
+      <c r="AK213" s="2">
+        <v>28</v>
+      </c>
+      <c r="AL213" s="2">
+        <v>28</v>
+      </c>
+      <c r="AM213" s="2">
+        <v>28</v>
+      </c>
+      <c r="AN213" s="2">
+        <v>28</v>
+      </c>
+      <c r="AO213" s="2">
+        <v>28</v>
+      </c>
+      <c r="AP213" s="2">
+        <v>28</v>
+      </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>212</v>
       </c>
@@ -22897,8 +28655,35 @@
       <c r="AG214" s="2">
         <v>3646</v>
       </c>
+      <c r="AH214" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI214" s="2">
+        <v>3753</v>
+      </c>
+      <c r="AJ214" s="2">
+        <v>3831</v>
+      </c>
+      <c r="AK214" s="2">
+        <v>3873</v>
+      </c>
+      <c r="AL214" s="2">
+        <v>3890</v>
+      </c>
+      <c r="AM214" s="2">
+        <v>3941</v>
+      </c>
+      <c r="AN214" s="2">
+        <v>3994</v>
+      </c>
+      <c r="AO214" s="2">
+        <v>4091</v>
+      </c>
+      <c r="AP214" s="2">
+        <v>4201</v>
+      </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>213</v>
       </c>
@@ -22998,8 +28783,35 @@
       <c r="AG215" s="2">
         <v>121</v>
       </c>
+      <c r="AH215" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI215" s="2">
+        <v>128</v>
+      </c>
+      <c r="AJ215" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK215" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL215" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM215" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN215" s="2">
+        <v>139</v>
+      </c>
+      <c r="AO215" s="2">
+        <v>142</v>
+      </c>
+      <c r="AP215" s="2">
+        <v>142</v>
+      </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>214</v>
       </c>
@@ -23099,8 +28911,35 @@
       <c r="AG216" s="2">
         <v>458</v>
       </c>
+      <c r="AH216" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI216" s="2">
+        <v>478</v>
+      </c>
+      <c r="AJ216" s="2">
+        <v>506</v>
+      </c>
+      <c r="AK216" s="2">
+        <v>546</v>
+      </c>
+      <c r="AL216" s="2">
+        <v>622</v>
+      </c>
+      <c r="AM216" s="2">
+        <v>699</v>
+      </c>
+      <c r="AN216" s="2">
+        <v>718</v>
+      </c>
+      <c r="AO216" s="2">
+        <v>744</v>
+      </c>
+      <c r="AP216" s="2">
+        <v>748</v>
+      </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>215</v>
       </c>
@@ -23200,8 +29039,35 @@
       <c r="AG217" s="2">
         <v>48</v>
       </c>
+      <c r="AH217" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI217" s="2">
+        <v>48</v>
+      </c>
+      <c r="AJ217" s="2">
+        <v>50</v>
+      </c>
+      <c r="AK217" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL217" s="2">
+        <v>58</v>
+      </c>
+      <c r="AM217" s="2">
+        <v>58</v>
+      </c>
+      <c r="AN217" s="2">
+        <v>59</v>
+      </c>
+      <c r="AO217" s="2">
+        <v>59</v>
+      </c>
+      <c r="AP217" s="2">
+        <v>59</v>
+      </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>216</v>
       </c>
@@ -23301,8 +29167,35 @@
       <c r="AG218" s="2">
         <v>3</v>
       </c>
+      <c r="AH218" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI218" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ218" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK218" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL218" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM218" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN218" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO218" s="2">
+        <v>4</v>
+      </c>
+      <c r="AP218" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>217</v>
       </c>
@@ -23402,8 +29295,35 @@
       <c r="AG219" s="2">
         <v>4</v>
       </c>
+      <c r="AH219" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI219" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ219" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK219" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL219" s="2">
+        <v>5</v>
+      </c>
+      <c r="AM219" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN219" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO219" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP219" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>218</v>
       </c>
@@ -23503,8 +29423,35 @@
       <c r="AG220" s="2">
         <v>14</v>
       </c>
+      <c r="AH220" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI220" s="2">
+        <v>14</v>
+      </c>
+      <c r="AJ220" s="2">
+        <v>14</v>
+      </c>
+      <c r="AK220" s="2">
+        <v>14</v>
+      </c>
+      <c r="AL220" s="2">
+        <v>15</v>
+      </c>
+      <c r="AM220" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN220" s="2">
+        <v>16</v>
+      </c>
+      <c r="AO220" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP220" s="2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>219</v>
       </c>
@@ -23604,8 +29551,35 @@
       <c r="AG221" s="2">
         <v>74</v>
       </c>
+      <c r="AH221" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI221" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ221" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK221" s="2">
+        <v>89</v>
+      </c>
+      <c r="AL221" s="2">
+        <v>89</v>
+      </c>
+      <c r="AM221" s="2">
+        <v>93</v>
+      </c>
+      <c r="AN221" s="2">
+        <v>93</v>
+      </c>
+      <c r="AO221" s="2">
+        <v>96</v>
+      </c>
+      <c r="AP221" s="2">
+        <v>96</v>
+      </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>220</v>
       </c>
@@ -23705,8 +29679,35 @@
       <c r="AG222" s="2">
         <v>43142</v>
       </c>
+      <c r="AH222" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI222" s="2">
+        <v>45927</v>
+      </c>
+      <c r="AJ222" s="2">
+        <v>48062</v>
+      </c>
+      <c r="AK222" s="2">
+        <v>49330</v>
+      </c>
+      <c r="AL222" s="2">
+        <v>50619</v>
+      </c>
+      <c r="AM222" s="2">
+        <v>52380</v>
+      </c>
+      <c r="AN222" s="2">
+        <v>53429</v>
+      </c>
+      <c r="AO222" s="2">
+        <v>54716</v>
+      </c>
+      <c r="AP222" s="2">
+        <v>55034</v>
+      </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>221</v>
       </c>
@@ -23806,8 +29807,35 @@
       <c r="AG223" s="2">
         <v>3076</v>
       </c>
+      <c r="AH223" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI223" s="2">
+        <v>3152</v>
+      </c>
+      <c r="AJ223" s="2">
+        <v>3201</v>
+      </c>
+      <c r="AK223" s="2">
+        <v>3284</v>
+      </c>
+      <c r="AL223" s="2">
+        <v>3447</v>
+      </c>
+      <c r="AM223" s="2">
+        <v>3497</v>
+      </c>
+      <c r="AN223" s="2">
+        <v>3564</v>
+      </c>
+      <c r="AO223" s="2">
+        <v>3706</v>
+      </c>
+      <c r="AP223" s="2">
+        <v>3760</v>
+      </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>222</v>
       </c>
@@ -23907,8 +29935,35 @@
       <c r="AG224" s="2">
         <v>4</v>
       </c>
+      <c r="AH224" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI224" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ224" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK224" s="2">
+        <v>4</v>
+      </c>
+      <c r="AL224" s="2">
+        <v>4</v>
+      </c>
+      <c r="AM224" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN224" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO224" s="2">
+        <v>4</v>
+      </c>
+      <c r="AP224" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>223</v>
       </c>
@@ -24008,8 +30063,35 @@
       <c r="AG225" s="2">
         <v>169</v>
       </c>
+      <c r="AH225" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI225" s="2">
+        <v>171</v>
+      </c>
+      <c r="AJ225" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK225" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL225" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM225" s="2">
+        <v>182</v>
+      </c>
+      <c r="AN225" s="2">
+        <v>182</v>
+      </c>
+      <c r="AO225" s="2">
+        <v>191</v>
+      </c>
+      <c r="AP225" s="2">
+        <v>192</v>
+      </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>224</v>
       </c>
@@ -24109,8 +30191,35 @@
       <c r="AG226" s="2">
         <v>7</v>
       </c>
+      <c r="AH226" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI226" s="2">
+        <v>7</v>
+      </c>
+      <c r="AJ226" s="2">
+        <v>7</v>
+      </c>
+      <c r="AK226" s="2">
+        <v>7</v>
+      </c>
+      <c r="AL226" s="2">
+        <v>8</v>
+      </c>
+      <c r="AM226" s="2">
+        <v>8</v>
+      </c>
+      <c r="AN226" s="2">
+        <v>8</v>
+      </c>
+      <c r="AO226" s="2">
+        <v>8</v>
+      </c>
+      <c r="AP226" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>225</v>
       </c>
@@ -24210,8 +30319,35 @@
       <c r="AG227" s="2">
         <v>791</v>
       </c>
+      <c r="AH227" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI227" s="2">
+        <v>822</v>
+      </c>
+      <c r="AJ227" s="2">
+        <v>830</v>
+      </c>
+      <c r="AK227" s="2">
+        <v>851</v>
+      </c>
+      <c r="AL227" s="2">
+        <v>862</v>
+      </c>
+      <c r="AM227" s="2">
+        <v>906</v>
+      </c>
+      <c r="AN227" s="2">
+        <v>957</v>
+      </c>
+      <c r="AO227" s="2">
+        <v>1106</v>
+      </c>
+      <c r="AP227" s="2">
+        <v>1248</v>
+      </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>226</v>
       </c>
@@ -24311,8 +30447,35 @@
       <c r="AG228" s="2">
         <v>1548</v>
       </c>
+      <c r="AH228" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI228" s="2">
+        <v>1771</v>
+      </c>
+      <c r="AJ228" s="2">
+        <v>1788</v>
+      </c>
+      <c r="AK228" s="2">
+        <v>1790</v>
+      </c>
+      <c r="AL228" s="2">
+        <v>1805</v>
+      </c>
+      <c r="AM228" s="2">
+        <v>1816</v>
+      </c>
+      <c r="AN228" s="2">
+        <v>1903</v>
+      </c>
+      <c r="AO228" s="2">
+        <v>1976</v>
+      </c>
+      <c r="AP228" s="2">
+        <v>1976</v>
+      </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>227</v>
       </c>
@@ -24412,8 +30575,35 @@
       <c r="AG229" s="2">
         <v>27375</v>
       </c>
+      <c r="AH229" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI229" s="2">
+        <v>29503</v>
+      </c>
+      <c r="AJ229" s="2">
+        <v>30408</v>
+      </c>
+      <c r="AK229" s="2">
+        <v>31740</v>
+      </c>
+      <c r="AL229" s="2">
+        <v>32759</v>
+      </c>
+      <c r="AM229" s="2">
+        <v>33630</v>
+      </c>
+      <c r="AN229" s="2">
+        <v>34859</v>
+      </c>
+      <c r="AO229" s="2">
+        <v>35995</v>
+      </c>
+      <c r="AP229" s="2">
+        <v>36549</v>
+      </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>228</v>
       </c>
@@ -24513,8 +30703,35 @@
       <c r="AG230" s="2">
         <v>136</v>
       </c>
+      <c r="AH230" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI230" s="2">
+        <v>148</v>
+      </c>
+      <c r="AJ230" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK230" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL230" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM230" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN230" s="2">
+        <v>175</v>
+      </c>
+      <c r="AO230" s="2">
+        <v>186</v>
+      </c>
+      <c r="AP230" s="2">
+        <v>187</v>
+      </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>229</v>
       </c>
@@ -24614,8 +30831,35 @@
       <c r="AG231" s="2">
         <v>147</v>
       </c>
+      <c r="AH231" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI231" s="2">
+        <v>251</v>
+      </c>
+      <c r="AJ231" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK231" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL231" s="2">
+        <v>299</v>
+      </c>
+      <c r="AM231" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN231" s="2">
+        <v>319</v>
+      </c>
+      <c r="AO231" s="2">
+        <v>323</v>
+      </c>
+      <c r="AP231" s="2">
+        <v>325</v>
+      </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>230</v>
       </c>
@@ -24715,8 +30959,35 @@
       <c r="AG232" s="2">
         <v>175</v>
       </c>
+      <c r="AH232" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI232" s="2">
+        <v>190</v>
+      </c>
+      <c r="AJ232" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK232" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL232" s="2">
+        <v>201</v>
+      </c>
+      <c r="AM232" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN232" s="2">
+        <v>210</v>
+      </c>
+      <c r="AO232" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP232" s="2">
+        <v>214</v>
+      </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>231</v>
       </c>
@@ -24816,8 +31087,35 @@
       <c r="AG233" s="2">
         <v>15</v>
       </c>
+      <c r="AH233" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI233" s="2">
+        <v>15</v>
+      </c>
+      <c r="AJ233" s="2">
+        <v>15</v>
+      </c>
+      <c r="AK233" s="2">
+        <v>15</v>
+      </c>
+      <c r="AL233" s="2">
+        <v>15</v>
+      </c>
+      <c r="AM233" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN233" s="2">
+        <v>17</v>
+      </c>
+      <c r="AO233" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP233" s="2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>232</v>
       </c>
@@ -24917,8 +31215,35 @@
       <c r="AG234" s="2">
         <v>238</v>
       </c>
+      <c r="AH234" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI234" s="2">
+        <v>245</v>
+      </c>
+      <c r="AJ234" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK234" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL234" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM234" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN234" s="2">
+        <v>256</v>
+      </c>
+      <c r="AO234" s="2">
+        <v>259</v>
+      </c>
+      <c r="AP234" s="2">
+        <v>265</v>
+      </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>233</v>
       </c>
@@ -25018,8 +31343,35 @@
       <c r="AG235" s="2">
         <v>246</v>
       </c>
+      <c r="AH235" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI235" s="2">
+        <v>259</v>
+      </c>
+      <c r="AJ235" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK235" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL235" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM235" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN235" s="2">
+        <v>305</v>
+      </c>
+      <c r="AO235" s="2">
+        <v>316</v>
+      </c>
+      <c r="AP235" s="2">
+        <v>328</v>
+      </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>234</v>
       </c>
@@ -25119,8 +31471,35 @@
       <c r="AG236" s="2">
         <v>663</v>
       </c>
+      <c r="AH236" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI236" s="2">
+        <v>683</v>
+      </c>
+      <c r="AJ236" s="2">
+        <v>710</v>
+      </c>
+      <c r="AK236" s="2">
+        <v>733</v>
+      </c>
+      <c r="AL236" s="2">
+        <v>744</v>
+      </c>
+      <c r="AM236" s="2">
+        <v>753</v>
+      </c>
+      <c r="AN236" s="2">
+        <v>762</v>
+      </c>
+      <c r="AO236" s="2">
+        <v>785</v>
+      </c>
+      <c r="AP236" s="2">
+        <v>788</v>
+      </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>235</v>
       </c>
@@ -25220,8 +31599,35 @@
       <c r="AG237" s="2">
         <v>2423</v>
       </c>
+      <c r="AH237" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI237" s="2">
+        <v>2486</v>
+      </c>
+      <c r="AJ237" s="2">
+        <v>2559</v>
+      </c>
+      <c r="AK237" s="2">
+        <v>2615</v>
+      </c>
+      <c r="AL237" s="2">
+        <v>2650</v>
+      </c>
+      <c r="AM237" s="2">
+        <v>2663</v>
+      </c>
+      <c r="AN237" s="2">
+        <v>2726</v>
+      </c>
+      <c r="AO237" s="2">
+        <v>2757</v>
+      </c>
+      <c r="AP237" s="2">
+        <v>2764</v>
+      </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>236</v>
       </c>
@@ -25321,8 +31727,35 @@
       <c r="AG238" s="2">
         <v>4371</v>
       </c>
+      <c r="AH238" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI238" s="2">
+        <v>4447</v>
+      </c>
+      <c r="AJ238" s="2">
+        <v>4496</v>
+      </c>
+      <c r="AK238" s="2">
+        <v>4561</v>
+      </c>
+      <c r="AL238" s="2">
+        <v>4615</v>
+      </c>
+      <c r="AM238" s="2">
+        <v>4706</v>
+      </c>
+      <c r="AN238" s="2">
+        <v>4838</v>
+      </c>
+      <c r="AO238" s="2">
+        <v>4945</v>
+      </c>
+      <c r="AP238" s="2">
+        <v>4963</v>
+      </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>237</v>
       </c>
@@ -25422,8 +31855,35 @@
       <c r="AG239" s="2">
         <v>685</v>
       </c>
+      <c r="AH239" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI239" s="2">
+        <v>712</v>
+      </c>
+      <c r="AJ239" s="2">
+        <v>736</v>
+      </c>
+      <c r="AK239" s="2">
+        <v>756</v>
+      </c>
+      <c r="AL239" s="2">
+        <v>772</v>
+      </c>
+      <c r="AM239" s="2">
+        <v>794</v>
+      </c>
+      <c r="AN239" s="2">
+        <v>819</v>
+      </c>
+      <c r="AO239" s="2">
+        <v>846</v>
+      </c>
+      <c r="AP239" s="2">
+        <v>850</v>
+      </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>238</v>
       </c>
@@ -25523,8 +31983,35 @@
       <c r="AG240" s="2">
         <v>77</v>
       </c>
+      <c r="AH240" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI240" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ240" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK240" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL240" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM240" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN240" s="2">
+        <v>89</v>
+      </c>
+      <c r="AO240" s="2">
+        <v>90</v>
+      </c>
+      <c r="AP240" s="2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>239</v>
       </c>
@@ -25624,8 +32111,35 @@
       <c r="AG241" s="2">
         <v>1002</v>
       </c>
+      <c r="AH241" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI241" s="2">
+        <v>1020</v>
+      </c>
+      <c r="AJ241" s="2">
+        <v>1083</v>
+      </c>
+      <c r="AK241" s="2">
+        <v>1095</v>
+      </c>
+      <c r="AL241" s="2">
+        <v>1108</v>
+      </c>
+      <c r="AM241" s="2">
+        <v>1165</v>
+      </c>
+      <c r="AN241" s="2">
+        <v>1171</v>
+      </c>
+      <c r="AO241" s="2">
+        <v>1468</v>
+      </c>
+      <c r="AP241" s="2">
+        <v>1499</v>
+      </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>240</v>
       </c>
@@ -25725,8 +32239,35 @@
       <c r="AG242" s="2">
         <v>4057</v>
       </c>
+      <c r="AH242" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI242" s="2">
+        <v>4208</v>
+      </c>
+      <c r="AJ242" s="2">
+        <v>4327</v>
+      </c>
+      <c r="AK242" s="2">
+        <v>4406</v>
+      </c>
+      <c r="AL242" s="2">
+        <v>4466</v>
+      </c>
+      <c r="AM242" s="2">
+        <v>4494</v>
+      </c>
+      <c r="AN242" s="2">
+        <v>4629</v>
+      </c>
+      <c r="AO242" s="2">
+        <v>4702</v>
+      </c>
+      <c r="AP242" s="2">
+        <v>4768</v>
+      </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>241</v>
       </c>
@@ -25826,8 +32367,35 @@
       <c r="AG243" s="2">
         <v>754</v>
       </c>
+      <c r="AH243" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI243" s="2">
+        <v>786</v>
+      </c>
+      <c r="AJ243" s="2">
+        <v>804</v>
+      </c>
+      <c r="AK243" s="2">
+        <v>850</v>
+      </c>
+      <c r="AL243" s="2">
+        <v>986</v>
+      </c>
+      <c r="AM243" s="2">
+        <v>1018</v>
+      </c>
+      <c r="AN243" s="2">
+        <v>1029</v>
+      </c>
+      <c r="AO243" s="2">
+        <v>1053</v>
+      </c>
+      <c r="AP243" s="2">
+        <v>1059</v>
+      </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>242</v>
       </c>
@@ -25927,8 +32495,35 @@
       <c r="AG244" s="2">
         <v>60</v>
       </c>
+      <c r="AH244" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI244" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ244" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK244" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL244" s="2">
+        <v>91</v>
+      </c>
+      <c r="AM244" s="2">
+        <v>91</v>
+      </c>
+      <c r="AN244" s="2">
+        <v>91</v>
+      </c>
+      <c r="AO244" s="2">
+        <v>92</v>
+      </c>
+      <c r="AP244" s="2">
+        <v>92</v>
+      </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>243</v>
       </c>
@@ -26028,8 +32623,35 @@
       <c r="AG245" s="2">
         <v>3224</v>
       </c>
+      <c r="AH245" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI245" s="2">
+        <v>3282</v>
+      </c>
+      <c r="AJ245" s="2">
+        <v>3310</v>
+      </c>
+      <c r="AK245" s="2">
+        <v>3354</v>
+      </c>
+      <c r="AL245" s="2">
+        <v>3401</v>
+      </c>
+      <c r="AM245" s="2">
+        <v>3437</v>
+      </c>
+      <c r="AN245" s="2">
+        <v>3497</v>
+      </c>
+      <c r="AO245" s="2">
+        <v>3528</v>
+      </c>
+      <c r="AP245" s="2">
+        <v>3560</v>
+      </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>244</v>
       </c>
@@ -26129,8 +32751,35 @@
       <c r="AG246" s="2">
         <v>61</v>
       </c>
+      <c r="AH246" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI246" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ246" s="2">
+        <v>66</v>
+      </c>
+      <c r="AK246" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL246" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM246" s="2">
+        <v>71</v>
+      </c>
+      <c r="AN246" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO246" s="2">
+        <v>89</v>
+      </c>
+      <c r="AP246" s="2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>245</v>
       </c>
@@ -26230,8 +32879,35 @@
       <c r="AG247" s="2">
         <v>405</v>
       </c>
+      <c r="AH247" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI247" s="2">
+        <v>414</v>
+      </c>
+      <c r="AJ247" s="2">
+        <v>431</v>
+      </c>
+      <c r="AK247" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL247" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM247" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN247" s="2">
+        <v>445</v>
+      </c>
+      <c r="AO247" s="2">
+        <v>457</v>
+      </c>
+      <c r="AP247" s="2">
+        <v>459</v>
+      </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>246</v>
       </c>
@@ -26331,8 +33007,35 @@
       <c r="AG248" s="2">
         <v>8627</v>
       </c>
+      <c r="AH248" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI248" s="2">
+        <v>9413</v>
+      </c>
+      <c r="AJ248" s="2">
+        <v>9679</v>
+      </c>
+      <c r="AK248" s="2">
+        <v>9837</v>
+      </c>
+      <c r="AL248" s="2">
+        <v>9941</v>
+      </c>
+      <c r="AM248" s="2">
+        <v>10284</v>
+      </c>
+      <c r="AN248" s="2">
+        <v>10424</v>
+      </c>
+      <c r="AO248" s="2">
+        <v>10734</v>
+      </c>
+      <c r="AP248" s="2">
+        <v>10853</v>
+      </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>247</v>
       </c>
@@ -26432,8 +33135,35 @@
       <c r="AG249" s="2">
         <v>533</v>
       </c>
+      <c r="AH249" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI249" s="2">
+        <v>541</v>
+      </c>
+      <c r="AJ249" s="2">
+        <v>553</v>
+      </c>
+      <c r="AK249" s="2">
+        <v>564</v>
+      </c>
+      <c r="AL249" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM249" s="2">
+        <v>577</v>
+      </c>
+      <c r="AN249" s="2">
+        <v>610</v>
+      </c>
+      <c r="AO249" s="2">
+        <v>621</v>
+      </c>
+      <c r="AP249" s="2">
+        <v>623</v>
+      </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>248</v>
       </c>
@@ -26533,8 +33263,35 @@
       <c r="AG250" s="2">
         <v>24</v>
       </c>
+      <c r="AH250" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI250" s="2">
+        <v>24</v>
+      </c>
+      <c r="AJ250" s="2">
+        <v>24</v>
+      </c>
+      <c r="AK250" s="2">
+        <v>25</v>
+      </c>
+      <c r="AL250" s="2">
+        <v>25</v>
+      </c>
+      <c r="AM250" s="2">
+        <v>25</v>
+      </c>
+      <c r="AN250" s="2">
+        <v>25</v>
+      </c>
+      <c r="AO250" s="2">
+        <v>26</v>
+      </c>
+      <c r="AP250" s="2">
+        <v>26</v>
+      </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>249</v>
       </c>
@@ -26634,8 +33391,35 @@
       <c r="AG251" s="2">
         <v>838</v>
       </c>
+      <c r="AH251" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI251" s="2">
+        <v>889</v>
+      </c>
+      <c r="AJ251" s="2">
+        <v>939</v>
+      </c>
+      <c r="AK251" s="2">
+        <v>965</v>
+      </c>
+      <c r="AL251" s="2">
+        <v>985</v>
+      </c>
+      <c r="AM251" s="2">
+        <v>1005</v>
+      </c>
+      <c r="AN251" s="2">
+        <v>1023</v>
+      </c>
+      <c r="AO251" s="2">
+        <v>1054</v>
+      </c>
+      <c r="AP251" s="2">
+        <v>1055</v>
+      </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>250</v>
       </c>
@@ -26735,8 +33519,35 @@
       <c r="AG252" s="2">
         <v>237</v>
       </c>
+      <c r="AH252" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI252" s="2">
+        <v>257</v>
+      </c>
+      <c r="AJ252" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK252" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL252" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM252" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN252" s="2">
+        <v>377</v>
+      </c>
+      <c r="AO252" s="2">
+        <v>420</v>
+      </c>
+      <c r="AP252" s="2">
+        <v>426</v>
+      </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>251</v>
       </c>
@@ -26836,8 +33647,35 @@
       <c r="AG253" s="2">
         <v>25</v>
       </c>
+      <c r="AH253" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI253" s="2">
+        <v>30</v>
+      </c>
+      <c r="AJ253" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK253" s="2">
+        <v>30</v>
+      </c>
+      <c r="AL253" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM253" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN253" s="2">
+        <v>129</v>
+      </c>
+      <c r="AO253" s="2">
+        <v>136</v>
+      </c>
+      <c r="AP253" s="2">
+        <v>138</v>
+      </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>252</v>
       </c>
@@ -26937,8 +33775,35 @@
       <c r="AG254" s="2">
         <v>400</v>
       </c>
+      <c r="AH254" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI254" s="2">
+        <v>404</v>
+      </c>
+      <c r="AJ254" s="2">
+        <v>404</v>
+      </c>
+      <c r="AK254" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL254" s="2">
+        <v>499</v>
+      </c>
+      <c r="AM254" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN254" s="2">
+        <v>505</v>
+      </c>
+      <c r="AO254" s="2">
+        <v>511</v>
+      </c>
+      <c r="AP254" s="2">
+        <v>512</v>
+      </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>253</v>
       </c>
@@ -27038,8 +33903,35 @@
       <c r="AG255" s="2">
         <v>95</v>
       </c>
+      <c r="AH255" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI255" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ255" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK255" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL255" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM255" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN255" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO255" s="2">
+        <v>106</v>
+      </c>
+      <c r="AP255" s="2">
+        <v>106</v>
+      </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>254</v>
       </c>
@@ -27139,8 +34031,35 @@
       <c r="AG256" s="2">
         <v>51</v>
       </c>
+      <c r="AH256" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI256" s="2">
+        <v>53</v>
+      </c>
+      <c r="AJ256" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK256" s="2">
+        <v>57</v>
+      </c>
+      <c r="AL256" s="2">
+        <v>58</v>
+      </c>
+      <c r="AM256" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN256" s="2">
+        <v>60</v>
+      </c>
+      <c r="AO256" s="2">
+        <v>62</v>
+      </c>
+      <c r="AP256" s="2">
+        <v>62</v>
+      </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>255</v>
       </c>
@@ -27240,8 +34159,35 @@
       <c r="AG257" s="2">
         <v>3941</v>
       </c>
+      <c r="AH257" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI257" s="2">
+        <v>4097</v>
+      </c>
+      <c r="AJ257" s="2">
+        <v>4196</v>
+      </c>
+      <c r="AK257" s="2">
+        <v>4343</v>
+      </c>
+      <c r="AL257" s="2">
+        <v>4528</v>
+      </c>
+      <c r="AM257" s="2">
+        <v>4967</v>
+      </c>
+      <c r="AN257" s="2">
+        <v>5082</v>
+      </c>
+      <c r="AO257" s="2">
+        <v>5213</v>
+      </c>
+      <c r="AP257" s="2">
+        <v>5238</v>
+      </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>256</v>
       </c>
@@ -27342,8 +34288,35 @@
       <c r="AG258" s="2">
         <v>170204</v>
       </c>
+      <c r="AH258" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI258" s="2">
+        <v>189176</v>
+      </c>
+      <c r="AJ258" s="2">
+        <v>186323</v>
+      </c>
+      <c r="AK258" s="2">
+        <v>203815</v>
+      </c>
+      <c r="AL258" s="2">
+        <v>208084</v>
+      </c>
+      <c r="AM258" s="2">
+        <v>211150</v>
+      </c>
+      <c r="AN258" s="2">
+        <v>231803</v>
+      </c>
+      <c r="AO258" s="2">
+        <v>236183</v>
+      </c>
+      <c r="AP258" s="2">
+        <v>247341</v>
+      </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>257</v>
       </c>
@@ -27453,8 +34426,40 @@
         <f>SUM(AG3:AG258)</f>
         <v>834437</v>
       </c>
+      <c r="AH259" s="10">
+        <v>870935</v>
+      </c>
+      <c r="AI259" s="10">
+        <v>886354</v>
+      </c>
+      <c r="AJ259" s="10">
+        <f>SUM(AJ3:AJ258)</f>
+        <v>906074</v>
+      </c>
+      <c r="AK259" s="10">
+        <f>SUM(AK3:AK258)</f>
+        <v>943239</v>
+      </c>
+      <c r="AL259" s="10">
+        <f>SUM(AL3:AL258)</f>
+        <v>961861</v>
+      </c>
+      <c r="AM259" s="10">
+        <v>989994</v>
+      </c>
+      <c r="AN259" s="10">
+        <v>1027449</v>
+      </c>
+      <c r="AO259" s="10">
+        <f>SUM(AO3:AO258)</f>
+        <v>1054793</v>
+      </c>
+      <c r="AP259" s="10">
+        <f>SUM(AP3:AP258)</f>
+        <v>1073491</v>
+      </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>261</v>
       </c>
@@ -27467,46 +34472,46 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
     </row>
-    <row r="262" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="20" t="s">
+    <row r="262" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B262" s="21"/>
-      <c r="C262" s="21"/>
-      <c r="D262" s="21"/>
-      <c r="E262" s="21"/>
-      <c r="F262" s="21"/>
-      <c r="G262" s="21"/>
-      <c r="H262" s="21"/>
-      <c r="I262" s="21"/>
+      <c r="B262" s="22"/>
+      <c r="C262" s="22"/>
+      <c r="D262" s="22"/>
+      <c r="E262" s="22"/>
+      <c r="F262" s="22"/>
+      <c r="G262" s="22"/>
+      <c r="H262" s="22"/>
+      <c r="I262" s="22"/>
     </row>
-    <row r="263" spans="1:33" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="22" t="s">
+    <row r="263" spans="1:42" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="B263" s="22"/>
-      <c r="C263" s="23"/>
-      <c r="D263" s="23"/>
-      <c r="E263" s="23"/>
-      <c r="F263" s="23"/>
-      <c r="G263" s="23"/>
-      <c r="H263" s="23"/>
-      <c r="I263" s="23"/>
+      <c r="B263" s="23"/>
+      <c r="C263" s="24"/>
+      <c r="D263" s="24"/>
+      <c r="E263" s="24"/>
+      <c r="F263" s="24"/>
+      <c r="G263" s="24"/>
+      <c r="H263" s="24"/>
+      <c r="I263" s="24"/>
     </row>
-    <row r="264" spans="1:33" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="22" t="s">
+    <row r="264" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="B264" s="22"/>
-      <c r="C264" s="23"/>
-      <c r="D264" s="23"/>
-      <c r="E264" s="23"/>
-      <c r="F264" s="23"/>
-      <c r="G264" s="23"/>
-      <c r="H264" s="23"/>
-      <c r="I264" s="23"/>
+      <c r="B264" s="23"/>
+      <c r="C264" s="24"/>
+      <c r="D264" s="24"/>
+      <c r="E264" s="24"/>
+      <c r="F264" s="24"/>
+      <c r="G264" s="24"/>
+      <c r="H264" s="24"/>
+      <c r="I264" s="24"/>
     </row>
-    <row r="265" spans="1:33" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:42" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11" t="s">
         <v>288</v>
       </c>
@@ -27542,10 +34547,19 @@
       <c r="AE265" s="13"/>
       <c r="AF265" s="13"/>
       <c r="AG265" s="13"/>
+      <c r="AH265" s="13"/>
+      <c r="AI265" s="13"/>
+      <c r="AJ265" s="13"/>
+      <c r="AK265" s="13"/>
+      <c r="AL265" s="13"/>
+      <c r="AM265" s="13"/>
+      <c r="AN265" s="13"/>
+      <c r="AO265" s="13"/>
+      <c r="AP265" s="13"/>
     </row>
-    <row r="266" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B266" s="18"/>
       <c r="C266" s="13"/>
@@ -27556,18 +34570,18 @@
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
     </row>
-    <row r="267" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="22" t="s">
+    <row r="267" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="B267" s="22"/>
-      <c r="C267" s="22"/>
-      <c r="D267" s="22"/>
-      <c r="E267" s="22"/>
-      <c r="F267" s="22"/>
-      <c r="G267" s="22"/>
-      <c r="H267" s="22"/>
-      <c r="I267" s="22"/>
+      <c r="B267" s="23"/>
+      <c r="C267" s="23"/>
+      <c r="D267" s="23"/>
+      <c r="E267" s="23"/>
+      <c r="F267" s="23"/>
+      <c r="G267" s="23"/>
+      <c r="H267" s="23"/>
+      <c r="I267" s="23"/>
       <c r="J267" s="18"/>
     </row>
   </sheetData>

--- a/raw/TX/TexasCOVID-19CumulativeTestsOverTimebyCounty.xlsx
+++ b/raw/TX/TexasCOVID-19CumulativeTestsOverTimebyCounty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F1C9568C-DA55-434B-91A1-F38EF27839C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1430C315-D6B2-439C-8E8F-4EB7CE9ECA2A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="331">
   <si>
     <t>County</t>
   </si>
@@ -1019,7 +1019,10 @@
     <t>Tests Through June 21</t>
   </si>
   <si>
-    <t>5. This file will be updated daily; the next cumulative update will be 6/23/2020.</t>
+    <t>Tests Through June 22</t>
+  </si>
+  <si>
+    <t>5. This file will be updated daily; the next cumulative update will be 6/24/2020.</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK267"/>
+  <dimension ref="A1:BL267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -1478,15 +1481,15 @@
     <col min="46" max="46" width="11.453125" style="2" customWidth="1"/>
     <col min="47" max="49" width="11.1796875" style="2" customWidth="1"/>
     <col min="50" max="59" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="63" width="12.90625" customWidth="1"/>
+    <col min="60" max="64" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1676,8 +1679,11 @@
       <c r="BK2" s="7" t="s">
         <v>328</v>
       </c>
+      <c r="BL2" s="7" t="s">
+        <v>329</v>
+      </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1867,8 +1873,11 @@
       <c r="BK3" s="2">
         <v>3309</v>
       </c>
+      <c r="BL3" s="2">
+        <v>5058</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2058,8 +2067,11 @@
       <c r="BK4" s="2">
         <v>91</v>
       </c>
+      <c r="BL4" s="2">
+        <v>95</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2261,11 @@
       <c r="BK5" s="2">
         <v>3599</v>
       </c>
+      <c r="BL5" s="2">
+        <v>3662</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2440,8 +2455,11 @@
       <c r="BK6" s="2">
         <v>337</v>
       </c>
+      <c r="BL6" s="2">
+        <v>342</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2631,8 +2649,11 @@
       <c r="BK7" s="2">
         <v>89</v>
       </c>
+      <c r="BL7" s="2">
+        <v>94</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2822,8 +2843,11 @@
       <c r="BK8" s="2">
         <v>178</v>
       </c>
+      <c r="BL8" s="2">
+        <v>180</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3013,8 +3037,11 @@
       <c r="BK9" s="2">
         <v>1406</v>
       </c>
+      <c r="BL9" s="2">
+        <v>1424</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3204,8 +3231,11 @@
       <c r="BK10" s="2">
         <v>1402</v>
       </c>
+      <c r="BL10" s="2">
+        <v>1418</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3395,8 +3425,11 @@
       <c r="BK11" s="2">
         <v>107</v>
       </c>
+      <c r="BL11" s="2">
+        <v>107</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3586,8 +3619,11 @@
       <c r="BK12" s="2">
         <v>414</v>
       </c>
+      <c r="BL12" s="2">
+        <v>425</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -3777,8 +3813,11 @@
       <c r="BK13" s="2">
         <v>2225</v>
       </c>
+      <c r="BL13" s="2">
+        <v>2285</v>
+      </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -3968,8 +4007,11 @@
       <c r="BK14" s="2">
         <v>73</v>
       </c>
+      <c r="BL14" s="2">
+        <v>73</v>
+      </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4159,8 +4201,11 @@
       <c r="BK15" s="2">
         <v>1144</v>
       </c>
+      <c r="BL15" s="2">
+        <v>1734</v>
+      </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -4350,8 +4395,11 @@
       <c r="BK16" s="2">
         <v>22219</v>
       </c>
+      <c r="BL16" s="2">
+        <v>22592</v>
+      </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -4541,8 +4589,11 @@
       <c r="BK17" s="2">
         <v>62316</v>
       </c>
+      <c r="BL17" s="2">
+        <v>63752</v>
+      </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -4732,8 +4783,11 @@
       <c r="BK18" s="2">
         <v>2006</v>
       </c>
+      <c r="BL18" s="2">
+        <v>2044</v>
+      </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -4923,8 +4977,11 @@
       <c r="BK19" s="2">
         <v>2</v>
       </c>
+      <c r="BL19" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -5114,8 +5171,11 @@
       <c r="BK20" s="2">
         <v>992</v>
       </c>
+      <c r="BL20" s="2">
+        <v>998</v>
+      </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -5305,8 +5365,11 @@
       <c r="BK21" s="2">
         <v>4568</v>
       </c>
+      <c r="BL21" s="2">
+        <v>6910</v>
+      </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -5496,8 +5559,11 @@
       <c r="BK22" s="2">
         <v>13889</v>
       </c>
+      <c r="BL22" s="2">
+        <v>14138</v>
+      </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -5687,8 +5753,11 @@
       <c r="BK23" s="2">
         <v>12096</v>
       </c>
+      <c r="BL23" s="2">
+        <v>12295</v>
+      </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -5878,8 +5947,11 @@
       <c r="BK24" s="2">
         <v>658</v>
       </c>
+      <c r="BL24" s="2">
+        <v>943</v>
+      </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -6069,8 +6141,11 @@
       <c r="BK25" s="2">
         <v>53</v>
       </c>
+      <c r="BL25" s="2">
+        <v>56</v>
+      </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -6260,8 +6335,11 @@
       <c r="BK26" s="2">
         <v>98</v>
       </c>
+      <c r="BL26" s="2">
+        <v>111</v>
+      </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -6451,8 +6529,11 @@
       <c r="BK27" s="2">
         <v>1029</v>
       </c>
+      <c r="BL27" s="2">
+        <v>1061</v>
+      </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -6642,8 +6723,11 @@
       <c r="BK28" s="2">
         <v>689</v>
       </c>
+      <c r="BL28" s="2">
+        <v>703</v>
+      </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -6833,8 +6917,11 @@
       <c r="BK29" s="2">
         <v>1734</v>
       </c>
+      <c r="BL29" s="2">
+        <v>1752</v>
+      </c>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -7024,8 +7111,11 @@
       <c r="BK30" s="2">
         <v>1097</v>
       </c>
+      <c r="BL30" s="2">
+        <v>1145</v>
+      </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -7215,8 +7305,11 @@
       <c r="BK31" s="2">
         <v>1013</v>
       </c>
+      <c r="BL31" s="2">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -7406,8 +7499,11 @@
       <c r="BK32" s="2">
         <v>305</v>
       </c>
+      <c r="BL32" s="2">
+        <v>315</v>
+      </c>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -7597,8 +7693,11 @@
       <c r="BK33" s="2">
         <v>13358</v>
       </c>
+      <c r="BL33" s="2">
+        <v>13833</v>
+      </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -7788,8 +7887,11 @@
       <c r="BK34" s="2">
         <v>351</v>
       </c>
+      <c r="BL34" s="2">
+        <v>356</v>
+      </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -7979,8 +8081,11 @@
       <c r="BK35" s="2">
         <v>149</v>
       </c>
+      <c r="BL35" s="2">
+        <v>152</v>
+      </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -8170,8 +8275,11 @@
       <c r="BK36" s="2">
         <v>750</v>
       </c>
+      <c r="BL36" s="2">
+        <v>778</v>
+      </c>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -8361,8 +8469,11 @@
       <c r="BK37" s="2">
         <v>317</v>
       </c>
+      <c r="BL37" s="2">
+        <v>318</v>
+      </c>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -8552,8 +8663,11 @@
       <c r="BK38" s="2">
         <v>1426</v>
       </c>
+      <c r="BL38" s="2">
+        <v>1441</v>
+      </c>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -8743,8 +8857,11 @@
       <c r="BK39" s="2">
         <v>1319</v>
       </c>
+      <c r="BL39" s="2">
+        <v>1392</v>
+      </c>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -8934,8 +9051,11 @@
       <c r="BK40" s="2">
         <v>281</v>
       </c>
+      <c r="BL40" s="2">
+        <v>289</v>
+      </c>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -9125,8 +9245,11 @@
       <c r="BK41" s="2">
         <v>318</v>
       </c>
+      <c r="BL41" s="2">
+        <v>325</v>
+      </c>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -9316,8 +9439,11 @@
       <c r="BK42" s="2">
         <v>19</v>
       </c>
+      <c r="BL42" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -9507,8 +9633,11 @@
       <c r="BK43" s="2">
         <v>36</v>
       </c>
+      <c r="BL43" s="2">
+        <v>36</v>
+      </c>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -9698,8 +9827,11 @@
       <c r="BK44" s="2">
         <v>188</v>
       </c>
+      <c r="BL44" s="2">
+        <v>190</v>
+      </c>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -9889,8 +10021,11 @@
       <c r="BK45" s="2">
         <v>38626</v>
       </c>
+      <c r="BL45" s="2">
+        <v>39489</v>
+      </c>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -10080,8 +10215,11 @@
       <c r="BK46" s="2">
         <v>157</v>
       </c>
+      <c r="BL46" s="2">
+        <v>159</v>
+      </c>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -10271,8 +10409,11 @@
       <c r="BK47" s="2">
         <v>1134</v>
       </c>
+      <c r="BL47" s="2">
+        <v>1183</v>
+      </c>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
@@ -10462,8 +10603,11 @@
       <c r="BK48" s="2">
         <v>5191</v>
       </c>
+      <c r="BL48" s="2">
+        <v>5302</v>
+      </c>
     </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
@@ -10653,8 +10797,11 @@
       <c r="BK49" s="2">
         <v>673</v>
       </c>
+      <c r="BL49" s="2">
+        <v>681</v>
+      </c>
     </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
@@ -10844,8 +10991,11 @@
       <c r="BK50" s="2">
         <v>92</v>
       </c>
+      <c r="BL50" s="2">
+        <v>93</v>
+      </c>
     </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -11035,8 +11185,11 @@
       <c r="BK51" s="2">
         <v>1598</v>
       </c>
+      <c r="BL51" s="2">
+        <v>1607</v>
+      </c>
     </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -11226,8 +11379,11 @@
       <c r="BK52" s="2">
         <v>5331</v>
       </c>
+      <c r="BL52" s="2">
+        <v>6734</v>
+      </c>
     </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
@@ -11417,8 +11573,11 @@
       <c r="BK53" s="2">
         <v>37</v>
       </c>
+      <c r="BL53" s="2">
+        <v>37</v>
+      </c>
     </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>52</v>
       </c>
@@ -11608,8 +11767,11 @@
       <c r="BK54" s="2">
         <v>156</v>
       </c>
+      <c r="BL54" s="2">
+        <v>157</v>
+      </c>
     </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
@@ -11799,8 +11961,11 @@
       <c r="BK55" s="2">
         <v>108</v>
       </c>
+      <c r="BL55" s="2">
+        <v>109</v>
+      </c>
     </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
@@ -11990,8 +12155,11 @@
       <c r="BK56" s="2">
         <v>159</v>
       </c>
+      <c r="BL56" s="2">
+        <v>159</v>
+      </c>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -12181,8 +12349,11 @@
       <c r="BK57" s="2">
         <v>35</v>
       </c>
+      <c r="BL57" s="2">
+        <v>38</v>
+      </c>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -12372,8 +12543,11 @@
       <c r="BK58" s="2">
         <v>10</v>
       </c>
+      <c r="BL58" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -12563,8 +12737,11 @@
       <c r="BK59" s="2">
         <v>148824</v>
       </c>
+      <c r="BL59" s="2">
+        <v>152018</v>
+      </c>
     </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
@@ -12754,8 +12931,11 @@
       <c r="BK60" s="2">
         <v>404</v>
       </c>
+      <c r="BL60" s="2">
+        <v>444</v>
+      </c>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
@@ -12945,8 +13125,11 @@
       <c r="BK61" s="2">
         <v>419</v>
       </c>
+      <c r="BL61" s="2">
+        <v>424</v>
+      </c>
     </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
@@ -13136,8 +13319,11 @@
       <c r="BK62" s="2">
         <v>99</v>
       </c>
+      <c r="BL62" s="2">
+        <v>101</v>
+      </c>
     </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>61</v>
       </c>
@@ -13327,8 +13513,11 @@
       <c r="BK63" s="2">
         <v>34901</v>
       </c>
+      <c r="BL63" s="2">
+        <v>35563</v>
+      </c>
     </row>
-    <row r="64" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
@@ -13518,8 +13707,11 @@
       <c r="BK64" s="2">
         <v>516</v>
       </c>
+      <c r="BL64" s="2">
+        <v>520</v>
+      </c>
     </row>
-    <row r="65" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
@@ -13709,8 +13901,11 @@
       <c r="BK65" s="2">
         <v>26</v>
       </c>
+      <c r="BL65" s="2">
+        <v>26</v>
+      </c>
     </row>
-    <row r="66" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -13900,8 +14095,11 @@
       <c r="BK66" s="2">
         <v>187</v>
       </c>
+      <c r="BL66" s="2">
+        <v>187</v>
+      </c>
     </row>
-    <row r="67" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
@@ -14091,8 +14289,11 @@
       <c r="BK67" s="2">
         <v>188</v>
       </c>
+      <c r="BL67" s="2">
+        <v>190</v>
+      </c>
     </row>
-    <row r="68" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>66</v>
       </c>
@@ -14282,8 +14483,11 @@
       <c r="BK68" s="2">
         <v>381</v>
       </c>
+      <c r="BL68" s="2">
+        <v>386</v>
+      </c>
     </row>
-    <row r="69" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
@@ -14473,8 +14677,11 @@
       <c r="BK69" s="2">
         <v>406</v>
       </c>
+      <c r="BL69" s="2">
+        <v>419</v>
+      </c>
     </row>
-    <row r="70" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
@@ -14664,8 +14871,11 @@
       <c r="BK70" s="2">
         <v>4696</v>
       </c>
+      <c r="BL70" s="2">
+        <v>4712</v>
+      </c>
     </row>
-    <row r="71" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>69</v>
       </c>
@@ -14855,8 +15065,11 @@
       <c r="BK71" s="2">
         <v>31</v>
       </c>
+      <c r="BL71" s="2">
+        <v>31</v>
+      </c>
     </row>
-    <row r="72" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
@@ -15046,8 +15259,11 @@
       <c r="BK72" s="2">
         <v>8877</v>
       </c>
+      <c r="BL72" s="2">
+        <v>9005</v>
+      </c>
     </row>
-    <row r="73" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>71</v>
       </c>
@@ -15237,8 +15453,11 @@
       <c r="BK73" s="2">
         <v>43758</v>
       </c>
+      <c r="BL73" s="2">
+        <v>44256</v>
+      </c>
     </row>
-    <row r="74" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
@@ -15428,8 +15647,11 @@
       <c r="BK74" s="2">
         <v>1490</v>
       </c>
+      <c r="BL74" s="2">
+        <v>1516</v>
+      </c>
     </row>
-    <row r="75" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>73</v>
       </c>
@@ -15619,8 +15841,11 @@
       <c r="BK75" s="2">
         <v>829</v>
       </c>
+      <c r="BL75" s="2">
+        <v>847</v>
+      </c>
     </row>
-    <row r="76" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>74</v>
       </c>
@@ -15810,8 +16035,11 @@
       <c r="BK76" s="2">
         <v>1406</v>
       </c>
+      <c r="BL76" s="2">
+        <v>1432</v>
+      </c>
     </row>
-    <row r="77" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -16001,8 +16229,11 @@
       <c r="BK77" s="2">
         <v>1373</v>
       </c>
+      <c r="BL77" s="2">
+        <v>1466</v>
+      </c>
     </row>
-    <row r="78" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
@@ -16192,8 +16423,11 @@
       <c r="BK78" s="2">
         <v>32</v>
       </c>
+      <c r="BL78" s="2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="79" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>77</v>
       </c>
@@ -16383,8 +16617,11 @@
       <c r="BK79" s="2">
         <v>278</v>
       </c>
+      <c r="BL79" s="2">
+        <v>279</v>
+      </c>
     </row>
-    <row r="80" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>78</v>
       </c>
@@ -16574,8 +16811,11 @@
       <c r="BK80" s="2">
         <v>96</v>
       </c>
+      <c r="BL80" s="2">
+        <v>96</v>
+      </c>
     </row>
-    <row r="81" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>79</v>
       </c>
@@ -16765,8 +17005,11 @@
       <c r="BK81" s="2">
         <v>87927</v>
       </c>
+      <c r="BL81" s="2">
+        <v>89616</v>
+      </c>
     </row>
-    <row r="82" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>80</v>
       </c>
@@ -16956,8 +17199,11 @@
       <c r="BK82" s="2">
         <v>256</v>
       </c>
+      <c r="BL82" s="2">
+        <v>262</v>
+      </c>
     </row>
-    <row r="83" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>81</v>
       </c>
@@ -17147,8 +17393,11 @@
       <c r="BK83" s="2">
         <v>654</v>
       </c>
+      <c r="BL83" s="2">
+        <v>680</v>
+      </c>
     </row>
-    <row r="84" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>82</v>
       </c>
@@ -17338,8 +17587,11 @@
       <c r="BK84" s="2">
         <v>744</v>
       </c>
+      <c r="BL84" s="2">
+        <v>748</v>
+      </c>
     </row>
-    <row r="85" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>83</v>
       </c>
@@ -17529,8 +17781,11 @@
       <c r="BK85" s="2">
         <v>263</v>
       </c>
+      <c r="BL85" s="2">
+        <v>275</v>
+      </c>
     </row>
-    <row r="86" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>84</v>
       </c>
@@ -17720,8 +17975,11 @@
       <c r="BK86" s="2">
         <v>37765</v>
       </c>
+      <c r="BL86" s="2">
+        <v>38251</v>
+      </c>
     </row>
-    <row r="87" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>85</v>
       </c>
@@ -17911,8 +18169,11 @@
       <c r="BK87" s="2">
         <v>3</v>
       </c>
+      <c r="BL87" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="88" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
@@ -18102,8 +18363,11 @@
       <c r="BK88" s="2">
         <v>1006</v>
       </c>
+      <c r="BL88" s="2">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="89" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>87</v>
       </c>
@@ -18293,8 +18557,11 @@
       <c r="BK89" s="2">
         <v>72</v>
       </c>
+      <c r="BL89" s="2">
+        <v>72</v>
+      </c>
     </row>
-    <row r="90" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>88</v>
       </c>
@@ -18484,8 +18751,11 @@
       <c r="BK90" s="2">
         <v>170</v>
       </c>
+      <c r="BL90" s="2">
+        <v>177</v>
+      </c>
     </row>
-    <row r="91" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>89</v>
       </c>
@@ -18675,8 +18945,11 @@
       <c r="BK91" s="2">
         <v>1082</v>
       </c>
+      <c r="BL91" s="2">
+        <v>1091</v>
+      </c>
     </row>
-    <row r="92" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>90</v>
       </c>
@@ -18866,8 +19139,11 @@
       <c r="BK92" s="2">
         <v>837</v>
       </c>
+      <c r="BL92" s="2">
+        <v>862</v>
+      </c>
     </row>
-    <row r="93" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>91</v>
       </c>
@@ -19057,8 +19333,11 @@
       <c r="BK93" s="2">
         <v>7306</v>
       </c>
+      <c r="BL93" s="2">
+        <v>7378</v>
+      </c>
     </row>
-    <row r="94" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>92</v>
       </c>
@@ -19248,8 +19527,11 @@
       <c r="BK94" s="2">
         <v>3014</v>
       </c>
+      <c r="BL94" s="2">
+        <v>3027</v>
+      </c>
     </row>
-    <row r="95" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -19439,8 +19721,11 @@
       <c r="BK95" s="2">
         <v>1071</v>
       </c>
+      <c r="BL95" s="2">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="96" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>94</v>
       </c>
@@ -19630,8 +19915,11 @@
       <c r="BK96" s="2">
         <v>3605</v>
       </c>
+      <c r="BL96" s="2">
+        <v>3736</v>
+      </c>
     </row>
-    <row r="97" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>95</v>
       </c>
@@ -19821,8 +20109,11 @@
       <c r="BK97" s="2">
         <v>427</v>
       </c>
+      <c r="BL97" s="2">
+        <v>436</v>
+      </c>
     </row>
-    <row r="98" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>96</v>
       </c>
@@ -20012,8 +20303,11 @@
       <c r="BK98" s="2">
         <v>161</v>
       </c>
+      <c r="BL98" s="2">
+        <v>161</v>
+      </c>
     </row>
-    <row r="99" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
@@ -20203,8 +20497,11 @@
       <c r="BK99" s="2">
         <v>776</v>
       </c>
+      <c r="BL99" s="2">
+        <v>784</v>
+      </c>
     </row>
-    <row r="100" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>98</v>
       </c>
@@ -20394,8 +20691,11 @@
       <c r="BK100" s="2">
         <v>54</v>
       </c>
+      <c r="BL100" s="2">
+        <v>55</v>
+      </c>
     </row>
-    <row r="101" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>99</v>
       </c>
@@ -20585,8 +20885,11 @@
       <c r="BK101" s="2">
         <v>59</v>
       </c>
+      <c r="BL101" s="2">
+        <v>60</v>
+      </c>
     </row>
-    <row r="102" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
@@ -20776,8 +21079,11 @@
       <c r="BK102" s="2">
         <v>879</v>
       </c>
+      <c r="BL102" s="2">
+        <v>903</v>
+      </c>
     </row>
-    <row r="103" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>101</v>
       </c>
@@ -20967,8 +21273,11 @@
       <c r="BK103" s="2">
         <v>252994</v>
       </c>
+      <c r="BL103" s="2">
+        <v>257823</v>
+      </c>
     </row>
-    <row r="104" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>102</v>
       </c>
@@ -21158,8 +21467,11 @@
       <c r="BK104" s="2">
         <v>4589</v>
       </c>
+      <c r="BL104" s="2">
+        <v>4654</v>
+      </c>
     </row>
-    <row r="105" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>103</v>
       </c>
@@ -21349,8 +21661,11 @@
       <c r="BK105" s="2">
         <v>87</v>
       </c>
+      <c r="BL105" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="106" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>104</v>
       </c>
@@ -21540,8 +21855,11 @@
       <c r="BK106" s="2">
         <v>284</v>
       </c>
+      <c r="BL106" s="2">
+        <v>286</v>
+      </c>
     </row>
-    <row r="107" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>105</v>
       </c>
@@ -21731,8 +22049,11 @@
       <c r="BK107" s="2">
         <v>10559</v>
       </c>
+      <c r="BL107" s="2">
+        <v>10923</v>
+      </c>
     </row>
-    <row r="108" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>106</v>
       </c>
@@ -21922,8 +22243,11 @@
       <c r="BK108" s="2">
         <v>179</v>
       </c>
+      <c r="BL108" s="2">
+        <v>182</v>
+      </c>
     </row>
-    <row r="109" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>107</v>
       </c>
@@ -22113,8 +22437,11 @@
       <c r="BK109" s="2">
         <v>1903</v>
       </c>
+      <c r="BL109" s="2">
+        <v>1959</v>
+      </c>
     </row>
-    <row r="110" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>108</v>
       </c>
@@ -22304,8 +22631,11 @@
       <c r="BK110" s="2">
         <v>23149</v>
       </c>
+      <c r="BL110" s="2">
+        <v>23699</v>
+      </c>
     </row>
-    <row r="111" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>109</v>
       </c>
@@ -22495,8 +22825,11 @@
       <c r="BK111" s="2">
         <v>1255</v>
       </c>
+      <c r="BL111" s="2">
+        <v>1267</v>
+      </c>
     </row>
-    <row r="112" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>110</v>
       </c>
@@ -22686,8 +23019,11 @@
       <c r="BK112" s="2">
         <v>93</v>
       </c>
+      <c r="BL112" s="2">
+        <v>94</v>
+      </c>
     </row>
-    <row r="113" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>111</v>
       </c>
@@ -22877,8 +23213,11 @@
       <c r="BK113" s="2">
         <v>1209</v>
       </c>
+      <c r="BL113" s="2">
+        <v>1227</v>
+      </c>
     </row>
-    <row r="114" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -23068,8 +23407,11 @@
       <c r="BK114" s="2">
         <v>690</v>
       </c>
+      <c r="BL114" s="2">
+        <v>721</v>
+      </c>
     </row>
-    <row r="115" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>113</v>
       </c>
@@ -23259,8 +23601,11 @@
       <c r="BK115" s="2">
         <v>799</v>
       </c>
+      <c r="BL115" s="2">
+        <v>1588</v>
+      </c>
     </row>
-    <row r="116" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>114</v>
       </c>
@@ -23450,8 +23795,11 @@
       <c r="BK116" s="2">
         <v>382</v>
       </c>
+      <c r="BL116" s="2">
+        <v>399</v>
+      </c>
     </row>
-    <row r="117" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>115</v>
       </c>
@@ -23641,8 +23989,11 @@
       <c r="BK117" s="2">
         <v>57</v>
       </c>
+      <c r="BL117" s="2">
+        <v>58</v>
+      </c>
     </row>
-    <row r="118" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>116</v>
       </c>
@@ -23832,8 +24183,11 @@
       <c r="BK118" s="2">
         <v>3859</v>
       </c>
+      <c r="BL118" s="2">
+        <v>3903</v>
+      </c>
     </row>
-    <row r="119" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>117</v>
       </c>
@@ -24023,8 +24377,11 @@
       <c r="BK119" s="2">
         <v>610</v>
       </c>
+      <c r="BL119" s="2">
+        <v>637</v>
+      </c>
     </row>
-    <row r="120" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>118</v>
       </c>
@@ -24214,8 +24571,11 @@
       <c r="BK120" s="2">
         <v>6</v>
       </c>
+      <c r="BL120" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="121" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>119</v>
       </c>
@@ -24405,8 +24765,11 @@
       <c r="BK121" s="2">
         <v>106</v>
       </c>
+      <c r="BL121" s="2">
+        <v>106</v>
+      </c>
     </row>
-    <row r="122" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>120</v>
       </c>
@@ -24596,8 +24959,11 @@
       <c r="BK122" s="2">
         <v>884</v>
       </c>
+      <c r="BL122" s="2">
+        <v>884</v>
+      </c>
     </row>
-    <row r="123" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>121</v>
       </c>
@@ -24787,8 +25153,11 @@
       <c r="BK123" s="2">
         <v>847</v>
       </c>
+      <c r="BL123" s="2">
+        <v>869</v>
+      </c>
     </row>
-    <row r="124" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>122</v>
       </c>
@@ -24978,8 +25347,11 @@
       <c r="BK124" s="2">
         <v>11</v>
       </c>
+      <c r="BL124" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="125" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>123</v>
       </c>
@@ -25169,8 +25541,11 @@
       <c r="BK125" s="2">
         <v>13662</v>
       </c>
+      <c r="BL125" s="2">
+        <v>15052</v>
+      </c>
     </row>
-    <row r="126" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>124</v>
       </c>
@@ -25360,8 +25735,11 @@
       <c r="BK126" s="2">
         <v>131</v>
       </c>
+      <c r="BL126" s="2">
+        <v>132</v>
+      </c>
     </row>
-    <row r="127" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>125</v>
       </c>
@@ -25551,8 +25929,11 @@
       <c r="BK127" s="2">
         <v>2142</v>
       </c>
+      <c r="BL127" s="2">
+        <v>2211</v>
+      </c>
     </row>
-    <row r="128" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>126</v>
       </c>
@@ -25742,8 +26123,11 @@
       <c r="BK128" s="2">
         <v>7874</v>
       </c>
+      <c r="BL128" s="2">
+        <v>8010</v>
+      </c>
     </row>
-    <row r="129" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>127</v>
       </c>
@@ -25933,8 +26317,11 @@
       <c r="BK129" s="2">
         <v>577</v>
       </c>
+      <c r="BL129" s="2">
+        <v>605</v>
+      </c>
     </row>
-    <row r="130" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>128</v>
       </c>
@@ -26124,8 +26511,11 @@
       <c r="BK130" s="2">
         <v>301</v>
       </c>
+      <c r="BL130" s="2">
+        <v>322</v>
+      </c>
     </row>
-    <row r="131" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>129</v>
       </c>
@@ -26315,8 +26705,11 @@
       <c r="BK131" s="2">
         <v>4544</v>
       </c>
+      <c r="BL131" s="2">
+        <v>4649</v>
+      </c>
     </row>
-    <row r="132" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>130</v>
       </c>
@@ -26506,8 +26899,11 @@
       <c r="BK132" s="2">
         <v>1275</v>
       </c>
+      <c r="BL132" s="2">
+        <v>1296</v>
+      </c>
     </row>
-    <row r="133" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>131</v>
       </c>
@@ -26697,8 +27093,11 @@
       <c r="BK133" s="2">
         <v>3</v>
       </c>
+      <c r="BL133" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="134" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>132</v>
       </c>
@@ -26888,8 +27287,11 @@
       <c r="BK134" s="2">
         <v>3</v>
       </c>
+      <c r="BL134" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="135" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>133</v>
       </c>
@@ -27079,8 +27481,11 @@
       <c r="BK135" s="2">
         <v>2290</v>
       </c>
+      <c r="BL135" s="2">
+        <v>2293</v>
+      </c>
     </row>
-    <row r="136" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>134</v>
       </c>
@@ -27270,8 +27675,11 @@
       <c r="BK136" s="2">
         <v>125</v>
       </c>
+      <c r="BL136" s="2">
+        <v>130</v>
+      </c>
     </row>
-    <row r="137" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>135</v>
       </c>
@@ -27461,8 +27869,11 @@
       <c r="BK137" s="2">
         <v>4</v>
       </c>
+      <c r="BL137" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="138" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>136</v>
       </c>
@@ -27652,8 +28063,11 @@
       <c r="BK138" s="2">
         <v>23</v>
       </c>
+      <c r="BL138" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="139" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>137</v>
       </c>
@@ -27843,8 +28257,11 @@
       <c r="BK139" s="2">
         <v>2276</v>
       </c>
+      <c r="BL139" s="2">
+        <v>2343</v>
+      </c>
     </row>
-    <row r="140" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>138</v>
       </c>
@@ -28034,8 +28451,11 @@
       <c r="BK140" s="2">
         <v>209</v>
       </c>
+      <c r="BL140" s="2">
+        <v>210</v>
+      </c>
     </row>
-    <row r="141" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>139</v>
       </c>
@@ -28225,8 +28645,11 @@
       <c r="BK141" s="2">
         <v>1348</v>
       </c>
+      <c r="BL141" s="2">
+        <v>1361</v>
+      </c>
     </row>
-    <row r="142" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>140</v>
       </c>
@@ -28416,8 +28839,11 @@
       <c r="BK142" s="2">
         <v>215</v>
       </c>
+      <c r="BL142" s="2">
+        <v>216</v>
+      </c>
     </row>
-    <row r="143" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
@@ -28607,8 +29033,11 @@
       <c r="BK143" s="2">
         <v>1506</v>
       </c>
+      <c r="BL143" s="2">
+        <v>1536</v>
+      </c>
     </row>
-    <row r="144" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>142</v>
       </c>
@@ -28798,8 +29227,11 @@
       <c r="BK144" s="2">
         <v>525</v>
       </c>
+      <c r="BL144" s="2">
+        <v>529</v>
+      </c>
     </row>
-    <row r="145" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>143</v>
       </c>
@@ -28989,8 +29421,11 @@
       <c r="BK145" s="2">
         <v>664</v>
       </c>
+      <c r="BL145" s="2">
+        <v>677</v>
+      </c>
     </row>
-    <row r="146" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>144</v>
       </c>
@@ -29180,8 +29615,11 @@
       <c r="BK146" s="2">
         <v>365</v>
       </c>
+      <c r="BL146" s="2">
+        <v>369</v>
+      </c>
     </row>
-    <row r="147" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>145</v>
       </c>
@@ -29371,8 +29809,11 @@
       <c r="BK147" s="2">
         <v>544</v>
       </c>
+      <c r="BL147" s="2">
+        <v>569</v>
+      </c>
     </row>
-    <row r="148" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>146</v>
       </c>
@@ -29562,8 +30003,11 @@
       <c r="BK148" s="2">
         <v>3374</v>
       </c>
+      <c r="BL148" s="2">
+        <v>3438</v>
+      </c>
     </row>
-    <row r="149" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>147</v>
       </c>
@@ -29753,8 +30197,11 @@
       <c r="BK149" s="2">
         <v>904</v>
       </c>
+      <c r="BL149" s="2">
+        <v>923</v>
+      </c>
     </row>
-    <row r="150" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>148</v>
       </c>
@@ -29944,8 +30391,11 @@
       <c r="BK150" s="2">
         <v>120</v>
       </c>
+      <c r="BL150" s="2">
+        <v>120</v>
+      </c>
     </row>
-    <row r="151" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>149</v>
       </c>
@@ -30135,8 +30585,11 @@
       <c r="BK151" s="2">
         <v>390</v>
       </c>
+      <c r="BL151" s="2">
+        <v>391</v>
+      </c>
     </row>
-    <row r="152" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>150</v>
       </c>
@@ -30326,8 +30779,11 @@
       <c r="BK152" s="2">
         <v>1137</v>
       </c>
+      <c r="BL152" s="2">
+        <v>1149</v>
+      </c>
     </row>
-    <row r="153" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>151</v>
       </c>
@@ -30517,8 +30973,11 @@
       <c r="BK153" s="2">
         <v>1</v>
       </c>
+      <c r="BL153" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="154" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>152</v>
       </c>
@@ -30708,8 +31167,11 @@
       <c r="BK154" s="2">
         <v>12984</v>
       </c>
+      <c r="BL154" s="2">
+        <v>13101</v>
+      </c>
     </row>
-    <row r="155" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>153</v>
       </c>
@@ -30899,8 +31361,11 @@
       <c r="BK155" s="2">
         <v>463</v>
       </c>
+      <c r="BL155" s="2">
+        <v>475</v>
+      </c>
     </row>
-    <row r="156" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>154</v>
       </c>
@@ -31090,8 +31555,11 @@
       <c r="BK156" s="2">
         <v>94</v>
       </c>
+      <c r="BL156" s="2">
+        <v>92</v>
+      </c>
     </row>
-    <row r="157" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>155</v>
       </c>
@@ -31281,8 +31749,11 @@
       <c r="BK157" s="2">
         <v>13300</v>
       </c>
+      <c r="BL157" s="2">
+        <v>13407</v>
+      </c>
     </row>
-    <row r="158" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>156</v>
       </c>
@@ -31472,8 +31943,11 @@
       <c r="BK158" s="2">
         <v>11</v>
       </c>
+      <c r="BL158" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="159" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>157</v>
       </c>
@@ -31663,8 +32137,11 @@
       <c r="BK159" s="2">
         <v>538</v>
       </c>
+      <c r="BL159" s="2">
+        <v>582</v>
+      </c>
     </row>
-    <row r="160" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>158</v>
       </c>
@@ -31854,8 +32331,11 @@
       <c r="BK160" s="2">
         <v>103</v>
       </c>
+      <c r="BL160" s="2">
+        <v>105</v>
+      </c>
     </row>
-    <row r="161" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>159</v>
       </c>
@@ -32045,8 +32525,11 @@
       <c r="BK161" s="2">
         <v>109</v>
       </c>
+      <c r="BL161" s="2">
+        <v>110</v>
+      </c>
     </row>
-    <row r="162" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>160</v>
       </c>
@@ -32236,8 +32719,11 @@
       <c r="BK162" s="2">
         <v>354</v>
       </c>
+      <c r="BL162" s="2">
+        <v>353</v>
+      </c>
     </row>
-    <row r="163" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>161</v>
       </c>
@@ -32427,8 +32913,11 @@
       <c r="BK163" s="2">
         <v>1656</v>
       </c>
+      <c r="BL163" s="2">
+        <v>1667</v>
+      </c>
     </row>
-    <row r="164" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>162</v>
       </c>
@@ -32618,8 +33107,11 @@
       <c r="BK164" s="2">
         <v>3367</v>
       </c>
+      <c r="BL164" s="2">
+        <v>3408</v>
+      </c>
     </row>
-    <row r="165" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>163</v>
       </c>
@@ -32809,8 +33301,11 @@
       <c r="BK165" s="2">
         <v>1084</v>
       </c>
+      <c r="BL165" s="2">
+        <v>1135</v>
+      </c>
     </row>
-    <row r="166" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>164</v>
       </c>
@@ -33000,8 +33495,11 @@
       <c r="BK166" s="2">
         <v>31</v>
       </c>
+      <c r="BL166" s="2">
+        <v>31</v>
+      </c>
     </row>
-    <row r="167" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>165</v>
       </c>
@@ -33191,8 +33689,11 @@
       <c r="BK167" s="2">
         <v>5195</v>
       </c>
+      <c r="BL167" s="2">
+        <v>5273</v>
+      </c>
     </row>
-    <row r="168" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>166</v>
       </c>
@@ -33382,8 +33883,11 @@
       <c r="BK168" s="2">
         <v>1618</v>
       </c>
+      <c r="BL168" s="2">
+        <v>1630</v>
+      </c>
     </row>
-    <row r="169" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>167</v>
       </c>
@@ -33573,8 +34077,11 @@
       <c r="BK169" s="2">
         <v>108</v>
       </c>
+      <c r="BL169" s="2">
+        <v>108</v>
+      </c>
     </row>
-    <row r="170" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>168</v>
       </c>
@@ -33764,8 +34271,11 @@
       <c r="BK170" s="2">
         <v>214</v>
       </c>
+      <c r="BL170" s="2">
+        <v>226</v>
+      </c>
     </row>
-    <row r="171" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>169</v>
       </c>
@@ -33955,8 +34465,11 @@
       <c r="BK171" s="2">
         <v>323</v>
       </c>
+      <c r="BL171" s="2">
+        <v>326</v>
+      </c>
     </row>
-    <row r="172" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>170</v>
       </c>
@@ -34146,8 +34659,11 @@
       <c r="BK172" s="2">
         <v>25762</v>
       </c>
+      <c r="BL172" s="2">
+        <v>26283</v>
+      </c>
     </row>
-    <row r="173" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>171</v>
       </c>
@@ -34337,8 +34853,11 @@
       <c r="BK173" s="2">
         <v>2900</v>
       </c>
+      <c r="BL173" s="2">
+        <v>2904</v>
+      </c>
     </row>
-    <row r="174" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>172</v>
       </c>
@@ -34528,8 +35047,11 @@
       <c r="BK174" s="2">
         <v>226</v>
       </c>
+      <c r="BL174" s="2">
+        <v>238</v>
+      </c>
     </row>
-    <row r="175" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>173</v>
       </c>
@@ -34719,8 +35241,11 @@
       <c r="BK175" s="2">
         <v>27</v>
       </c>
+      <c r="BL175" s="2">
+        <v>27</v>
+      </c>
     </row>
-    <row r="176" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>174</v>
       </c>
@@ -34910,8 +35435,11 @@
       <c r="BK176" s="2">
         <v>2941</v>
       </c>
+      <c r="BL176" s="2">
+        <v>2954</v>
+      </c>
     </row>
-    <row r="177" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>175</v>
       </c>
@@ -35101,8 +35629,11 @@
       <c r="BK177" s="2">
         <v>1663</v>
       </c>
+      <c r="BL177" s="2">
+        <v>1684</v>
+      </c>
     </row>
-    <row r="178" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
@@ -35292,8 +35823,11 @@
       <c r="BK178" s="2">
         <v>307</v>
       </c>
+      <c r="BL178" s="2">
+        <v>315</v>
+      </c>
     </row>
-    <row r="179" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>177</v>
       </c>
@@ -35483,8 +36017,11 @@
       <c r="BK179" s="2">
         <v>155</v>
       </c>
+      <c r="BL179" s="2">
+        <v>161</v>
+      </c>
     </row>
-    <row r="180" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>178</v>
       </c>
@@ -35674,8 +36211,11 @@
       <c r="BK180" s="2">
         <v>6255</v>
       </c>
+      <c r="BL180" s="2">
+        <v>6378</v>
+      </c>
     </row>
-    <row r="181" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>179</v>
       </c>
@@ -35865,8 +36405,11 @@
       <c r="BK181" s="2">
         <v>145</v>
       </c>
+      <c r="BL181" s="2">
+        <v>145</v>
+      </c>
     </row>
-    <row r="182" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>180</v>
       </c>
@@ -36056,8 +36599,11 @@
       <c r="BK182" s="2">
         <v>113</v>
       </c>
+      <c r="BL182" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="183" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>181</v>
       </c>
@@ -36247,8 +36793,11 @@
       <c r="BK183" s="2">
         <v>1492</v>
       </c>
+      <c r="BL183" s="2">
+        <v>1545</v>
+      </c>
     </row>
-    <row r="184" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>182</v>
       </c>
@@ -36438,8 +36987,11 @@
       <c r="BK184" s="2">
         <v>664</v>
       </c>
+      <c r="BL184" s="2">
+        <v>674</v>
+      </c>
     </row>
-    <row r="185" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>183</v>
       </c>
@@ -36629,8 +37181,11 @@
       <c r="BK185" s="2">
         <v>639</v>
       </c>
+      <c r="BL185" s="2">
+        <v>643</v>
+      </c>
     </row>
-    <row r="186" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>184</v>
       </c>
@@ -36820,8 +37375,11 @@
       <c r="BK186" s="2">
         <v>5303</v>
       </c>
+      <c r="BL186" s="2">
+        <v>5367</v>
+      </c>
     </row>
-    <row r="187" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>185</v>
       </c>
@@ -37011,8 +37569,11 @@
       <c r="BK187" s="2">
         <v>324</v>
       </c>
+      <c r="BL187" s="2">
+        <v>326</v>
+      </c>
     </row>
-    <row r="188" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>186</v>
       </c>
@@ -37202,8 +37763,11 @@
       <c r="BK188" s="2">
         <v>804</v>
       </c>
+      <c r="BL188" s="2">
+        <v>1136</v>
+      </c>
     </row>
-    <row r="189" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>187</v>
       </c>
@@ -37393,8 +37957,11 @@
       <c r="BK189" s="2">
         <v>1838</v>
       </c>
+      <c r="BL189" s="2">
+        <v>1915</v>
+      </c>
     </row>
-    <row r="190" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>188</v>
       </c>
@@ -37584,8 +38151,11 @@
       <c r="BK190" s="2">
         <v>12930</v>
       </c>
+      <c r="BL190" s="2">
+        <v>14204</v>
+      </c>
     </row>
-    <row r="191" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>189</v>
       </c>
@@ -37775,8 +38345,11 @@
       <c r="BK191" s="2">
         <v>132</v>
       </c>
+      <c r="BL191" s="2">
+        <v>133</v>
+      </c>
     </row>
-    <row r="192" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>190</v>
       </c>
@@ -37966,8 +38539,11 @@
       <c r="BK192" s="2">
         <v>112</v>
       </c>
+      <c r="BL192" s="2">
+        <v>116</v>
+      </c>
     </row>
-    <row r="193" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>191</v>
       </c>
@@ -38157,8 +38733,11 @@
       <c r="BK193" s="2">
         <v>4862</v>
       </c>
+      <c r="BL193" s="2">
+        <v>5019</v>
+      </c>
     </row>
-    <row r="194" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>192</v>
       </c>
@@ -38348,8 +38927,11 @@
       <c r="BK194" s="2">
         <v>115</v>
       </c>
+      <c r="BL194" s="2">
+        <v>115</v>
+      </c>
     </row>
-    <row r="195" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>193</v>
       </c>
@@ -38539,8 +39121,11 @@
       <c r="BK195" s="2">
         <v>139</v>
       </c>
+      <c r="BL195" s="2">
+        <v>139</v>
+      </c>
     </row>
-    <row r="196" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>194</v>
       </c>
@@ -38730,8 +39315,11 @@
       <c r="BK196" s="2">
         <v>403</v>
       </c>
+      <c r="BL196" s="2">
+        <v>418</v>
+      </c>
     </row>
-    <row r="197" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>195</v>
       </c>
@@ -38921,8 +39509,11 @@
       <c r="BK197" s="2">
         <v>235</v>
       </c>
+      <c r="BL197" s="2">
+        <v>235</v>
+      </c>
     </row>
-    <row r="198" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>196</v>
       </c>
@@ -39112,8 +39703,11 @@
       <c r="BK198" s="2">
         <v>208</v>
       </c>
+      <c r="BL198" s="2">
+        <v>213</v>
+      </c>
     </row>
-    <row r="199" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>197</v>
       </c>
@@ -39303,8 +39897,11 @@
       <c r="BK199" s="2">
         <v>7</v>
       </c>
+      <c r="BL199" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="200" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>198</v>
       </c>
@@ -39494,8 +40091,11 @@
       <c r="BK200" s="2">
         <v>692</v>
       </c>
+      <c r="BL200" s="2">
+        <v>701</v>
+      </c>
     </row>
-    <row r="201" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>199</v>
       </c>
@@ -39685,8 +40285,11 @@
       <c r="BK201" s="2">
         <v>4813</v>
       </c>
+      <c r="BL201" s="2">
+        <v>4882</v>
+      </c>
     </row>
-    <row r="202" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>200</v>
       </c>
@@ -39876,8 +40479,11 @@
       <c r="BK202" s="2">
         <v>331</v>
       </c>
+      <c r="BL202" s="2">
+        <v>335</v>
+      </c>
     </row>
-    <row r="203" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>201</v>
       </c>
@@ -40067,8 +40673,11 @@
       <c r="BK203" s="2">
         <v>1280</v>
       </c>
+      <c r="BL203" s="2">
+        <v>1291</v>
+      </c>
     </row>
-    <row r="204" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>202</v>
       </c>
@@ -40258,8 +40867,11 @@
       <c r="BK204" s="2">
         <v>514</v>
       </c>
+      <c r="BL204" s="2">
+        <v>517</v>
+      </c>
     </row>
-    <row r="205" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>203</v>
       </c>
@@ -40449,8 +41061,11 @@
       <c r="BK205" s="2">
         <v>296</v>
       </c>
+      <c r="BL205" s="2">
+        <v>298</v>
+      </c>
     </row>
-    <row r="206" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>204</v>
       </c>
@@ -40640,8 +41255,11 @@
       <c r="BK206" s="2">
         <v>646</v>
       </c>
+      <c r="BL206" s="2">
+        <v>691</v>
+      </c>
     </row>
-    <row r="207" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>205</v>
       </c>
@@ -40831,8 +41449,11 @@
       <c r="BK207" s="2">
         <v>1180</v>
       </c>
+      <c r="BL207" s="2">
+        <v>1210</v>
+      </c>
     </row>
-    <row r="208" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>206</v>
       </c>
@@ -41022,8 +41643,11 @@
       <c r="BK208" s="2">
         <v>197</v>
       </c>
+      <c r="BL208" s="2">
+        <v>197</v>
+      </c>
     </row>
-    <row r="209" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>207</v>
       </c>
@@ -41213,8 +41837,11 @@
       <c r="BK209" s="2">
         <v>102</v>
       </c>
+      <c r="BL209" s="2">
+        <v>106</v>
+      </c>
     </row>
-    <row r="210" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>208</v>
       </c>
@@ -41404,8 +42031,11 @@
       <c r="BK210" s="2">
         <v>99</v>
       </c>
+      <c r="BL210" s="2">
+        <v>103</v>
+      </c>
     </row>
-    <row r="211" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>209</v>
       </c>
@@ -41595,8 +42225,11 @@
       <c r="BK211" s="2">
         <v>41</v>
       </c>
+      <c r="BL211" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="212" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>210</v>
       </c>
@@ -41786,8 +42419,11 @@
       <c r="BK212" s="2">
         <v>1474</v>
       </c>
+      <c r="BL212" s="2">
+        <v>1477</v>
+      </c>
     </row>
-    <row r="213" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>211</v>
       </c>
@@ -41977,8 +42613,11 @@
       <c r="BK213" s="2">
         <v>35</v>
       </c>
+      <c r="BL213" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="214" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>212</v>
       </c>
@@ -42168,8 +42807,11 @@
       <c r="BK214" s="2">
         <v>7050</v>
       </c>
+      <c r="BL214" s="2">
+        <v>7212</v>
+      </c>
     </row>
-    <row r="215" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>213</v>
       </c>
@@ -42359,8 +43001,11 @@
       <c r="BK215" s="2">
         <v>290</v>
       </c>
+      <c r="BL215" s="2">
+        <v>290</v>
+      </c>
     </row>
-    <row r="216" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>214</v>
       </c>
@@ -42550,8 +43195,11 @@
       <c r="BK216" s="2">
         <v>2124</v>
       </c>
+      <c r="BL216" s="2">
+        <v>2639</v>
+      </c>
     </row>
-    <row r="217" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>215</v>
       </c>
@@ -42741,8 +43389,11 @@
       <c r="BK217" s="2">
         <v>103</v>
       </c>
+      <c r="BL217" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="218" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>216</v>
       </c>
@@ -42932,8 +43583,11 @@
       <c r="BK218" s="2">
         <v>26</v>
       </c>
+      <c r="BL218" s="2">
+        <v>27</v>
+      </c>
     </row>
-    <row r="219" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>217</v>
       </c>
@@ -43123,8 +43777,11 @@
       <c r="BK219" s="2">
         <v>9</v>
       </c>
+      <c r="BL219" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="220" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>218</v>
       </c>
@@ -43314,8 +43971,11 @@
       <c r="BK220" s="2">
         <v>60</v>
       </c>
+      <c r="BL220" s="2">
+        <v>64</v>
+      </c>
     </row>
-    <row r="221" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>219</v>
       </c>
@@ -43505,8 +44165,11 @@
       <c r="BK221" s="2">
         <v>236</v>
       </c>
+      <c r="BL221" s="2">
+        <v>254</v>
+      </c>
     </row>
-    <row r="222" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>220</v>
       </c>
@@ -43696,8 +44359,11 @@
       <c r="BK222" s="2">
         <v>87374</v>
       </c>
+      <c r="BL222" s="2">
+        <v>89133</v>
+      </c>
     </row>
-    <row r="223" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>221</v>
       </c>
@@ -43887,8 +44553,11 @@
       <c r="BK223" s="2">
         <v>6740</v>
       </c>
+      <c r="BL223" s="2">
+        <v>8087</v>
+      </c>
     </row>
-    <row r="224" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>222</v>
       </c>
@@ -44078,8 +44747,11 @@
       <c r="BK224" s="2">
         <v>6</v>
       </c>
+      <c r="BL224" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="225" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>223</v>
       </c>
@@ -44269,8 +44941,11 @@
       <c r="BK225" s="2">
         <v>262</v>
       </c>
+      <c r="BL225" s="2">
+        <v>271</v>
+      </c>
     </row>
-    <row r="226" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>224</v>
       </c>
@@ -44460,8 +45135,11 @@
       <c r="BK226" s="2">
         <v>43</v>
       </c>
+      <c r="BL226" s="2">
+        <v>43</v>
+      </c>
     </row>
-    <row r="227" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>225</v>
       </c>
@@ -44651,8 +45329,11 @@
       <c r="BK227" s="2">
         <v>2830</v>
       </c>
+      <c r="BL227" s="2">
+        <v>2850</v>
+      </c>
     </row>
-    <row r="228" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>226</v>
       </c>
@@ -44842,8 +45523,11 @@
       <c r="BK228" s="2">
         <v>2667</v>
       </c>
+      <c r="BL228" s="2">
+        <v>2731</v>
+      </c>
     </row>
-    <row r="229" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>227</v>
       </c>
@@ -45033,8 +45717,11 @@
       <c r="BK229" s="2">
         <v>54765</v>
       </c>
+      <c r="BL229" s="2">
+        <v>56384</v>
+      </c>
     </row>
-    <row r="230" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>228</v>
       </c>
@@ -45224,8 +45911,11 @@
       <c r="BK230" s="2">
         <v>623</v>
       </c>
+      <c r="BL230" s="2">
+        <v>692</v>
+      </c>
     </row>
-    <row r="231" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>229</v>
       </c>
@@ -45415,8 +46105,11 @@
       <c r="BK231" s="2">
         <v>624</v>
       </c>
+      <c r="BL231" s="2">
+        <v>662</v>
+      </c>
     </row>
-    <row r="232" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>230</v>
       </c>
@@ -45606,8 +46299,11 @@
       <c r="BK232" s="2">
         <v>442</v>
       </c>
+      <c r="BL232" s="2">
+        <v>447</v>
+      </c>
     </row>
-    <row r="233" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>231</v>
       </c>
@@ -45797,8 +46493,11 @@
       <c r="BK233" s="2">
         <v>153</v>
       </c>
+      <c r="BL233" s="2">
+        <v>154</v>
+      </c>
     </row>
-    <row r="234" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>232</v>
       </c>
@@ -45988,8 +46687,11 @@
       <c r="BK234" s="2">
         <v>884</v>
       </c>
+      <c r="BL234" s="2">
+        <v>895</v>
+      </c>
     </row>
-    <row r="235" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>233</v>
       </c>
@@ -46179,8 +46881,11 @@
       <c r="BK235" s="2">
         <v>1413</v>
       </c>
+      <c r="BL235" s="2">
+        <v>1420</v>
+      </c>
     </row>
-    <row r="236" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>234</v>
       </c>
@@ -46370,8 +47075,11 @@
       <c r="BK236" s="2">
         <v>1467</v>
       </c>
+      <c r="BL236" s="2">
+        <v>1484</v>
+      </c>
     </row>
-    <row r="237" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>235</v>
       </c>
@@ -46561,8 +47269,11 @@
       <c r="BK237" s="2">
         <v>3648</v>
       </c>
+      <c r="BL237" s="2">
+        <v>3657</v>
+      </c>
     </row>
-    <row r="238" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>236</v>
       </c>
@@ -46752,8 +47463,11 @@
       <c r="BK238" s="2">
         <v>8698</v>
       </c>
+      <c r="BL238" s="2">
+        <v>9659</v>
+      </c>
     </row>
-    <row r="239" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>237</v>
       </c>
@@ -46943,8 +47657,11 @@
       <c r="BK239" s="2">
         <v>1751</v>
       </c>
+      <c r="BL239" s="2">
+        <v>1769</v>
+      </c>
     </row>
-    <row r="240" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>238</v>
       </c>
@@ -47134,8 +47851,11 @@
       <c r="BK240" s="2">
         <v>245</v>
       </c>
+      <c r="BL240" s="2">
+        <v>249</v>
+      </c>
     </row>
-    <row r="241" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>239</v>
       </c>
@@ -47325,8 +48045,11 @@
       <c r="BK241" s="2">
         <v>2445</v>
       </c>
+      <c r="BL241" s="2">
+        <v>2484</v>
+      </c>
     </row>
-    <row r="242" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>240</v>
       </c>
@@ -47516,8 +48239,11 @@
       <c r="BK242" s="2">
         <v>8181</v>
       </c>
+      <c r="BL242" s="2">
+        <v>8348</v>
+      </c>
     </row>
-    <row r="243" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>241</v>
       </c>
@@ -47707,8 +48433,11 @@
       <c r="BK243" s="2">
         <v>2141</v>
       </c>
+      <c r="BL243" s="2">
+        <v>2187</v>
+      </c>
     </row>
-    <row r="244" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>242</v>
       </c>
@@ -47898,8 +48627,11 @@
       <c r="BK244" s="2">
         <v>133</v>
       </c>
+      <c r="BL244" s="2">
+        <v>137</v>
+      </c>
     </row>
-    <row r="245" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>243</v>
       </c>
@@ -48089,8 +48821,11 @@
       <c r="BK245" s="2">
         <v>6770</v>
       </c>
+      <c r="BL245" s="2">
+        <v>6876</v>
+      </c>
     </row>
-    <row r="246" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>244</v>
       </c>
@@ -48280,8 +49015,11 @@
       <c r="BK246" s="2">
         <v>293</v>
       </c>
+      <c r="BL246" s="2">
+        <v>292</v>
+      </c>
     </row>
-    <row r="247" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>245</v>
       </c>
@@ -48471,8 +49209,11 @@
       <c r="BK247" s="2">
         <v>1611</v>
       </c>
+      <c r="BL247" s="2">
+        <v>1635</v>
+      </c>
     </row>
-    <row r="248" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>246</v>
       </c>
@@ -48662,8 +49403,11 @@
       <c r="BK248" s="2">
         <v>18762</v>
       </c>
+      <c r="BL248" s="2">
+        <v>19026</v>
+      </c>
     </row>
-    <row r="249" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>247</v>
       </c>
@@ -48853,8 +49597,11 @@
       <c r="BK249" s="2">
         <v>1192</v>
       </c>
+      <c r="BL249" s="2">
+        <v>1213</v>
+      </c>
     </row>
-    <row r="250" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>248</v>
       </c>
@@ -49044,8 +49791,11 @@
       <c r="BK250" s="2">
         <v>35</v>
       </c>
+      <c r="BL250" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="251" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>249</v>
       </c>
@@ -49235,8 +49985,11 @@
       <c r="BK251" s="2">
         <v>1501</v>
       </c>
+      <c r="BL251" s="2">
+        <v>1516</v>
+      </c>
     </row>
-    <row r="252" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>250</v>
       </c>
@@ -49426,8 +50179,11 @@
       <c r="BK252" s="2">
         <v>823</v>
       </c>
+      <c r="BL252" s="2">
+        <v>843</v>
+      </c>
     </row>
-    <row r="253" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>251</v>
       </c>
@@ -49617,8 +50373,11 @@
       <c r="BK253" s="2">
         <v>220</v>
       </c>
+      <c r="BL253" s="2">
+        <v>221</v>
+      </c>
     </row>
-    <row r="254" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>252</v>
       </c>
@@ -49808,8 +50567,11 @@
       <c r="BK254" s="2">
         <v>718</v>
       </c>
+      <c r="BL254" s="2">
+        <v>721</v>
+      </c>
     </row>
-    <row r="255" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>253</v>
       </c>
@@ -49999,8 +50761,11 @@
       <c r="BK255" s="2">
         <v>440</v>
       </c>
+      <c r="BL255" s="2">
+        <v>523</v>
+      </c>
     </row>
-    <row r="256" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>254</v>
       </c>
@@ -50190,8 +50955,11 @@
       <c r="BK256" s="2">
         <v>125</v>
       </c>
+      <c r="BL256" s="2">
+        <v>126</v>
+      </c>
     </row>
-    <row r="257" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>255</v>
       </c>
@@ -50381,8 +51149,11 @@
       <c r="BK257" s="2">
         <v>4546</v>
       </c>
+      <c r="BL257" s="2">
+        <v>4580</v>
+      </c>
     </row>
-    <row r="258" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>256</v>
       </c>
@@ -50573,8 +51344,11 @@
       <c r="BK258" s="2">
         <v>397366</v>
       </c>
+      <c r="BL258" s="2">
+        <v>412201</v>
+      </c>
     </row>
-    <row r="259" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>257</v>
       </c>
@@ -50768,8 +51542,11 @@
       <c r="BK259" s="10">
         <v>1715177</v>
       </c>
+      <c r="BL259" s="10">
+        <v>1767701</v>
+      </c>
     </row>
-    <row r="261" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>261</v>
       </c>
@@ -50782,7 +51559,7 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
     </row>
-    <row r="262" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="21" t="s">
         <v>258</v>
       </c>
@@ -50795,7 +51572,7 @@
       <c r="H262" s="22"/>
       <c r="I262" s="22"/>
     </row>
-    <row r="263" spans="1:63" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:64" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="23" t="s">
         <v>259</v>
       </c>
@@ -50808,7 +51585,7 @@
       <c r="H263" s="24"/>
       <c r="I263" s="24"/>
     </row>
-    <row r="264" spans="1:63" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:64" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="23" t="s">
         <v>260</v>
       </c>
@@ -50821,7 +51598,7 @@
       <c r="H264" s="24"/>
       <c r="I264" s="24"/>
     </row>
-    <row r="265" spans="1:63" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:64" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11" t="s">
         <v>288</v>
       </c>
@@ -50884,9 +51661,9 @@
       <c r="BF265" s="13"/>
       <c r="BG265" s="13"/>
     </row>
-    <row r="266" spans="1:63" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B266" s="18"/>
       <c r="C266" s="13"/>
@@ -50897,7 +51674,7 @@
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
     </row>
-    <row r="267" spans="1:63" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:64" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="23" t="s">
         <v>278</v>
       </c>

--- a/raw/TX/TexasCOVID-19CumulativeTestsOverTimebyCounty.xlsx
+++ b/raw/TX/TexasCOVID-19CumulativeTestsOverTimebyCounty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1430C315-D6B2-439C-8E8F-4EB7CE9ECA2A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B07D47DE-09A7-488A-858B-A61906919571}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="332">
   <si>
     <t>County</t>
   </si>
@@ -1022,20 +1022,29 @@
     <t>Tests Through June 22</t>
   </si>
   <si>
-    <t>5. This file will be updated daily; the next cumulative update will be 6/24/2020.</t>
+    <t>Tests Through June 23</t>
+  </si>
+  <si>
+    <t>5. This file will be updated daily; the next cumulative update will be 6/26/2020.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1120,30 +1129,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1152,40 +1162,41 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1463,13 +1474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL267"/>
+  <dimension ref="A1:BN267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A267" sqref="A267:I267"/>
+      <selection pane="bottomRight" activeCell="BM255" sqref="BM255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1480,16 +1491,15 @@
     <col min="40" max="45" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="11.453125" style="2" customWidth="1"/>
     <col min="47" max="49" width="11.1796875" style="2" customWidth="1"/>
-    <col min="50" max="59" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="64" width="12.90625" customWidth="1"/>
+    <col min="50" max="66" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:66" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1682,8 +1692,14 @@
       <c r="BL2" s="7" t="s">
         <v>329</v>
       </c>
+      <c r="BM2" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>330</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1876,8 +1892,14 @@
       <c r="BL3" s="2">
         <v>5058</v>
       </c>
+      <c r="BM3" s="2">
+        <v>5730</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>5803</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2070,8 +2092,14 @@
       <c r="BL4" s="2">
         <v>95</v>
       </c>
+      <c r="BM4" s="2">
+        <v>95</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>95</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2264,8 +2292,14 @@
       <c r="BL5" s="2">
         <v>3662</v>
       </c>
+      <c r="BM5" s="2">
+        <v>3772</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>3793</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2458,8 +2492,14 @@
       <c r="BL6" s="2">
         <v>342</v>
       </c>
+      <c r="BM6" s="2">
+        <v>356</v>
+      </c>
+      <c r="BN6" s="2">
+        <v>356</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2652,8 +2692,14 @@
       <c r="BL7" s="2">
         <v>94</v>
       </c>
+      <c r="BM7" s="2">
+        <v>98</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2846,8 +2892,14 @@
       <c r="BL8" s="2">
         <v>180</v>
       </c>
+      <c r="BM8" s="2">
+        <v>180</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>180</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3040,8 +3092,14 @@
       <c r="BL9" s="2">
         <v>1424</v>
       </c>
+      <c r="BM9" s="2">
+        <v>1447</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>1453</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3234,8 +3292,14 @@
       <c r="BL10" s="2">
         <v>1418</v>
       </c>
+      <c r="BM10" s="2">
+        <v>1478</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>1486</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3428,8 +3492,14 @@
       <c r="BL11" s="2">
         <v>107</v>
       </c>
+      <c r="BM11" s="2">
+        <v>109</v>
+      </c>
+      <c r="BN11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3622,8 +3692,14 @@
       <c r="BL12" s="2">
         <v>425</v>
       </c>
+      <c r="BM12" s="2">
+        <v>433</v>
+      </c>
+      <c r="BN12" s="2">
+        <v>436</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -3816,8 +3892,14 @@
       <c r="BL13" s="2">
         <v>2285</v>
       </c>
+      <c r="BM13" s="2">
+        <v>2407</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>2457</v>
+      </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -4010,8 +4092,14 @@
       <c r="BL14" s="2">
         <v>73</v>
       </c>
+      <c r="BM14" s="2">
+        <v>74</v>
+      </c>
+      <c r="BN14" s="2">
+        <v>74</v>
+      </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4204,8 +4292,14 @@
       <c r="BL15" s="2">
         <v>1734</v>
       </c>
+      <c r="BM15" s="2">
+        <v>2228</v>
+      </c>
+      <c r="BN15" s="2">
+        <v>2228</v>
+      </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -4398,8 +4492,14 @@
       <c r="BL16" s="2">
         <v>22592</v>
       </c>
+      <c r="BM16" s="2">
+        <v>22783</v>
+      </c>
+      <c r="BN16" s="2">
+        <v>23010</v>
+      </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -4592,8 +4692,14 @@
       <c r="BL17" s="2">
         <v>63752</v>
       </c>
+      <c r="BM17" s="2">
+        <v>66467</v>
+      </c>
+      <c r="BN17" s="2">
+        <v>67524</v>
+      </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -4786,8 +4892,14 @@
       <c r="BL18" s="2">
         <v>2044</v>
       </c>
+      <c r="BM18" s="2">
+        <v>2163</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>2202</v>
+      </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -4980,8 +5092,14 @@
       <c r="BL19" s="2">
         <v>2</v>
       </c>
+      <c r="BM19" s="2">
+        <v>2</v>
+      </c>
+      <c r="BN19" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -5174,8 +5292,14 @@
       <c r="BL20" s="2">
         <v>998</v>
       </c>
+      <c r="BM20" s="2">
+        <v>1014</v>
+      </c>
+      <c r="BN20" s="2">
+        <v>1018</v>
+      </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -5368,8 +5492,14 @@
       <c r="BL21" s="2">
         <v>6910</v>
       </c>
+      <c r="BM21" s="2">
+        <v>7004</v>
+      </c>
+      <c r="BN21" s="2">
+        <v>7039</v>
+      </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -5562,8 +5692,14 @@
       <c r="BL22" s="2">
         <v>14138</v>
       </c>
+      <c r="BM22" s="2">
+        <v>14404</v>
+      </c>
+      <c r="BN22" s="2">
+        <v>14458</v>
+      </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -5756,8 +5892,14 @@
       <c r="BL23" s="2">
         <v>12295</v>
       </c>
+      <c r="BM23" s="2">
+        <v>12620</v>
+      </c>
+      <c r="BN23" s="2">
+        <v>12973</v>
+      </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -5950,8 +6092,14 @@
       <c r="BL24" s="2">
         <v>943</v>
       </c>
+      <c r="BM24" s="2">
+        <v>945</v>
+      </c>
+      <c r="BN24" s="2">
+        <v>946</v>
+      </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -6144,8 +6292,14 @@
       <c r="BL25" s="2">
         <v>56</v>
       </c>
+      <c r="BM25" s="2">
+        <v>56</v>
+      </c>
+      <c r="BN25" s="2">
+        <v>56</v>
+      </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -6338,8 +6492,14 @@
       <c r="BL26" s="2">
         <v>111</v>
       </c>
+      <c r="BM26" s="2">
+        <v>116</v>
+      </c>
+      <c r="BN26" s="2">
+        <v>116</v>
+      </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -6532,8 +6692,14 @@
       <c r="BL27" s="2">
         <v>1061</v>
       </c>
+      <c r="BM27" s="2">
+        <v>1066</v>
+      </c>
+      <c r="BN27" s="2">
+        <v>1066</v>
+      </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -6726,8 +6892,14 @@
       <c r="BL28" s="2">
         <v>703</v>
       </c>
+      <c r="BM28" s="2">
+        <v>705</v>
+      </c>
+      <c r="BN28" s="2">
+        <v>715</v>
+      </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -6920,8 +7092,14 @@
       <c r="BL29" s="2">
         <v>1752</v>
       </c>
+      <c r="BM29" s="2">
+        <v>1793</v>
+      </c>
+      <c r="BN29" s="2">
+        <v>1834</v>
+      </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -7114,8 +7292,14 @@
       <c r="BL30" s="2">
         <v>1145</v>
       </c>
+      <c r="BM30" s="2">
+        <v>1205</v>
+      </c>
+      <c r="BN30" s="2">
+        <v>1230</v>
+      </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -7308,8 +7492,14 @@
       <c r="BL31" s="2">
         <v>1013</v>
       </c>
+      <c r="BM31" s="2">
+        <v>1081</v>
+      </c>
+      <c r="BN31" s="2">
+        <v>1108</v>
+      </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -7502,8 +7692,14 @@
       <c r="BL32" s="2">
         <v>315</v>
       </c>
+      <c r="BM32" s="2">
+        <v>316</v>
+      </c>
+      <c r="BN32" s="2">
+        <v>316</v>
+      </c>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -7696,8 +7892,14 @@
       <c r="BL33" s="2">
         <v>13833</v>
       </c>
+      <c r="BM33" s="2">
+        <v>15058</v>
+      </c>
+      <c r="BN33" s="2">
+        <v>15652</v>
+      </c>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -7890,8 +8092,14 @@
       <c r="BL34" s="2">
         <v>356</v>
       </c>
+      <c r="BM34" s="2">
+        <v>377</v>
+      </c>
+      <c r="BN34" s="2">
+        <v>385</v>
+      </c>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -8084,8 +8292,14 @@
       <c r="BL35" s="2">
         <v>152</v>
       </c>
+      <c r="BM35" s="2">
+        <v>154</v>
+      </c>
+      <c r="BN35" s="2">
+        <v>154</v>
+      </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -8278,8 +8492,14 @@
       <c r="BL36" s="2">
         <v>778</v>
       </c>
+      <c r="BM36" s="2">
+        <v>792</v>
+      </c>
+      <c r="BN36" s="2">
+        <v>799</v>
+      </c>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -8472,8 +8692,14 @@
       <c r="BL37" s="2">
         <v>318</v>
       </c>
+      <c r="BM37" s="2">
+        <v>324</v>
+      </c>
+      <c r="BN37" s="2">
+        <v>328</v>
+      </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -8666,8 +8892,14 @@
       <c r="BL38" s="2">
         <v>1441</v>
       </c>
+      <c r="BM38" s="2">
+        <v>1456</v>
+      </c>
+      <c r="BN38" s="2">
+        <v>1459</v>
+      </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -8860,8 +9092,14 @@
       <c r="BL39" s="2">
         <v>1392</v>
       </c>
+      <c r="BM39" s="2">
+        <v>1422</v>
+      </c>
+      <c r="BN39" s="2">
+        <v>1429</v>
+      </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -9054,8 +9292,14 @@
       <c r="BL40" s="2">
         <v>289</v>
       </c>
+      <c r="BM40" s="2">
+        <v>289</v>
+      </c>
+      <c r="BN40" s="2">
+        <v>289</v>
+      </c>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -9248,8 +9492,14 @@
       <c r="BL41" s="2">
         <v>325</v>
       </c>
+      <c r="BM41" s="2">
+        <v>329</v>
+      </c>
+      <c r="BN41" s="2">
+        <v>331</v>
+      </c>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -9442,8 +9692,14 @@
       <c r="BL42" s="2">
         <v>19</v>
       </c>
+      <c r="BM42" s="2">
+        <v>19</v>
+      </c>
+      <c r="BN42" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -9636,8 +9892,14 @@
       <c r="BL43" s="2">
         <v>36</v>
       </c>
+      <c r="BM43" s="2">
+        <v>36</v>
+      </c>
+      <c r="BN43" s="2">
+        <v>36</v>
+      </c>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -9830,8 +10092,14 @@
       <c r="BL44" s="2">
         <v>190</v>
       </c>
+      <c r="BM44" s="2">
+        <v>191</v>
+      </c>
+      <c r="BN44" s="2">
+        <v>191</v>
+      </c>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -10024,8 +10292,14 @@
       <c r="BL45" s="2">
         <v>39489</v>
       </c>
+      <c r="BM45" s="2">
+        <v>40325</v>
+      </c>
+      <c r="BN45" s="2">
+        <v>40645</v>
+      </c>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -10218,8 +10492,14 @@
       <c r="BL46" s="2">
         <v>159</v>
       </c>
+      <c r="BM46" s="2">
+        <v>160</v>
+      </c>
+      <c r="BN46" s="2">
+        <v>160</v>
+      </c>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -10412,8 +10692,14 @@
       <c r="BL47" s="2">
         <v>1183</v>
       </c>
+      <c r="BM47" s="2">
+        <v>1207</v>
+      </c>
+      <c r="BN47" s="2">
+        <v>1221</v>
+      </c>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
@@ -10606,8 +10892,14 @@
       <c r="BL48" s="2">
         <v>5302</v>
       </c>
+      <c r="BM48" s="2">
+        <v>5654</v>
+      </c>
+      <c r="BN48" s="2">
+        <v>5905</v>
+      </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
@@ -10800,8 +11092,14 @@
       <c r="BL49" s="2">
         <v>681</v>
       </c>
+      <c r="BM49" s="2">
+        <v>685</v>
+      </c>
+      <c r="BN49" s="2">
+        <v>685</v>
+      </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
@@ -10994,8 +11292,14 @@
       <c r="BL50" s="2">
         <v>93</v>
       </c>
+      <c r="BM50" s="2">
+        <v>93</v>
+      </c>
+      <c r="BN50" s="2">
+        <v>93</v>
+      </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -11188,8 +11492,14 @@
       <c r="BL51" s="2">
         <v>1607</v>
       </c>
+      <c r="BM51" s="2">
+        <v>1645</v>
+      </c>
+      <c r="BN51" s="2">
+        <v>1653</v>
+      </c>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -11382,8 +11692,14 @@
       <c r="BL52" s="2">
         <v>6734</v>
       </c>
+      <c r="BM52" s="2">
+        <v>6966</v>
+      </c>
+      <c r="BN52" s="2">
+        <v>6992</v>
+      </c>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
@@ -11576,8 +11892,14 @@
       <c r="BL53" s="2">
         <v>37</v>
       </c>
+      <c r="BM53" s="2">
+        <v>37</v>
+      </c>
+      <c r="BN53" s="2">
+        <v>38</v>
+      </c>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>52</v>
       </c>
@@ -11770,8 +12092,14 @@
       <c r="BL54" s="2">
         <v>157</v>
       </c>
+      <c r="BM54" s="2">
+        <v>159</v>
+      </c>
+      <c r="BN54" s="2">
+        <v>169</v>
+      </c>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
@@ -11964,8 +12292,14 @@
       <c r="BL55" s="2">
         <v>109</v>
       </c>
+      <c r="BM55" s="2">
+        <v>109</v>
+      </c>
+      <c r="BN55" s="2">
+        <v>109</v>
+      </c>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
@@ -12158,8 +12492,14 @@
       <c r="BL56" s="2">
         <v>159</v>
       </c>
+      <c r="BM56" s="2">
+        <v>159</v>
+      </c>
+      <c r="BN56" s="2">
+        <v>162</v>
+      </c>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -12352,8 +12692,14 @@
       <c r="BL57" s="2">
         <v>38</v>
       </c>
+      <c r="BM57" s="2">
+        <v>38</v>
+      </c>
+      <c r="BN57" s="2">
+        <v>38</v>
+      </c>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -12546,8 +12892,14 @@
       <c r="BL58" s="2">
         <v>10</v>
       </c>
+      <c r="BM58" s="2">
+        <v>10</v>
+      </c>
+      <c r="BN58" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -12740,8 +13092,14 @@
       <c r="BL59" s="2">
         <v>152018</v>
       </c>
+      <c r="BM59" s="2">
+        <v>154855</v>
+      </c>
+      <c r="BN59" s="2">
+        <v>155980</v>
+      </c>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
@@ -12934,8 +13292,14 @@
       <c r="BL60" s="2">
         <v>444</v>
       </c>
+      <c r="BM60" s="2">
+        <v>444</v>
+      </c>
+      <c r="BN60" s="2">
+        <v>446</v>
+      </c>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
@@ -13128,8 +13492,14 @@
       <c r="BL61" s="2">
         <v>424</v>
       </c>
+      <c r="BM61" s="2">
+        <v>433</v>
+      </c>
+      <c r="BN61" s="2">
+        <v>435</v>
+      </c>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
@@ -13322,8 +13692,14 @@
       <c r="BL62" s="2">
         <v>101</v>
       </c>
+      <c r="BM62" s="2">
+        <v>106</v>
+      </c>
+      <c r="BN62" s="2">
+        <v>106</v>
+      </c>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>61</v>
       </c>
@@ -13516,8 +13892,14 @@
       <c r="BL63" s="2">
         <v>35563</v>
       </c>
+      <c r="BM63" s="2">
+        <v>36387</v>
+      </c>
+      <c r="BN63" s="2">
+        <v>36657</v>
+      </c>
     </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
@@ -13710,8 +14092,14 @@
       <c r="BL64" s="2">
         <v>520</v>
       </c>
+      <c r="BM64" s="2">
+        <v>534</v>
+      </c>
+      <c r="BN64" s="2">
+        <v>546</v>
+      </c>
     </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
@@ -13904,8 +14292,14 @@
       <c r="BL65" s="2">
         <v>26</v>
       </c>
+      <c r="BM65" s="2">
+        <v>26</v>
+      </c>
+      <c r="BN65" s="2">
+        <v>28</v>
+      </c>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -14098,8 +14492,14 @@
       <c r="BL66" s="2">
         <v>187</v>
       </c>
+      <c r="BM66" s="2">
+        <v>188</v>
+      </c>
+      <c r="BN66" s="2">
+        <v>188</v>
+      </c>
     </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
@@ -14292,8 +14692,14 @@
       <c r="BL67" s="2">
         <v>190</v>
       </c>
+      <c r="BM67" s="2">
+        <v>193</v>
+      </c>
+      <c r="BN67" s="2">
+        <v>193</v>
+      </c>
     </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>66</v>
       </c>
@@ -14486,8 +14892,14 @@
       <c r="BL68" s="2">
         <v>386</v>
       </c>
+      <c r="BM68" s="2">
+        <v>393</v>
+      </c>
+      <c r="BN68" s="2">
+        <v>393</v>
+      </c>
     </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
@@ -14680,8 +15092,14 @@
       <c r="BL69" s="2">
         <v>419</v>
       </c>
+      <c r="BM69" s="2">
+        <v>421</v>
+      </c>
+      <c r="BN69" s="2">
+        <v>421</v>
+      </c>
     </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
@@ -14874,8 +15292,14 @@
       <c r="BL70" s="2">
         <v>4712</v>
       </c>
+      <c r="BM70" s="2">
+        <v>4929</v>
+      </c>
+      <c r="BN70" s="2">
+        <v>5101</v>
+      </c>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>69</v>
       </c>
@@ -15068,8 +15492,14 @@
       <c r="BL71" s="2">
         <v>31</v>
       </c>
+      <c r="BM71" s="2">
+        <v>32</v>
+      </c>
+      <c r="BN71" s="2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
@@ -15262,8 +15692,14 @@
       <c r="BL72" s="2">
         <v>9005</v>
       </c>
+      <c r="BM72" s="2">
+        <v>9176</v>
+      </c>
+      <c r="BN72" s="2">
+        <v>9202</v>
+      </c>
     </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>71</v>
       </c>
@@ -15456,8 +15892,14 @@
       <c r="BL73" s="2">
         <v>44256</v>
       </c>
+      <c r="BM73" s="2">
+        <v>44534</v>
+      </c>
+      <c r="BN73" s="2">
+        <v>44566</v>
+      </c>
     </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
@@ -15650,8 +16092,14 @@
       <c r="BL74" s="2">
         <v>1516</v>
       </c>
+      <c r="BM74" s="2">
+        <v>1525</v>
+      </c>
+      <c r="BN74" s="2">
+        <v>1526</v>
+      </c>
     </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>73</v>
       </c>
@@ -15844,8 +16292,14 @@
       <c r="BL75" s="2">
         <v>847</v>
       </c>
+      <c r="BM75" s="2">
+        <v>853</v>
+      </c>
+      <c r="BN75" s="2">
+        <v>857</v>
+      </c>
     </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>74</v>
       </c>
@@ -16038,8 +16492,14 @@
       <c r="BL76" s="2">
         <v>1432</v>
       </c>
+      <c r="BM76" s="2">
+        <v>1451</v>
+      </c>
+      <c r="BN76" s="2">
+        <v>1454</v>
+      </c>
     </row>
-    <row r="77" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -16232,8 +16692,14 @@
       <c r="BL77" s="2">
         <v>1466</v>
       </c>
+      <c r="BM77" s="2">
+        <v>1503</v>
+      </c>
+      <c r="BN77" s="2">
+        <v>1522</v>
+      </c>
     </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
@@ -16426,8 +16892,14 @@
       <c r="BL78" s="2">
         <v>32</v>
       </c>
+      <c r="BM78" s="2">
+        <v>32</v>
+      </c>
+      <c r="BN78" s="2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>77</v>
       </c>
@@ -16620,8 +17092,14 @@
       <c r="BL79" s="2">
         <v>279</v>
       </c>
+      <c r="BM79" s="2">
+        <v>279</v>
+      </c>
+      <c r="BN79" s="2">
+        <v>280</v>
+      </c>
     </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>78</v>
       </c>
@@ -16814,8 +17292,14 @@
       <c r="BL80" s="2">
         <v>96</v>
       </c>
+      <c r="BM80" s="2">
+        <v>96</v>
+      </c>
+      <c r="BN80" s="2">
+        <v>96</v>
+      </c>
     </row>
-    <row r="81" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>79</v>
       </c>
@@ -17008,8 +17492,14 @@
       <c r="BL81" s="2">
         <v>89616</v>
       </c>
+      <c r="BM81" s="2">
+        <v>92332</v>
+      </c>
+      <c r="BN81" s="2">
+        <v>93506</v>
+      </c>
     </row>
-    <row r="82" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>80</v>
       </c>
@@ -17202,8 +17692,14 @@
       <c r="BL82" s="2">
         <v>262</v>
       </c>
+      <c r="BM82" s="2">
+        <v>271</v>
+      </c>
+      <c r="BN82" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="83" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>81</v>
       </c>
@@ -17396,8 +17892,14 @@
       <c r="BL83" s="2">
         <v>680</v>
       </c>
+      <c r="BM83" s="2">
+        <v>688</v>
+      </c>
+      <c r="BN83" s="2">
+        <v>689</v>
+      </c>
     </row>
-    <row r="84" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>82</v>
       </c>
@@ -17590,8 +18092,14 @@
       <c r="BL84" s="2">
         <v>748</v>
       </c>
+      <c r="BM84" s="2">
+        <v>751</v>
+      </c>
+      <c r="BN84" s="2">
+        <v>758</v>
+      </c>
     </row>
-    <row r="85" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>83</v>
       </c>
@@ -17784,8 +18292,14 @@
       <c r="BL85" s="2">
         <v>275</v>
       </c>
+      <c r="BM85" s="2">
+        <v>277</v>
+      </c>
+      <c r="BN85" s="2">
+        <v>280</v>
+      </c>
     </row>
-    <row r="86" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>84</v>
       </c>
@@ -17978,8 +18492,14 @@
       <c r="BL86" s="2">
         <v>38251</v>
       </c>
+      <c r="BM86" s="2">
+        <v>38645</v>
+      </c>
+      <c r="BN86" s="2">
+        <v>38917</v>
+      </c>
     </row>
-    <row r="87" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>85</v>
       </c>
@@ -18172,8 +18692,14 @@
       <c r="BL87" s="2">
         <v>3</v>
       </c>
+      <c r="BM87" s="2">
+        <v>3</v>
+      </c>
+      <c r="BN87" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="88" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
@@ -18366,8 +18892,14 @@
       <c r="BL88" s="2">
         <v>1005</v>
       </c>
+      <c r="BM88" s="2">
+        <v>1100</v>
+      </c>
+      <c r="BN88" s="2">
+        <v>1158</v>
+      </c>
     </row>
-    <row r="89" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>87</v>
       </c>
@@ -18560,8 +19092,14 @@
       <c r="BL89" s="2">
         <v>72</v>
       </c>
+      <c r="BM89" s="2">
+        <v>76</v>
+      </c>
+      <c r="BN89" s="2">
+        <v>76</v>
+      </c>
     </row>
-    <row r="90" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>88</v>
       </c>
@@ -18754,8 +19292,14 @@
       <c r="BL90" s="2">
         <v>177</v>
       </c>
+      <c r="BM90" s="2">
+        <v>178</v>
+      </c>
+      <c r="BN90" s="2">
+        <v>181</v>
+      </c>
     </row>
-    <row r="91" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>89</v>
       </c>
@@ -18948,8 +19492,14 @@
       <c r="BL91" s="2">
         <v>1091</v>
       </c>
+      <c r="BM91" s="2">
+        <v>1117</v>
+      </c>
+      <c r="BN91" s="2">
+        <v>1118</v>
+      </c>
     </row>
-    <row r="92" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>90</v>
       </c>
@@ -19142,8 +19692,14 @@
       <c r="BL92" s="2">
         <v>862</v>
       </c>
+      <c r="BM92" s="2">
+        <v>874</v>
+      </c>
+      <c r="BN92" s="2">
+        <v>876</v>
+      </c>
     </row>
-    <row r="93" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>91</v>
       </c>
@@ -19336,8 +19892,14 @@
       <c r="BL93" s="2">
         <v>7378</v>
       </c>
+      <c r="BM93" s="2">
+        <v>7487</v>
+      </c>
+      <c r="BN93" s="2">
+        <v>7520</v>
+      </c>
     </row>
-    <row r="94" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>92</v>
       </c>
@@ -19530,8 +20092,14 @@
       <c r="BL94" s="2">
         <v>3027</v>
       </c>
+      <c r="BM94" s="2">
+        <v>3067</v>
+      </c>
+      <c r="BN94" s="2">
+        <v>3105</v>
+      </c>
     </row>
-    <row r="95" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -19724,8 +20292,14 @@
       <c r="BL95" s="2">
         <v>1106</v>
       </c>
+      <c r="BM95" s="2">
+        <v>1115</v>
+      </c>
+      <c r="BN95" s="2">
+        <v>1127</v>
+      </c>
     </row>
-    <row r="96" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>94</v>
       </c>
@@ -19918,8 +20492,14 @@
       <c r="BL96" s="2">
         <v>3736</v>
       </c>
+      <c r="BM96" s="2">
+        <v>3976</v>
+      </c>
+      <c r="BN96" s="2">
+        <v>4091</v>
+      </c>
     </row>
-    <row r="97" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>95</v>
       </c>
@@ -20112,8 +20692,14 @@
       <c r="BL97" s="2">
         <v>436</v>
       </c>
+      <c r="BM97" s="2">
+        <v>451</v>
+      </c>
+      <c r="BN97" s="2">
+        <v>459</v>
+      </c>
     </row>
-    <row r="98" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>96</v>
       </c>
@@ -20306,8 +20892,14 @@
       <c r="BL98" s="2">
         <v>161</v>
       </c>
+      <c r="BM98" s="2">
+        <v>163</v>
+      </c>
+      <c r="BN98" s="2">
+        <v>163</v>
+      </c>
     </row>
-    <row r="99" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
@@ -20500,8 +21092,14 @@
       <c r="BL99" s="2">
         <v>784</v>
       </c>
+      <c r="BM99" s="2">
+        <v>815</v>
+      </c>
+      <c r="BN99" s="2">
+        <v>816</v>
+      </c>
     </row>
-    <row r="100" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>98</v>
       </c>
@@ -20694,8 +21292,14 @@
       <c r="BL100" s="2">
         <v>55</v>
       </c>
+      <c r="BM100" s="2">
+        <v>56</v>
+      </c>
+      <c r="BN100" s="2">
+        <v>58</v>
+      </c>
     </row>
-    <row r="101" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>99</v>
       </c>
@@ -20888,8 +21492,14 @@
       <c r="BL101" s="2">
         <v>60</v>
       </c>
+      <c r="BM101" s="2">
+        <v>60</v>
+      </c>
+      <c r="BN101" s="2">
+        <v>60</v>
+      </c>
     </row>
-    <row r="102" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
@@ -21082,8 +21692,14 @@
       <c r="BL102" s="2">
         <v>903</v>
       </c>
+      <c r="BM102" s="2">
+        <v>913</v>
+      </c>
+      <c r="BN102" s="2">
+        <v>914</v>
+      </c>
     </row>
-    <row r="103" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>101</v>
       </c>
@@ -21276,8 +21892,14 @@
       <c r="BL103" s="2">
         <v>257823</v>
       </c>
+      <c r="BM103" s="2">
+        <v>261127</v>
+      </c>
+      <c r="BN103" s="2">
+        <v>261461</v>
+      </c>
     </row>
-    <row r="104" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>102</v>
       </c>
@@ -21470,8 +22092,14 @@
       <c r="BL104" s="2">
         <v>4654</v>
       </c>
+      <c r="BM104" s="2">
+        <v>4704</v>
+      </c>
+      <c r="BN104" s="2">
+        <v>4739</v>
+      </c>
     </row>
-    <row r="105" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>103</v>
       </c>
@@ -21664,8 +22292,14 @@
       <c r="BL105" s="2">
         <v>89</v>
       </c>
+      <c r="BM105" s="2">
+        <v>90</v>
+      </c>
+      <c r="BN105" s="2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="106" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>104</v>
       </c>
@@ -21858,8 +22492,14 @@
       <c r="BL106" s="2">
         <v>286</v>
       </c>
+      <c r="BM106" s="2">
+        <v>286</v>
+      </c>
+      <c r="BN106" s="2">
+        <v>286</v>
+      </c>
     </row>
-    <row r="107" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>105</v>
       </c>
@@ -22052,8 +22692,14 @@
       <c r="BL107" s="2">
         <v>10923</v>
       </c>
+      <c r="BM107" s="2">
+        <v>11651</v>
+      </c>
+      <c r="BN107" s="2">
+        <v>11968</v>
+      </c>
     </row>
-    <row r="108" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>106</v>
       </c>
@@ -22246,8 +22892,14 @@
       <c r="BL108" s="2">
         <v>182</v>
       </c>
+      <c r="BM108" s="2">
+        <v>183</v>
+      </c>
+      <c r="BN108" s="2">
+        <v>183</v>
+      </c>
     </row>
-    <row r="109" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>107</v>
       </c>
@@ -22440,8 +23092,14 @@
       <c r="BL109" s="2">
         <v>1959</v>
       </c>
+      <c r="BM109" s="2">
+        <v>2006</v>
+      </c>
+      <c r="BN109" s="2">
+        <v>2013</v>
+      </c>
     </row>
-    <row r="110" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>108</v>
       </c>
@@ -22634,8 +23292,14 @@
       <c r="BL110" s="2">
         <v>23699</v>
       </c>
+      <c r="BM110" s="2">
+        <v>24720</v>
+      </c>
+      <c r="BN110" s="2">
+        <v>24992</v>
+      </c>
     </row>
-    <row r="111" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>109</v>
       </c>
@@ -22828,8 +23492,14 @@
       <c r="BL111" s="2">
         <v>1267</v>
       </c>
+      <c r="BM111" s="2">
+        <v>1301</v>
+      </c>
+      <c r="BN111" s="2">
+        <v>1312</v>
+      </c>
     </row>
-    <row r="112" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>110</v>
       </c>
@@ -23022,8 +23692,14 @@
       <c r="BL112" s="2">
         <v>94</v>
       </c>
+      <c r="BM112" s="2">
+        <v>96</v>
+      </c>
+      <c r="BN112" s="2">
+        <v>105</v>
+      </c>
     </row>
-    <row r="113" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>111</v>
       </c>
@@ -23216,8 +23892,14 @@
       <c r="BL113" s="2">
         <v>1227</v>
       </c>
+      <c r="BM113" s="2">
+        <v>1232</v>
+      </c>
+      <c r="BN113" s="2">
+        <v>1233</v>
+      </c>
     </row>
-    <row r="114" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -23410,8 +24092,14 @@
       <c r="BL114" s="2">
         <v>721</v>
       </c>
+      <c r="BM114" s="2">
+        <v>737</v>
+      </c>
+      <c r="BN114" s="2">
+        <v>738</v>
+      </c>
     </row>
-    <row r="115" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>113</v>
       </c>
@@ -23604,8 +24292,14 @@
       <c r="BL115" s="2">
         <v>1588</v>
       </c>
+      <c r="BM115" s="2">
+        <v>1709</v>
+      </c>
+      <c r="BN115" s="2">
+        <v>1715</v>
+      </c>
     </row>
-    <row r="116" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>114</v>
       </c>
@@ -23798,8 +24492,14 @@
       <c r="BL116" s="2">
         <v>399</v>
       </c>
+      <c r="BM116" s="2">
+        <v>416</v>
+      </c>
+      <c r="BN116" s="2">
+        <v>454</v>
+      </c>
     </row>
-    <row r="117" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>115</v>
       </c>
@@ -23992,8 +24692,14 @@
       <c r="BL117" s="2">
         <v>58</v>
       </c>
+      <c r="BM117" s="2">
+        <v>58</v>
+      </c>
+      <c r="BN117" s="2">
+        <v>58</v>
+      </c>
     </row>
-    <row r="118" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>116</v>
       </c>
@@ -24186,8 +24892,14 @@
       <c r="BL118" s="2">
         <v>3903</v>
       </c>
+      <c r="BM118" s="2">
+        <v>3936</v>
+      </c>
+      <c r="BN118" s="2">
+        <v>3946</v>
+      </c>
     </row>
-    <row r="119" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>117</v>
       </c>
@@ -24380,8 +25092,14 @@
       <c r="BL119" s="2">
         <v>637</v>
       </c>
+      <c r="BM119" s="2">
+        <v>648</v>
+      </c>
+      <c r="BN119" s="2">
+        <v>649</v>
+      </c>
     </row>
-    <row r="120" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>118</v>
       </c>
@@ -24574,8 +25292,14 @@
       <c r="BL120" s="2">
         <v>6</v>
       </c>
+      <c r="BM120" s="2">
+        <v>6</v>
+      </c>
+      <c r="BN120" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="121" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>119</v>
       </c>
@@ -24768,8 +25492,14 @@
       <c r="BL121" s="2">
         <v>106</v>
       </c>
+      <c r="BM121" s="2">
+        <v>107</v>
+      </c>
+      <c r="BN121" s="2">
+        <v>107</v>
+      </c>
     </row>
-    <row r="122" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>120</v>
       </c>
@@ -24962,8 +25692,14 @@
       <c r="BL122" s="2">
         <v>884</v>
       </c>
+      <c r="BM122" s="2">
+        <v>892</v>
+      </c>
+      <c r="BN122" s="2">
+        <v>901</v>
+      </c>
     </row>
-    <row r="123" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>121</v>
       </c>
@@ -25156,8 +25892,14 @@
       <c r="BL123" s="2">
         <v>869</v>
       </c>
+      <c r="BM123" s="2">
+        <v>880</v>
+      </c>
+      <c r="BN123" s="2">
+        <v>884</v>
+      </c>
     </row>
-    <row r="124" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>122</v>
       </c>
@@ -25350,8 +26092,14 @@
       <c r="BL124" s="2">
         <v>11</v>
       </c>
+      <c r="BM124" s="2">
+        <v>11</v>
+      </c>
+      <c r="BN124" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="125" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>123</v>
       </c>
@@ -25544,8 +26292,14 @@
       <c r="BL125" s="2">
         <v>15052</v>
       </c>
+      <c r="BM125" s="2">
+        <v>15609</v>
+      </c>
+      <c r="BN125" s="2">
+        <v>15984</v>
+      </c>
     </row>
-    <row r="126" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>124</v>
       </c>
@@ -25738,8 +26492,14 @@
       <c r="BL126" s="2">
         <v>132</v>
       </c>
+      <c r="BM126" s="2">
+        <v>133</v>
+      </c>
+      <c r="BN126" s="2">
+        <v>133</v>
+      </c>
     </row>
-    <row r="127" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>125</v>
       </c>
@@ -25932,8 +26692,14 @@
       <c r="BL127" s="2">
         <v>2211</v>
       </c>
+      <c r="BM127" s="2">
+        <v>2235</v>
+      </c>
+      <c r="BN127" s="2">
+        <v>2235</v>
+      </c>
     </row>
-    <row r="128" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>126</v>
       </c>
@@ -26126,8 +26892,14 @@
       <c r="BL128" s="2">
         <v>8010</v>
       </c>
+      <c r="BM128" s="2">
+        <v>8159</v>
+      </c>
+      <c r="BN128" s="2">
+        <v>8198</v>
+      </c>
     </row>
-    <row r="129" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>127</v>
       </c>
@@ -26320,8 +27092,14 @@
       <c r="BL129" s="2">
         <v>605</v>
       </c>
+      <c r="BM129" s="2">
+        <v>616</v>
+      </c>
+      <c r="BN129" s="2">
+        <v>616</v>
+      </c>
     </row>
-    <row r="130" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>128</v>
       </c>
@@ -26514,8 +27292,14 @@
       <c r="BL130" s="2">
         <v>322</v>
       </c>
+      <c r="BM130" s="2">
+        <v>326</v>
+      </c>
+      <c r="BN130" s="2">
+        <v>326</v>
+      </c>
     </row>
-    <row r="131" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>129</v>
       </c>
@@ -26708,8 +27492,14 @@
       <c r="BL131" s="2">
         <v>4649</v>
       </c>
+      <c r="BM131" s="2">
+        <v>4708</v>
+      </c>
+      <c r="BN131" s="2">
+        <v>4714</v>
+      </c>
     </row>
-    <row r="132" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>130</v>
       </c>
@@ -26902,8 +27692,14 @@
       <c r="BL132" s="2">
         <v>1296</v>
       </c>
+      <c r="BM132" s="2">
+        <v>1321</v>
+      </c>
+      <c r="BN132" s="2">
+        <v>1332</v>
+      </c>
     </row>
-    <row r="133" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>131</v>
       </c>
@@ -27096,8 +27892,14 @@
       <c r="BL133" s="2">
         <v>3</v>
       </c>
+      <c r="BM133" s="2">
+        <v>3</v>
+      </c>
+      <c r="BN133" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="134" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>132</v>
       </c>
@@ -27290,8 +28092,14 @@
       <c r="BL134" s="2">
         <v>3</v>
       </c>
+      <c r="BM134" s="2">
+        <v>3</v>
+      </c>
+      <c r="BN134" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="135" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>133</v>
       </c>
@@ -27484,8 +28292,14 @@
       <c r="BL135" s="2">
         <v>2293</v>
       </c>
+      <c r="BM135" s="2">
+        <v>2582</v>
+      </c>
+      <c r="BN135" s="2">
+        <v>2622</v>
+      </c>
     </row>
-    <row r="136" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>134</v>
       </c>
@@ -27678,8 +28492,14 @@
       <c r="BL136" s="2">
         <v>130</v>
       </c>
+      <c r="BM136" s="2">
+        <v>130</v>
+      </c>
+      <c r="BN136" s="2">
+        <v>131</v>
+      </c>
     </row>
-    <row r="137" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>135</v>
       </c>
@@ -27872,8 +28692,14 @@
       <c r="BL137" s="2">
         <v>4</v>
       </c>
+      <c r="BM137" s="2">
+        <v>4</v>
+      </c>
+      <c r="BN137" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="138" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>136</v>
       </c>
@@ -28066,8 +28892,14 @@
       <c r="BL138" s="2">
         <v>23</v>
       </c>
+      <c r="BM138" s="2">
+        <v>23</v>
+      </c>
+      <c r="BN138" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="139" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>137</v>
       </c>
@@ -28260,8 +29092,14 @@
       <c r="BL139" s="2">
         <v>2343</v>
       </c>
+      <c r="BM139" s="2">
+        <v>2388</v>
+      </c>
+      <c r="BN139" s="2">
+        <v>2389</v>
+      </c>
     </row>
-    <row r="140" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>138</v>
       </c>
@@ -28454,8 +29292,14 @@
       <c r="BL140" s="2">
         <v>210</v>
       </c>
+      <c r="BM140" s="2">
+        <v>210</v>
+      </c>
+      <c r="BN140" s="2">
+        <v>209</v>
+      </c>
     </row>
-    <row r="141" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>139</v>
       </c>
@@ -28648,8 +29492,14 @@
       <c r="BL141" s="2">
         <v>1361</v>
       </c>
+      <c r="BM141" s="2">
+        <v>1388</v>
+      </c>
+      <c r="BN141" s="2">
+        <v>1393</v>
+      </c>
     </row>
-    <row r="142" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>140</v>
       </c>
@@ -28842,8 +29692,14 @@
       <c r="BL142" s="2">
         <v>216</v>
       </c>
+      <c r="BM142" s="2">
+        <v>216</v>
+      </c>
+      <c r="BN142" s="2">
+        <v>216</v>
+      </c>
     </row>
-    <row r="143" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
@@ -29036,8 +29892,14 @@
       <c r="BL143" s="2">
         <v>1536</v>
       </c>
+      <c r="BM143" s="2">
+        <v>1541</v>
+      </c>
+      <c r="BN143" s="2">
+        <v>1554</v>
+      </c>
     </row>
-    <row r="144" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>142</v>
       </c>
@@ -29230,8 +30092,14 @@
       <c r="BL144" s="2">
         <v>529</v>
       </c>
+      <c r="BM144" s="2">
+        <v>532</v>
+      </c>
+      <c r="BN144" s="2">
+        <v>537</v>
+      </c>
     </row>
-    <row r="145" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>143</v>
       </c>
@@ -29424,8 +30292,14 @@
       <c r="BL145" s="2">
         <v>677</v>
       </c>
+      <c r="BM145" s="2">
+        <v>711</v>
+      </c>
+      <c r="BN145" s="2">
+        <v>726</v>
+      </c>
     </row>
-    <row r="146" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>144</v>
       </c>
@@ -29618,8 +30492,14 @@
       <c r="BL146" s="2">
         <v>369</v>
       </c>
+      <c r="BM146" s="2">
+        <v>375</v>
+      </c>
+      <c r="BN146" s="2">
+        <v>378</v>
+      </c>
     </row>
-    <row r="147" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>145</v>
       </c>
@@ -29812,8 +30692,14 @@
       <c r="BL147" s="2">
         <v>569</v>
       </c>
+      <c r="BM147" s="2">
+        <v>582</v>
+      </c>
+      <c r="BN147" s="2">
+        <v>595</v>
+      </c>
     </row>
-    <row r="148" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>146</v>
       </c>
@@ -30006,8 +30892,14 @@
       <c r="BL148" s="2">
         <v>3438</v>
       </c>
+      <c r="BM148" s="2">
+        <v>3499</v>
+      </c>
+      <c r="BN148" s="2">
+        <v>3502</v>
+      </c>
     </row>
-    <row r="149" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>147</v>
       </c>
@@ -30200,8 +31092,14 @@
       <c r="BL149" s="2">
         <v>923</v>
       </c>
+      <c r="BM149" s="2">
+        <v>929</v>
+      </c>
+      <c r="BN149" s="2">
+        <v>934</v>
+      </c>
     </row>
-    <row r="150" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>148</v>
       </c>
@@ -30394,8 +31292,14 @@
       <c r="BL150" s="2">
         <v>120</v>
       </c>
+      <c r="BM150" s="2">
+        <v>121</v>
+      </c>
+      <c r="BN150" s="2">
+        <v>121</v>
+      </c>
     </row>
-    <row r="151" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>149</v>
       </c>
@@ -30588,8 +31492,14 @@
       <c r="BL151" s="2">
         <v>391</v>
       </c>
+      <c r="BM151" s="2">
+        <v>411</v>
+      </c>
+      <c r="BN151" s="2">
+        <v>411</v>
+      </c>
     </row>
-    <row r="152" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>150</v>
       </c>
@@ -30782,8 +31692,14 @@
       <c r="BL152" s="2">
         <v>1149</v>
       </c>
+      <c r="BM152" s="2">
+        <v>1162</v>
+      </c>
+      <c r="BN152" s="2">
+        <v>1172</v>
+      </c>
     </row>
-    <row r="153" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>151</v>
       </c>
@@ -30976,8 +31892,14 @@
       <c r="BL153" s="2">
         <v>1</v>
       </c>
+      <c r="BM153" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN153" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="154" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>152</v>
       </c>
@@ -31170,8 +32092,14 @@
       <c r="BL154" s="2">
         <v>13101</v>
       </c>
+      <c r="BM154" s="2">
+        <v>13890</v>
+      </c>
+      <c r="BN154" s="2">
+        <v>14449</v>
+      </c>
     </row>
-    <row r="155" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>153</v>
       </c>
@@ -31364,8 +32292,14 @@
       <c r="BL155" s="2">
         <v>475</v>
       </c>
+      <c r="BM155" s="2">
+        <v>487</v>
+      </c>
+      <c r="BN155" s="2">
+        <v>507</v>
+      </c>
     </row>
-    <row r="156" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>154</v>
       </c>
@@ -31558,8 +32492,14 @@
       <c r="BL156" s="2">
         <v>92</v>
       </c>
+      <c r="BM156" s="2">
+        <v>93</v>
+      </c>
+      <c r="BN156" s="2">
+        <v>93</v>
+      </c>
     </row>
-    <row r="157" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>155</v>
       </c>
@@ -31752,8 +32692,14 @@
       <c r="BL157" s="2">
         <v>13407</v>
       </c>
+      <c r="BM157" s="2">
+        <v>13729</v>
+      </c>
+      <c r="BN157" s="2">
+        <v>13896</v>
+      </c>
     </row>
-    <row r="158" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>156</v>
       </c>
@@ -31946,8 +32892,14 @@
       <c r="BL158" s="2">
         <v>11</v>
       </c>
+      <c r="BM158" s="2">
+        <v>11</v>
+      </c>
+      <c r="BN158" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="159" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>157</v>
       </c>
@@ -32140,8 +33092,14 @@
       <c r="BL159" s="2">
         <v>582</v>
       </c>
+      <c r="BM159" s="2">
+        <v>584</v>
+      </c>
+      <c r="BN159" s="2">
+        <v>587</v>
+      </c>
     </row>
-    <row r="160" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>158</v>
       </c>
@@ -32334,8 +33292,14 @@
       <c r="BL160" s="2">
         <v>105</v>
       </c>
+      <c r="BM160" s="2">
+        <v>119</v>
+      </c>
+      <c r="BN160" s="2">
+        <v>122</v>
+      </c>
     </row>
-    <row r="161" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>159</v>
       </c>
@@ -32528,8 +33492,14 @@
       <c r="BL161" s="2">
         <v>110</v>
       </c>
+      <c r="BM161" s="2">
+        <v>116</v>
+      </c>
+      <c r="BN161" s="2">
+        <v>116</v>
+      </c>
     </row>
-    <row r="162" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>160</v>
       </c>
@@ -32722,8 +33692,14 @@
       <c r="BL162" s="2">
         <v>353</v>
       </c>
+      <c r="BM162" s="2">
+        <v>360</v>
+      </c>
+      <c r="BN162" s="2">
+        <v>362</v>
+      </c>
     </row>
-    <row r="163" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>161</v>
       </c>
@@ -32916,8 +33892,14 @@
       <c r="BL163" s="2">
         <v>1667</v>
       </c>
+      <c r="BM163" s="2">
+        <v>1680</v>
+      </c>
+      <c r="BN163" s="2">
+        <v>1684</v>
+      </c>
     </row>
-    <row r="164" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>162</v>
       </c>
@@ -33110,8 +34092,14 @@
       <c r="BL164" s="2">
         <v>3408</v>
       </c>
+      <c r="BM164" s="2">
+        <v>3431</v>
+      </c>
+      <c r="BN164" s="2">
+        <v>3435</v>
+      </c>
     </row>
-    <row r="165" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>163</v>
       </c>
@@ -33304,8 +34292,14 @@
       <c r="BL165" s="2">
         <v>1135</v>
       </c>
+      <c r="BM165" s="2">
+        <v>1550</v>
+      </c>
+      <c r="BN165" s="2">
+        <v>1562</v>
+      </c>
     </row>
-    <row r="166" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>164</v>
       </c>
@@ -33498,8 +34492,14 @@
       <c r="BL166" s="2">
         <v>31</v>
       </c>
+      <c r="BM166" s="2">
+        <v>31</v>
+      </c>
+      <c r="BN166" s="2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="167" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>165</v>
       </c>
@@ -33692,8 +34692,14 @@
       <c r="BL167" s="2">
         <v>5273</v>
       </c>
+      <c r="BM167" s="2">
+        <v>5436</v>
+      </c>
+      <c r="BN167" s="2">
+        <v>5489</v>
+      </c>
     </row>
-    <row r="168" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>166</v>
       </c>
@@ -33886,8 +34892,14 @@
       <c r="BL168" s="2">
         <v>1630</v>
       </c>
+      <c r="BM168" s="2">
+        <v>1633</v>
+      </c>
+      <c r="BN168" s="2">
+        <v>1646</v>
+      </c>
     </row>
-    <row r="169" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>167</v>
       </c>
@@ -34080,8 +35092,14 @@
       <c r="BL169" s="2">
         <v>108</v>
       </c>
+      <c r="BM169" s="2">
+        <v>108</v>
+      </c>
+      <c r="BN169" s="2">
+        <v>109</v>
+      </c>
     </row>
-    <row r="170" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>168</v>
       </c>
@@ -34274,8 +35292,14 @@
       <c r="BL170" s="2">
         <v>226</v>
       </c>
+      <c r="BM170" s="2">
+        <v>228</v>
+      </c>
+      <c r="BN170" s="2">
+        <v>228</v>
+      </c>
     </row>
-    <row r="171" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>169</v>
       </c>
@@ -34468,8 +35492,14 @@
       <c r="BL171" s="2">
         <v>326</v>
       </c>
+      <c r="BM171" s="2">
+        <v>327</v>
+      </c>
+      <c r="BN171" s="2">
+        <v>327</v>
+      </c>
     </row>
-    <row r="172" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>170</v>
       </c>
@@ -34662,8 +35692,14 @@
       <c r="BL172" s="2">
         <v>26283</v>
       </c>
+      <c r="BM172" s="2">
+        <v>26785</v>
+      </c>
+      <c r="BN172" s="2">
+        <v>26800</v>
+      </c>
     </row>
-    <row r="173" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>171</v>
       </c>
@@ -34856,8 +35892,14 @@
       <c r="BL173" s="2">
         <v>2904</v>
       </c>
+      <c r="BM173" s="2">
+        <v>2911</v>
+      </c>
+      <c r="BN173" s="2">
+        <v>2912</v>
+      </c>
     </row>
-    <row r="174" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>172</v>
       </c>
@@ -35050,8 +36092,14 @@
       <c r="BL174" s="2">
         <v>238</v>
       </c>
+      <c r="BM174" s="2">
+        <v>249</v>
+      </c>
+      <c r="BN174" s="2">
+        <v>254</v>
+      </c>
     </row>
-    <row r="175" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>173</v>
       </c>
@@ -35244,8 +36292,14 @@
       <c r="BL175" s="2">
         <v>27</v>
       </c>
+      <c r="BM175" s="2">
+        <v>28</v>
+      </c>
+      <c r="BN175" s="2">
+        <v>29</v>
+      </c>
     </row>
-    <row r="176" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>174</v>
       </c>
@@ -35438,8 +36492,14 @@
       <c r="BL176" s="2">
         <v>2954</v>
       </c>
+      <c r="BM176" s="2">
+        <v>3064</v>
+      </c>
+      <c r="BN176" s="2">
+        <v>3088</v>
+      </c>
     </row>
-    <row r="177" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>175</v>
       </c>
@@ -35632,8 +36692,14 @@
       <c r="BL177" s="2">
         <v>1684</v>
       </c>
+      <c r="BM177" s="2">
+        <v>1728</v>
+      </c>
+      <c r="BN177" s="2">
+        <v>1734</v>
+      </c>
     </row>
-    <row r="178" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
@@ -35826,8 +36892,14 @@
       <c r="BL178" s="2">
         <v>315</v>
       </c>
+      <c r="BM178" s="2">
+        <v>317</v>
+      </c>
+      <c r="BN178" s="2">
+        <v>317</v>
+      </c>
     </row>
-    <row r="179" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>177</v>
       </c>
@@ -36020,8 +37092,14 @@
       <c r="BL179" s="2">
         <v>161</v>
       </c>
+      <c r="BM179" s="2">
+        <v>162</v>
+      </c>
+      <c r="BN179" s="2">
+        <v>164</v>
+      </c>
     </row>
-    <row r="180" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>178</v>
       </c>
@@ -36214,8 +37292,14 @@
       <c r="BL180" s="2">
         <v>6378</v>
       </c>
+      <c r="BM180" s="2">
+        <v>6729</v>
+      </c>
+      <c r="BN180" s="2">
+        <v>6735</v>
+      </c>
     </row>
-    <row r="181" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>179</v>
       </c>
@@ -36408,8 +37492,14 @@
       <c r="BL181" s="2">
         <v>145</v>
       </c>
+      <c r="BM181" s="2">
+        <v>147</v>
+      </c>
+      <c r="BN181" s="2">
+        <v>147</v>
+      </c>
     </row>
-    <row r="182" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>180</v>
       </c>
@@ -36602,8 +37692,14 @@
       <c r="BL182" s="2">
         <v>113</v>
       </c>
+      <c r="BM182" s="2">
+        <v>115</v>
+      </c>
+      <c r="BN182" s="2">
+        <v>115</v>
+      </c>
     </row>
-    <row r="183" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>181</v>
       </c>
@@ -36796,8 +37892,14 @@
       <c r="BL183" s="2">
         <v>1545</v>
       </c>
+      <c r="BM183" s="2">
+        <v>1576</v>
+      </c>
+      <c r="BN183" s="2">
+        <v>1578</v>
+      </c>
     </row>
-    <row r="184" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>182</v>
       </c>
@@ -36990,8 +38092,14 @@
       <c r="BL184" s="2">
         <v>674</v>
       </c>
+      <c r="BM184" s="2">
+        <v>677</v>
+      </c>
+      <c r="BN184" s="2">
+        <v>680</v>
+      </c>
     </row>
-    <row r="185" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>183</v>
       </c>
@@ -37184,8 +38292,14 @@
       <c r="BL185" s="2">
         <v>643</v>
       </c>
+      <c r="BM185" s="2">
+        <v>663</v>
+      </c>
+      <c r="BN185" s="2">
+        <v>679</v>
+      </c>
     </row>
-    <row r="186" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>184</v>
       </c>
@@ -37378,8 +38492,14 @@
       <c r="BL186" s="2">
         <v>5367</v>
       </c>
+      <c r="BM186" s="2">
+        <v>5834</v>
+      </c>
+      <c r="BN186" s="2">
+        <v>6276</v>
+      </c>
     </row>
-    <row r="187" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>185</v>
       </c>
@@ -37572,8 +38692,14 @@
       <c r="BL187" s="2">
         <v>326</v>
       </c>
+      <c r="BM187" s="2">
+        <v>331</v>
+      </c>
+      <c r="BN187" s="2">
+        <v>331</v>
+      </c>
     </row>
-    <row r="188" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>186</v>
       </c>
@@ -37766,8 +38892,14 @@
       <c r="BL188" s="2">
         <v>1136</v>
       </c>
+      <c r="BM188" s="2">
+        <v>1137</v>
+      </c>
+      <c r="BN188" s="2">
+        <v>1137</v>
+      </c>
     </row>
-    <row r="189" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>187</v>
       </c>
@@ -37960,8 +39092,14 @@
       <c r="BL189" s="2">
         <v>1915</v>
       </c>
+      <c r="BM189" s="2">
+        <v>1955</v>
+      </c>
+      <c r="BN189" s="2">
+        <v>1958</v>
+      </c>
     </row>
-    <row r="190" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>188</v>
       </c>
@@ -38154,8 +39292,14 @@
       <c r="BL190" s="2">
         <v>14204</v>
       </c>
+      <c r="BM190" s="2">
+        <v>14792</v>
+      </c>
+      <c r="BN190" s="2">
+        <v>14838</v>
+      </c>
     </row>
-    <row r="191" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>189</v>
       </c>
@@ -38348,8 +39492,14 @@
       <c r="BL191" s="2">
         <v>133</v>
       </c>
+      <c r="BM191" s="2">
+        <v>133</v>
+      </c>
+      <c r="BN191" s="2">
+        <v>133</v>
+      </c>
     </row>
-    <row r="192" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>190</v>
       </c>
@@ -38542,8 +39692,14 @@
       <c r="BL192" s="2">
         <v>116</v>
       </c>
+      <c r="BM192" s="2">
+        <v>119</v>
+      </c>
+      <c r="BN192" s="2">
+        <v>119</v>
+      </c>
     </row>
-    <row r="193" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>191</v>
       </c>
@@ -38736,8 +39892,14 @@
       <c r="BL193" s="2">
         <v>5019</v>
       </c>
+      <c r="BM193" s="2">
+        <v>5159</v>
+      </c>
+      <c r="BN193" s="2">
+        <v>5182</v>
+      </c>
     </row>
-    <row r="194" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>192</v>
       </c>
@@ -38930,8 +40092,14 @@
       <c r="BL194" s="2">
         <v>115</v>
       </c>
+      <c r="BM194" s="2">
+        <v>115</v>
+      </c>
+      <c r="BN194" s="2">
+        <v>115</v>
+      </c>
     </row>
-    <row r="195" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>193</v>
       </c>
@@ -39124,8 +40292,14 @@
       <c r="BL195" s="2">
         <v>139</v>
       </c>
+      <c r="BM195" s="2">
+        <v>140</v>
+      </c>
+      <c r="BN195" s="2">
+        <v>140</v>
+      </c>
     </row>
-    <row r="196" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>194</v>
       </c>
@@ -39318,8 +40492,14 @@
       <c r="BL196" s="2">
         <v>418</v>
       </c>
+      <c r="BM196" s="2">
+        <v>443</v>
+      </c>
+      <c r="BN196" s="2">
+        <v>456</v>
+      </c>
     </row>
-    <row r="197" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>195</v>
       </c>
@@ -39512,8 +40692,14 @@
       <c r="BL197" s="2">
         <v>235</v>
       </c>
+      <c r="BM197" s="2">
+        <v>239</v>
+      </c>
+      <c r="BN197" s="2">
+        <v>239</v>
+      </c>
     </row>
-    <row r="198" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>196</v>
       </c>
@@ -39706,8 +40892,14 @@
       <c r="BL198" s="2">
         <v>213</v>
       </c>
+      <c r="BM198" s="2">
+        <v>217</v>
+      </c>
+      <c r="BN198" s="2">
+        <v>223</v>
+      </c>
     </row>
-    <row r="199" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>197</v>
       </c>
@@ -39900,8 +41092,14 @@
       <c r="BL199" s="2">
         <v>7</v>
       </c>
+      <c r="BM199" s="2">
+        <v>7</v>
+      </c>
+      <c r="BN199" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="200" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>198</v>
       </c>
@@ -40094,8 +41292,14 @@
       <c r="BL200" s="2">
         <v>701</v>
       </c>
+      <c r="BM200" s="2">
+        <v>707</v>
+      </c>
+      <c r="BN200" s="2">
+        <v>721</v>
+      </c>
     </row>
-    <row r="201" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>199</v>
       </c>
@@ -40288,8 +41492,14 @@
       <c r="BL201" s="2">
         <v>4882</v>
       </c>
+      <c r="BM201" s="2">
+        <v>4992</v>
+      </c>
+      <c r="BN201" s="2">
+        <v>5016</v>
+      </c>
     </row>
-    <row r="202" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>200</v>
       </c>
@@ -40482,8 +41692,14 @@
       <c r="BL202" s="2">
         <v>335</v>
       </c>
+      <c r="BM202" s="2">
+        <v>335</v>
+      </c>
+      <c r="BN202" s="2">
+        <v>337</v>
+      </c>
     </row>
-    <row r="203" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>201</v>
       </c>
@@ -40676,8 +41892,14 @@
       <c r="BL203" s="2">
         <v>1291</v>
       </c>
+      <c r="BM203" s="2">
+        <v>1322</v>
+      </c>
+      <c r="BN203" s="2">
+        <v>1339</v>
+      </c>
     </row>
-    <row r="204" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>202</v>
       </c>
@@ -40870,8 +42092,14 @@
       <c r="BL204" s="2">
         <v>517</v>
       </c>
+      <c r="BM204" s="2">
+        <v>526</v>
+      </c>
+      <c r="BN204" s="2">
+        <v>527</v>
+      </c>
     </row>
-    <row r="205" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>203</v>
       </c>
@@ -41064,8 +42292,14 @@
       <c r="BL205" s="2">
         <v>298</v>
       </c>
+      <c r="BM205" s="2">
+        <v>322</v>
+      </c>
+      <c r="BN205" s="2">
+        <v>347</v>
+      </c>
     </row>
-    <row r="206" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>204</v>
       </c>
@@ -41258,8 +42492,14 @@
       <c r="BL206" s="2">
         <v>691</v>
       </c>
+      <c r="BM206" s="2">
+        <v>697</v>
+      </c>
+      <c r="BN206" s="2">
+        <v>697</v>
+      </c>
     </row>
-    <row r="207" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>205</v>
       </c>
@@ -41452,8 +42692,14 @@
       <c r="BL207" s="2">
         <v>1210</v>
       </c>
+      <c r="BM207" s="2">
+        <v>1260</v>
+      </c>
+      <c r="BN207" s="2">
+        <v>1261</v>
+      </c>
     </row>
-    <row r="208" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>206</v>
       </c>
@@ -41646,8 +42892,14 @@
       <c r="BL208" s="2">
         <v>197</v>
       </c>
+      <c r="BM208" s="2">
+        <v>196</v>
+      </c>
+      <c r="BN208" s="2">
+        <v>196</v>
+      </c>
     </row>
-    <row r="209" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>207</v>
       </c>
@@ -41840,8 +43092,14 @@
       <c r="BL209" s="2">
         <v>106</v>
       </c>
+      <c r="BM209" s="2">
+        <v>107</v>
+      </c>
+      <c r="BN209" s="2">
+        <v>108</v>
+      </c>
     </row>
-    <row r="210" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>208</v>
       </c>
@@ -42034,8 +43292,14 @@
       <c r="BL210" s="2">
         <v>103</v>
       </c>
+      <c r="BM210" s="2">
+        <v>103</v>
+      </c>
+      <c r="BN210" s="2">
+        <v>103</v>
+      </c>
     </row>
-    <row r="211" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>209</v>
       </c>
@@ -42228,8 +43492,14 @@
       <c r="BL211" s="2">
         <v>44</v>
       </c>
+      <c r="BM211" s="2">
+        <v>44</v>
+      </c>
+      <c r="BN211" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="212" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>210</v>
       </c>
@@ -42422,8 +43692,14 @@
       <c r="BL212" s="2">
         <v>1477</v>
       </c>
+      <c r="BM212" s="2">
+        <v>1504</v>
+      </c>
+      <c r="BN212" s="2">
+        <v>1513</v>
+      </c>
     </row>
-    <row r="213" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>211</v>
       </c>
@@ -42616,8 +43892,14 @@
       <c r="BL213" s="2">
         <v>35</v>
       </c>
+      <c r="BM213" s="2">
+        <v>36</v>
+      </c>
+      <c r="BN213" s="2">
+        <v>36</v>
+      </c>
     </row>
-    <row r="214" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>212</v>
       </c>
@@ -42810,8 +44092,14 @@
       <c r="BL214" s="2">
         <v>7212</v>
       </c>
+      <c r="BM214" s="2">
+        <v>7548</v>
+      </c>
+      <c r="BN214" s="2">
+        <v>7577</v>
+      </c>
     </row>
-    <row r="215" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>213</v>
       </c>
@@ -43004,8 +44292,14 @@
       <c r="BL215" s="2">
         <v>290</v>
       </c>
+      <c r="BM215" s="2">
+        <v>296</v>
+      </c>
+      <c r="BN215" s="2">
+        <v>299</v>
+      </c>
     </row>
-    <row r="216" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>214</v>
       </c>
@@ -43198,8 +44492,14 @@
       <c r="BL216" s="2">
         <v>2639</v>
       </c>
+      <c r="BM216" s="2">
+        <v>2879</v>
+      </c>
+      <c r="BN216" s="2">
+        <v>2886</v>
+      </c>
     </row>
-    <row r="217" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>215</v>
       </c>
@@ -43392,8 +44692,14 @@
       <c r="BL217" s="2">
         <v>113</v>
       </c>
+      <c r="BM217" s="2">
+        <v>116</v>
+      </c>
+      <c r="BN217" s="2">
+        <v>122</v>
+      </c>
     </row>
-    <row r="218" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>216</v>
       </c>
@@ -43586,8 +44892,14 @@
       <c r="BL218" s="2">
         <v>27</v>
       </c>
+      <c r="BM218" s="2">
+        <v>27</v>
+      </c>
+      <c r="BN218" s="2">
+        <v>27</v>
+      </c>
     </row>
-    <row r="219" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>217</v>
       </c>
@@ -43780,8 +45092,14 @@
       <c r="BL219" s="2">
         <v>9</v>
       </c>
+      <c r="BM219" s="2">
+        <v>9</v>
+      </c>
+      <c r="BN219" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="220" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>218</v>
       </c>
@@ -43974,8 +45292,14 @@
       <c r="BL220" s="2">
         <v>64</v>
       </c>
+      <c r="BM220" s="2">
+        <v>64</v>
+      </c>
+      <c r="BN220" s="2">
+        <v>64</v>
+      </c>
     </row>
-    <row r="221" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>219</v>
       </c>
@@ -44168,8 +45492,14 @@
       <c r="BL221" s="2">
         <v>254</v>
       </c>
+      <c r="BM221" s="2">
+        <v>257</v>
+      </c>
+      <c r="BN221" s="2">
+        <v>258</v>
+      </c>
     </row>
-    <row r="222" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>220</v>
       </c>
@@ -44362,8 +45692,14 @@
       <c r="BL222" s="2">
         <v>89133</v>
       </c>
+      <c r="BM222" s="2">
+        <v>90269</v>
+      </c>
+      <c r="BN222" s="2">
+        <v>90612</v>
+      </c>
     </row>
-    <row r="223" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>221</v>
       </c>
@@ -44556,8 +45892,14 @@
       <c r="BL223" s="2">
         <v>8087</v>
       </c>
+      <c r="BM223" s="2">
+        <v>8559</v>
+      </c>
+      <c r="BN223" s="2">
+        <v>8671</v>
+      </c>
     </row>
-    <row r="224" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>222</v>
       </c>
@@ -44750,8 +46092,14 @@
       <c r="BL224" s="2">
         <v>6</v>
       </c>
+      <c r="BM224" s="2">
+        <v>6</v>
+      </c>
+      <c r="BN224" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="225" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>223</v>
       </c>
@@ -44944,8 +46292,14 @@
       <c r="BL225" s="2">
         <v>271</v>
       </c>
+      <c r="BM225" s="2">
+        <v>274</v>
+      </c>
+      <c r="BN225" s="2">
+        <v>282</v>
+      </c>
     </row>
-    <row r="226" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>224</v>
       </c>
@@ -45138,8 +46492,14 @@
       <c r="BL226" s="2">
         <v>43</v>
       </c>
+      <c r="BM226" s="2">
+        <v>43</v>
+      </c>
+      <c r="BN226" s="2">
+        <v>43</v>
+      </c>
     </row>
-    <row r="227" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>225</v>
       </c>
@@ -45332,8 +46692,14 @@
       <c r="BL227" s="2">
         <v>2850</v>
       </c>
+      <c r="BM227" s="2">
+        <v>2916</v>
+      </c>
+      <c r="BN227" s="2">
+        <v>2933</v>
+      </c>
     </row>
-    <row r="228" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>226</v>
       </c>
@@ -45526,8 +46892,14 @@
       <c r="BL228" s="2">
         <v>2731</v>
       </c>
+      <c r="BM228" s="2">
+        <v>2765</v>
+      </c>
+      <c r="BN228" s="2">
+        <v>2784</v>
+      </c>
     </row>
-    <row r="229" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>227</v>
       </c>
@@ -45720,8 +47092,14 @@
       <c r="BL229" s="2">
         <v>56384</v>
       </c>
+      <c r="BM229" s="2">
+        <v>59205</v>
+      </c>
+      <c r="BN229" s="2">
+        <v>60438</v>
+      </c>
     </row>
-    <row r="230" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>228</v>
       </c>
@@ -45914,8 +47292,14 @@
       <c r="BL230" s="2">
         <v>692</v>
       </c>
+      <c r="BM230" s="2">
+        <v>701</v>
+      </c>
+      <c r="BN230" s="2">
+        <v>701</v>
+      </c>
     </row>
-    <row r="231" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>229</v>
       </c>
@@ -46108,8 +47492,14 @@
       <c r="BL231" s="2">
         <v>662</v>
       </c>
+      <c r="BM231" s="2">
+        <v>685</v>
+      </c>
+      <c r="BN231" s="2">
+        <v>695</v>
+      </c>
     </row>
-    <row r="232" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>230</v>
       </c>
@@ -46302,8 +47692,14 @@
       <c r="BL232" s="2">
         <v>447</v>
       </c>
+      <c r="BM232" s="2">
+        <v>468</v>
+      </c>
+      <c r="BN232" s="2">
+        <v>480</v>
+      </c>
     </row>
-    <row r="233" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>231</v>
       </c>
@@ -46496,8 +47892,14 @@
       <c r="BL233" s="2">
         <v>154</v>
       </c>
+      <c r="BM233" s="2">
+        <v>156</v>
+      </c>
+      <c r="BN233" s="2">
+        <v>157</v>
+      </c>
     </row>
-    <row r="234" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>232</v>
       </c>
@@ -46690,8 +48092,14 @@
       <c r="BL234" s="2">
         <v>895</v>
       </c>
+      <c r="BM234" s="2">
+        <v>938</v>
+      </c>
+      <c r="BN234" s="2">
+        <v>985</v>
+      </c>
     </row>
-    <row r="235" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>233</v>
       </c>
@@ -46884,8 +48292,14 @@
       <c r="BL235" s="2">
         <v>1420</v>
       </c>
+      <c r="BM235" s="2">
+        <v>1523</v>
+      </c>
+      <c r="BN235" s="2">
+        <v>1643</v>
+      </c>
     </row>
-    <row r="236" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>234</v>
       </c>
@@ -47078,8 +48492,14 @@
       <c r="BL236" s="2">
         <v>1484</v>
       </c>
+      <c r="BM236" s="2">
+        <v>1504</v>
+      </c>
+      <c r="BN236" s="2">
+        <v>1509</v>
+      </c>
     </row>
-    <row r="237" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>235</v>
       </c>
@@ -47272,8 +48692,14 @@
       <c r="BL237" s="2">
         <v>3657</v>
       </c>
+      <c r="BM237" s="2">
+        <v>3791</v>
+      </c>
+      <c r="BN237" s="2">
+        <v>3846</v>
+      </c>
     </row>
-    <row r="238" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>236</v>
       </c>
@@ -47466,8 +48892,14 @@
       <c r="BL238" s="2">
         <v>9659</v>
       </c>
+      <c r="BM238" s="2">
+        <v>10649</v>
+      </c>
+      <c r="BN238" s="2">
+        <v>10974</v>
+      </c>
     </row>
-    <row r="239" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>237</v>
       </c>
@@ -47660,8 +49092,14 @@
       <c r="BL239" s="2">
         <v>1769</v>
       </c>
+      <c r="BM239" s="2">
+        <v>1782</v>
+      </c>
+      <c r="BN239" s="2">
+        <v>1786</v>
+      </c>
     </row>
-    <row r="240" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>238</v>
       </c>
@@ -47854,8 +49292,14 @@
       <c r="BL240" s="2">
         <v>249</v>
       </c>
+      <c r="BM240" s="2">
+        <v>250</v>
+      </c>
+      <c r="BN240" s="2">
+        <v>251</v>
+      </c>
     </row>
-    <row r="241" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>239</v>
       </c>
@@ -48048,8 +49492,14 @@
       <c r="BL241" s="2">
         <v>2484</v>
       </c>
+      <c r="BM241" s="2">
+        <v>2489</v>
+      </c>
+      <c r="BN241" s="2">
+        <v>2510</v>
+      </c>
     </row>
-    <row r="242" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>240</v>
       </c>
@@ -48242,8 +49692,14 @@
       <c r="BL242" s="2">
         <v>8348</v>
       </c>
+      <c r="BM242" s="2">
+        <v>8573</v>
+      </c>
+      <c r="BN242" s="2">
+        <v>8772</v>
+      </c>
     </row>
-    <row r="243" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>241</v>
       </c>
@@ -48436,8 +49892,14 @@
       <c r="BL243" s="2">
         <v>2187</v>
       </c>
+      <c r="BM243" s="2">
+        <v>2248</v>
+      </c>
+      <c r="BN243" s="2">
+        <v>2366</v>
+      </c>
     </row>
-    <row r="244" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>242</v>
       </c>
@@ -48630,8 +50092,14 @@
       <c r="BL244" s="2">
         <v>137</v>
       </c>
+      <c r="BM244" s="2">
+        <v>137</v>
+      </c>
+      <c r="BN244" s="2">
+        <v>137</v>
+      </c>
     </row>
-    <row r="245" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>243</v>
       </c>
@@ -48824,8 +50292,14 @@
       <c r="BL245" s="2">
         <v>6876</v>
       </c>
+      <c r="BM245" s="2">
+        <v>6975</v>
+      </c>
+      <c r="BN245" s="2">
+        <v>6994</v>
+      </c>
     </row>
-    <row r="246" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>244</v>
       </c>
@@ -49018,8 +50492,14 @@
       <c r="BL246" s="2">
         <v>292</v>
       </c>
+      <c r="BM246" s="2">
+        <v>294</v>
+      </c>
+      <c r="BN246" s="2">
+        <v>293</v>
+      </c>
     </row>
-    <row r="247" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>245</v>
       </c>
@@ -49212,8 +50692,14 @@
       <c r="BL247" s="2">
         <v>1635</v>
       </c>
+      <c r="BM247" s="2">
+        <v>1642</v>
+      </c>
+      <c r="BN247" s="2">
+        <v>1645</v>
+      </c>
     </row>
-    <row r="248" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>246</v>
       </c>
@@ -49406,8 +50892,14 @@
       <c r="BL248" s="2">
         <v>19026</v>
       </c>
+      <c r="BM248" s="2">
+        <v>19687</v>
+      </c>
+      <c r="BN248" s="2">
+        <v>20111</v>
+      </c>
     </row>
-    <row r="249" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>247</v>
       </c>
@@ -49600,8 +51092,14 @@
       <c r="BL249" s="2">
         <v>1213</v>
       </c>
+      <c r="BM249" s="2">
+        <v>1280</v>
+      </c>
+      <c r="BN249" s="2">
+        <v>1325</v>
+      </c>
     </row>
-    <row r="250" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>248</v>
       </c>
@@ -49794,8 +51292,14 @@
       <c r="BL250" s="2">
         <v>35</v>
       </c>
+      <c r="BM250" s="2">
+        <v>35</v>
+      </c>
+      <c r="BN250" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="251" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>249</v>
       </c>
@@ -49988,8 +51492,14 @@
       <c r="BL251" s="2">
         <v>1516</v>
       </c>
+      <c r="BM251" s="2">
+        <v>1527</v>
+      </c>
+      <c r="BN251" s="2">
+        <v>1529</v>
+      </c>
     </row>
-    <row r="252" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>250</v>
       </c>
@@ -50182,8 +51692,14 @@
       <c r="BL252" s="2">
         <v>843</v>
       </c>
+      <c r="BM252" s="2">
+        <v>892</v>
+      </c>
+      <c r="BN252" s="2">
+        <v>904</v>
+      </c>
     </row>
-    <row r="253" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>251</v>
       </c>
@@ -50376,8 +51892,14 @@
       <c r="BL253" s="2">
         <v>221</v>
       </c>
+      <c r="BM253" s="2">
+        <v>226</v>
+      </c>
+      <c r="BN253" s="2">
+        <v>236</v>
+      </c>
     </row>
-    <row r="254" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>252</v>
       </c>
@@ -50570,8 +52092,14 @@
       <c r="BL254" s="2">
         <v>721</v>
       </c>
+      <c r="BM254" s="2">
+        <v>731</v>
+      </c>
+      <c r="BN254" s="2">
+        <v>738</v>
+      </c>
     </row>
-    <row r="255" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>253</v>
       </c>
@@ -50764,8 +52292,14 @@
       <c r="BL255" s="2">
         <v>523</v>
       </c>
+      <c r="BM255" s="2">
+        <v>594</v>
+      </c>
+      <c r="BN255" s="2">
+        <v>594</v>
+      </c>
     </row>
-    <row r="256" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>254</v>
       </c>
@@ -50958,8 +52492,14 @@
       <c r="BL256" s="2">
         <v>126</v>
       </c>
+      <c r="BM256" s="2">
+        <v>126</v>
+      </c>
+      <c r="BN256" s="2">
+        <v>126</v>
+      </c>
     </row>
-    <row r="257" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>255</v>
       </c>
@@ -51152,8 +52692,14 @@
       <c r="BL257" s="2">
         <v>4580</v>
       </c>
+      <c r="BM257" s="2">
+        <v>4586</v>
+      </c>
+      <c r="BN257" s="2">
+        <v>4581</v>
+      </c>
     </row>
-    <row r="258" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>256</v>
       </c>
@@ -51347,8 +52893,14 @@
       <c r="BL258" s="2">
         <v>412201</v>
       </c>
+      <c r="BM258" s="2">
+        <v>414824</v>
+      </c>
+      <c r="BN258" s="2">
+        <v>432152</v>
+      </c>
     </row>
-    <row r="259" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>257</v>
       </c>
@@ -51545,8 +53097,16 @@
       <c r="BL259" s="10">
         <v>1767701</v>
       </c>
+      <c r="BM259" s="10">
+        <f>SUM(BM3:BM258)</f>
+        <v>1805642</v>
+      </c>
+      <c r="BN259" s="10">
+        <f>SUM(BN3:BN258)</f>
+        <v>1836037</v>
+      </c>
     </row>
-    <row r="261" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>261</v>
       </c>
@@ -51559,7 +53119,7 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
     </row>
-    <row r="262" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="21" t="s">
         <v>258</v>
       </c>
@@ -51572,7 +53132,7 @@
       <c r="H262" s="22"/>
       <c r="I262" s="22"/>
     </row>
-    <row r="263" spans="1:64" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:66" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="23" t="s">
         <v>259</v>
       </c>
@@ -51585,7 +53145,7 @@
       <c r="H263" s="24"/>
       <c r="I263" s="24"/>
     </row>
-    <row r="264" spans="1:64" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="23" t="s">
         <v>260</v>
       </c>
@@ -51598,7 +53158,7 @@
       <c r="H264" s="24"/>
       <c r="I264" s="24"/>
     </row>
-    <row r="265" spans="1:64" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:66" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11" t="s">
         <v>288</v>
       </c>
@@ -51660,10 +53220,17 @@
       <c r="BE265" s="13"/>
       <c r="BF265" s="13"/>
       <c r="BG265" s="13"/>
+      <c r="BH265" s="13"/>
+      <c r="BI265" s="13"/>
+      <c r="BJ265" s="13"/>
+      <c r="BK265" s="13"/>
+      <c r="BL265" s="13"/>
+      <c r="BM265" s="13"/>
+      <c r="BN265" s="13"/>
     </row>
-    <row r="266" spans="1:64" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:66" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B266" s="18"/>
       <c r="C266" s="13"/>
@@ -51674,7 +53241,7 @@
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
     </row>
-    <row r="267" spans="1:64" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:66" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="23" t="s">
         <v>278</v>
       </c>
